--- a/Calculos/MoS_JAVI.xlsx
+++ b/Calculos/MoS_JAVI.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4934C9-189C-431F-A5AA-F19A43CB7CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DF1E32-FB19-4162-9122-149C992B8BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoS Estatico X" sheetId="1" r:id="rId1"/>
     <sheet name="MoS Estatico Y" sheetId="2" r:id="rId2"/>
     <sheet name="MoS Estatico Z" sheetId="3" r:id="rId3"/>
+    <sheet name="RANDOM LATERAL XY" sheetId="4" r:id="rId4"/>
+    <sheet name="RANDOM LONG Z" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="57">
   <si>
     <t>Shell 2D Elements</t>
   </si>
@@ -193,6 +195,21 @@
   <si>
     <t>BENDING Stress</t>
   </si>
+  <si>
+    <t>VALUES 3 SIGMA RMS</t>
+  </si>
+  <si>
+    <t>KA RMS</t>
+  </si>
+  <si>
+    <t>ANALISIS RANDOM  Z</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ANALISIS RANDOM  LATERAL XY</t>
+  </si>
 </sst>
 </file>
 
@@ -277,7 +294,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="63">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -370,16 +387,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -395,16 +402,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -720,11 +717,171 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1046,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3692,55 +3849,55 @@
     <mergeCell ref="Q36:R36"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="48" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28:M29">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:M32">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:M22">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6198,47 +6355,47 @@
     <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6250,7 +6407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E329C4-7E96-4707-A44A-B8116FA21670}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
@@ -8896,27 +9053,6101 @@
     <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28:M29">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:M32">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:M22">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29E2087-3134-4CBC-BDF3-11097EF74533}">
+  <dimension ref="B1:AK65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="Q1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="AD1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+    </row>
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>113000000</v>
+      </c>
+      <c r="E6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.2</v>
+      </c>
+      <c r="G6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6">
+        <v>1.25</v>
+      </c>
+      <c r="J6" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L6" s="3">
+        <f>(J6/PRODUCT(D6:H6))-1</f>
+        <v>1.4046506164549024</v>
+      </c>
+      <c r="M6" s="3">
+        <f>(K6/(E6*F6*G6*I6*D6))-1</f>
+        <v>1.4866525268777879</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R6">
+        <v>21972.1</v>
+      </c>
+      <c r="S6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V6">
+        <v>1.4</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X6" s="5">
+        <f>AE22</f>
+        <v>1431.8501999999999</v>
+      </c>
+      <c r="Y6" s="7">
+        <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
+        <v>0.57855236778033814</v>
+      </c>
+      <c r="Z6" s="7">
+        <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
+        <v>0.82599323709666694</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>477.28339999999997</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>279.82220000000001</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>520.57730000000004</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>3.4808220000000002E-3</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>19.050260000000002</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>18.321660000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R7">
+        <v>21972.1</v>
+      </c>
+      <c r="S7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V7">
+        <v>1.4</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" ref="X7:X17" si="0">AE23</f>
+        <v>5543.5020000000004</v>
+      </c>
+      <c r="Y7" s="7">
+        <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
+        <v>0.56743393756739868</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
+        <v>0.80805560395353249</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1847.8340000000001</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>284.18599999999998</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>553.82069999999999</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>3.1896070000000001E-3</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>56.97392</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>4.4511669999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R8">
+        <v>21972.1</v>
+      </c>
+      <c r="S8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V8">
+        <v>1.4</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" si="0"/>
+        <v>5543.4030000000002</v>
+      </c>
+      <c r="Y8" s="7">
+        <f>((Q8*U8)/(R8+S8*X8*T8))-1</f>
+        <v>0.56743420339046646</v>
+      </c>
+      <c r="Z8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.80805603161165407</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1847.8009999999999</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>284.18770000000001</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>553.81700000000001</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>3.1913850000000001E-3</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>56.973379999999999</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>4.4509869999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R9">
+        <v>21972.1</v>
+      </c>
+      <c r="S9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V9">
+        <v>1.4</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="0"/>
+        <v>1431.8636999999999</v>
+      </c>
+      <c r="Y9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57855233101566994</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82599317761680568</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>477.28789999999998</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>279.82769999999999</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>520.57270000000005</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>3.4766860000000001E-3</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>19.050360000000001</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>18.321840000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R10">
+        <v>21972.1</v>
+      </c>
+      <c r="S10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V10">
+        <v>1.4</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="0"/>
+        <v>2205.8631</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57644730255712484</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82258935855089232</v>
+      </c>
+      <c r="AD10">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>735.28769999999997</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>212.89949999999999</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>1154.481</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>7.7330059999999997E-3</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>8.4594930000000002</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>25.785810000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R11">
+        <v>21972.1</v>
+      </c>
+      <c r="S11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V11">
+        <v>1.4</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" si="0"/>
+        <v>2205.8960999999999</v>
+      </c>
+      <c r="Y11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57644721292746737</v>
+      </c>
+      <c r="Z11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82258921369724747</v>
+      </c>
+      <c r="AD11">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>735.29870000000005</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>212.89349999999999</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>1154.489</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>7.7287700000000003E-3</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>8.4596540000000005</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>25.786049999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R12">
+        <v>21972.1</v>
+      </c>
+      <c r="S12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V12">
+        <v>1.4</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="0"/>
+        <v>2205.8816999999999</v>
+      </c>
+      <c r="Y12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57644725203858926</v>
+      </c>
+      <c r="Z12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82258927690610806</v>
+      </c>
+      <c r="AD12">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>735.29390000000001</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>212.89609999999999</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>1154.4749999999999</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>7.7287909999999996E-3</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>8.4597510000000007</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>25.786010000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>210000000</v>
+      </c>
+      <c r="E13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F13">
+        <v>1.2</v>
+      </c>
+      <c r="G13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I13">
+        <v>1.25</v>
+      </c>
+      <c r="J13" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L13" s="3">
+        <f>(J13/PRODUCT(D13:H13))-1</f>
+        <v>0.2939310459971618</v>
+      </c>
+      <c r="M13" s="3">
+        <f>(K13/(D13*E13*F13*G13*I13))-1</f>
+        <v>0.33805588351042903</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R13">
+        <v>21972.1</v>
+      </c>
+      <c r="S13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V13">
+        <v>1.4</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" si="0"/>
+        <v>1431.8654999999999</v>
+      </c>
+      <c r="Y13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57855232611371421</v>
+      </c>
+      <c r="Z13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82599316968615799</v>
+      </c>
+      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>477.2885</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>279.82010000000002</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>520.57100000000003</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>3.476884E-3</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>19.05058</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>18.321899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R14">
+        <v>21972.1</v>
+      </c>
+      <c r="S14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V14">
+        <v>1.4</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X14" s="5">
+        <f t="shared" si="0"/>
+        <v>1431.8523</v>
+      </c>
+      <c r="Y14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57855236206138949</v>
+      </c>
+      <c r="Z14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82599322784424367</v>
+      </c>
+      <c r="AD14">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>477.28410000000002</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>279.815</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>520.577</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>3.480805E-3</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>19.050460000000001</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>18.321729999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R15">
+        <v>21972.1</v>
+      </c>
+      <c r="S15">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V15">
+        <v>1.4</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" si="0"/>
+        <v>2205.8579999999997</v>
+      </c>
+      <c r="Y15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57644731640898184</v>
+      </c>
+      <c r="Z15" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82258938093736678</v>
+      </c>
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>735.28599999999994</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>212.9016</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>1154.471</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>7.7329019999999998E-3</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>8.4595889999999994</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>25.785830000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R16">
+        <v>21972.1</v>
+      </c>
+      <c r="S16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V16">
+        <v>1.4</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" si="0"/>
+        <v>5543.5410000000002</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5674338328492452</v>
+      </c>
+      <c r="Z16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.80805543548220693</v>
+      </c>
+      <c r="AD16">
+        <v>11</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>1847.847</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>284.14760000000001</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>553.81690000000003</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>3.1912329999999999E-3</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>56.974600000000002</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>4.4508520000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5">
+        <v>210000000</v>
+      </c>
+      <c r="E17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F17">
+        <v>1.2</v>
+      </c>
+      <c r="G17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I17">
+        <v>1.25</v>
+      </c>
+      <c r="J17" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L17" s="3">
+        <f>(J17/PRODUCT(D17:H17))-1</f>
+        <v>0.2939310459971618</v>
+      </c>
+      <c r="M17" s="3">
+        <f>(K17/(PRODUCT(D17:G17)*I17))-1</f>
+        <v>0.33805588351042903</v>
+      </c>
+      <c r="P17">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R17">
+        <v>21972.1</v>
+      </c>
+      <c r="S17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V17">
+        <v>1.4</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X17" s="5">
+        <f t="shared" si="0"/>
+        <v>5543.6369999999997</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.56743357508154246</v>
+      </c>
+      <c r="Z17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.80805502078369318</v>
+      </c>
+      <c r="AD17">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>1847.8789999999999</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>284.15030000000002</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>553.82060000000001</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>3.1894409999999999E-3</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>56.975119999999997</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>4.4510319999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="AD19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+    </row>
+    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="8"/>
+      <c r="AB20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+    </row>
+    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F22">
+        <v>1.2</v>
+      </c>
+      <c r="G22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I22">
+        <v>1.25</v>
+      </c>
+      <c r="J22" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K22" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L22" s="3">
+        <f>(J22/PRODUCT(D22:H22))-1</f>
+        <v>271725518.65940386</v>
+      </c>
+      <c r="M22" s="3">
+        <f>(K22/(PRODUCT(D22:G22)*I22))-1</f>
+        <v>280991734.53719008</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>13241.4</v>
+      </c>
+      <c r="R22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <f>AE22</f>
+        <v>1431.8501999999999</v>
+      </c>
+      <c r="U22" s="4">
+        <f>(Q22/((1-R22)*T22*S22))-1</f>
+        <v>8.6130510471340269</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2">
+        <f>AE6*$AC$20</f>
+        <v>1431.8501999999999</v>
+      </c>
+      <c r="AF22" s="2">
+        <f t="shared" ref="AF22:AJ22" si="3">AF6*$AC$20</f>
+        <v>839.46659999999997</v>
+      </c>
+      <c r="AG22" s="2">
+        <f t="shared" si="3"/>
+        <v>1561.7319000000002</v>
+      </c>
+      <c r="AH22" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0442466000000001E-2</v>
+      </c>
+      <c r="AI22" s="2">
+        <f t="shared" si="3"/>
+        <v>57.150780000000005</v>
+      </c>
+      <c r="AJ22" s="2">
+        <f t="shared" si="3"/>
+        <v>54.964980000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>13241.4</v>
+      </c>
+      <c r="R23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" ref="T23:T33" si="4">AE23</f>
+        <v>5543.5020000000004</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" ref="U23:U33" si="5">(Q23/((1-R23)*T23*S23))-1</f>
+        <v>1.4829880217323028</v>
+      </c>
+      <c r="AD23">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="2">
+        <f t="shared" ref="AE23:AJ23" si="6">AE7*$AC$20</f>
+        <v>5543.5020000000004</v>
+      </c>
+      <c r="AF23" s="2">
+        <f t="shared" si="6"/>
+        <v>852.55799999999999</v>
+      </c>
+      <c r="AG23" s="2">
+        <f t="shared" si="6"/>
+        <v>1661.4621</v>
+      </c>
+      <c r="AH23" s="2">
+        <f t="shared" si="6"/>
+        <v>9.5688209999999999E-3</v>
+      </c>
+      <c r="AI23" s="2">
+        <f t="shared" si="6"/>
+        <v>170.92176000000001</v>
+      </c>
+      <c r="AJ23" s="2">
+        <f t="shared" si="6"/>
+        <v>13.353501</v>
+      </c>
+    </row>
+    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>13241.4</v>
+      </c>
+      <c r="R24">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24" s="5">
+        <f t="shared" si="4"/>
+        <v>5543.4030000000002</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4830323655792417</v>
+      </c>
+      <c r="AC24" s="6"/>
+      <c r="AD24">
+        <v>3</v>
+      </c>
+      <c r="AE24" s="2">
+        <f t="shared" ref="AE24:AJ24" si="7">AE8*$AC$20</f>
+        <v>5543.4030000000002</v>
+      </c>
+      <c r="AF24" s="2">
+        <f t="shared" si="7"/>
+        <v>852.56310000000008</v>
+      </c>
+      <c r="AG24" s="2">
+        <f t="shared" si="7"/>
+        <v>1661.451</v>
+      </c>
+      <c r="AH24" s="2">
+        <f t="shared" si="7"/>
+        <v>9.5741550000000009E-3</v>
+      </c>
+      <c r="AI24" s="2">
+        <f t="shared" si="7"/>
+        <v>170.92014</v>
+      </c>
+      <c r="AJ24" s="2">
+        <f t="shared" si="7"/>
+        <v>13.352960999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>13241.4</v>
+      </c>
+      <c r="R25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="4"/>
+        <v>1431.8636999999999</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="5"/>
+        <v>8.6129604126768946</v>
+      </c>
+      <c r="AD25">
+        <v>4</v>
+      </c>
+      <c r="AE25" s="2">
+        <f t="shared" ref="AE25:AJ25" si="8">AE9*$AC$20</f>
+        <v>1431.8636999999999</v>
+      </c>
+      <c r="AF25" s="2">
+        <f t="shared" si="8"/>
+        <v>839.48309999999992</v>
+      </c>
+      <c r="AG25" s="2">
+        <f t="shared" si="8"/>
+        <v>1561.7181</v>
+      </c>
+      <c r="AH25" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0430058000000001E-2</v>
+      </c>
+      <c r="AI25" s="2">
+        <f t="shared" si="8"/>
+        <v>57.151080000000007</v>
+      </c>
+      <c r="AJ25" s="2">
+        <f t="shared" si="8"/>
+        <v>54.965520000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>13241.4</v>
+      </c>
+      <c r="R26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" si="4"/>
+        <v>2205.8631</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="5"/>
+        <v>5.239938038062772</v>
+      </c>
+      <c r="AD26">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="2">
+        <f t="shared" ref="AE26:AJ26" si="9">AE10*$AC$20</f>
+        <v>2205.8631</v>
+      </c>
+      <c r="AF26" s="2">
+        <f t="shared" si="9"/>
+        <v>638.69849999999997</v>
+      </c>
+      <c r="AG26" s="2">
+        <f t="shared" si="9"/>
+        <v>3463.4430000000002</v>
+      </c>
+      <c r="AH26" s="2">
+        <f t="shared" si="9"/>
+        <v>2.3199017999999998E-2</v>
+      </c>
+      <c r="AI26" s="2">
+        <f t="shared" si="9"/>
+        <v>25.378478999999999</v>
+      </c>
+      <c r="AJ26" s="2">
+        <f t="shared" si="9"/>
+        <v>77.357430000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>13241.4</v>
+      </c>
+      <c r="R27">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" si="4"/>
+        <v>2205.8960999999999</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2398446891714734</v>
+      </c>
+      <c r="AD27">
+        <v>6</v>
+      </c>
+      <c r="AE27" s="2">
+        <f t="shared" ref="AE27:AJ27" si="10">AE11*$AC$20</f>
+        <v>2205.8960999999999</v>
+      </c>
+      <c r="AF27" s="2">
+        <f t="shared" si="10"/>
+        <v>638.68049999999994</v>
+      </c>
+      <c r="AG27" s="2">
+        <f t="shared" si="10"/>
+        <v>3463.4670000000001</v>
+      </c>
+      <c r="AH27" s="2">
+        <f t="shared" si="10"/>
+        <v>2.3186310000000002E-2</v>
+      </c>
+      <c r="AI27" s="2">
+        <f t="shared" si="10"/>
+        <v>25.378962000000001</v>
+      </c>
+      <c r="AJ27" s="2">
+        <f t="shared" si="10"/>
+        <v>77.358149999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5">
+        <v>210000000</v>
+      </c>
+      <c r="E28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F28">
+        <v>1.2</v>
+      </c>
+      <c r="G28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I28">
+        <v>1.25</v>
+      </c>
+      <c r="J28" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K28" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L28" s="3">
+        <f>(J28/PRODUCT(D28:H28))-1</f>
+        <v>0.2939310459971618</v>
+      </c>
+      <c r="M28" s="3">
+        <f>(K28/(D28*E28*F28*G28*I28))-1</f>
+        <v>0.33805588351042903</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>13241.4</v>
+      </c>
+      <c r="R28">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="4"/>
+        <v>2205.8816999999999</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2398854228896612</v>
+      </c>
+      <c r="AD28">
+        <v>7</v>
+      </c>
+      <c r="AE28" s="2">
+        <f t="shared" ref="AE28:AJ28" si="11">AE12*$AC$20</f>
+        <v>2205.8816999999999</v>
+      </c>
+      <c r="AF28" s="2">
+        <f t="shared" si="11"/>
+        <v>638.68830000000003</v>
+      </c>
+      <c r="AG28" s="2">
+        <f t="shared" si="11"/>
+        <v>3463.4249999999997</v>
+      </c>
+      <c r="AH28" s="2">
+        <f t="shared" si="11"/>
+        <v>2.3186373E-2</v>
+      </c>
+      <c r="AI28" s="2">
+        <f t="shared" si="11"/>
+        <v>25.379253000000002</v>
+      </c>
+      <c r="AJ28" s="2">
+        <f t="shared" si="11"/>
+        <v>77.358029999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>13241.4</v>
+      </c>
+      <c r="R29">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" si="4"/>
+        <v>1431.8654999999999</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="5"/>
+        <v>8.6129483282117381</v>
+      </c>
+      <c r="AD29">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="2">
+        <f t="shared" ref="AE29:AJ29" si="12">AE13*$AC$20</f>
+        <v>1431.8654999999999</v>
+      </c>
+      <c r="AF29" s="2">
+        <f t="shared" si="12"/>
+        <v>839.46030000000007</v>
+      </c>
+      <c r="AG29" s="2">
+        <f t="shared" si="12"/>
+        <v>1561.7130000000002</v>
+      </c>
+      <c r="AH29" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0430652E-2</v>
+      </c>
+      <c r="AI29" s="2">
+        <f t="shared" si="12"/>
+        <v>57.151740000000004</v>
+      </c>
+      <c r="AJ29" s="2">
+        <f t="shared" si="12"/>
+        <v>54.965699999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="P30">
+        <v>9</v>
+      </c>
+      <c r="Q30">
+        <v>13241.4</v>
+      </c>
+      <c r="R30">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30" s="5">
+        <f t="shared" si="4"/>
+        <v>1431.8523</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="5"/>
+        <v>8.6130369483284444</v>
+      </c>
+      <c r="W30" s="2"/>
+      <c r="AD30">
+        <v>9</v>
+      </c>
+      <c r="AE30" s="2">
+        <f t="shared" ref="AE30:AJ30" si="13">AE14*$AC$20</f>
+        <v>1431.8523</v>
+      </c>
+      <c r="AF30" s="2">
+        <f t="shared" si="13"/>
+        <v>839.44499999999994</v>
+      </c>
+      <c r="AG30" s="2">
+        <f t="shared" si="13"/>
+        <v>1561.731</v>
+      </c>
+      <c r="AH30" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0442415E-2</v>
+      </c>
+      <c r="AI30" s="2">
+        <f t="shared" si="13"/>
+        <v>57.151380000000003</v>
+      </c>
+      <c r="AJ30" s="2">
+        <f t="shared" si="13"/>
+        <v>54.965189999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <v>13241.4</v>
+      </c>
+      <c r="R31">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" s="5">
+        <f t="shared" si="4"/>
+        <v>2205.8579999999997</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2399524649587894</v>
+      </c>
+      <c r="AD31">
+        <v>10</v>
+      </c>
+      <c r="AE31" s="2">
+        <f t="shared" ref="AE31:AJ31" si="14">AE15*$AC$20</f>
+        <v>2205.8579999999997</v>
+      </c>
+      <c r="AF31" s="2">
+        <f t="shared" si="14"/>
+        <v>638.70479999999998</v>
+      </c>
+      <c r="AG31" s="2">
+        <f t="shared" si="14"/>
+        <v>3463.413</v>
+      </c>
+      <c r="AH31" s="2">
+        <f t="shared" si="14"/>
+        <v>2.3198705999999999E-2</v>
+      </c>
+      <c r="AI31" s="2">
+        <f t="shared" si="14"/>
+        <v>25.378766999999996</v>
+      </c>
+      <c r="AJ31" s="2">
+        <f t="shared" si="14"/>
+        <v>77.357489999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5">
+        <v>210000000</v>
+      </c>
+      <c r="E32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F32">
+        <v>1.2</v>
+      </c>
+      <c r="G32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I32">
+        <v>1.25</v>
+      </c>
+      <c r="J32" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K32" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L32" s="3">
+        <f>(J32/PRODUCT(D32:H32))-1</f>
+        <v>0.2939310459971618</v>
+      </c>
+      <c r="M32" s="3">
+        <f>(K32/(PRODUCT(D32:G32)*I32))-1</f>
+        <v>0.33805588351042903</v>
+      </c>
+      <c r="P32">
+        <v>11</v>
+      </c>
+      <c r="Q32">
+        <v>13241.4</v>
+      </c>
+      <c r="R32">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="4"/>
+        <v>5543.5410000000002</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4829705533789799</v>
+      </c>
+      <c r="AD32">
+        <v>11</v>
+      </c>
+      <c r="AE32" s="2">
+        <f t="shared" ref="AE32:AJ32" si="15">AE16*$AC$20</f>
+        <v>5543.5410000000002</v>
+      </c>
+      <c r="AF32" s="2">
+        <f t="shared" si="15"/>
+        <v>852.44280000000003</v>
+      </c>
+      <c r="AG32" s="2">
+        <f t="shared" si="15"/>
+        <v>1661.4507000000001</v>
+      </c>
+      <c r="AH32" s="2">
+        <f t="shared" si="15"/>
+        <v>9.5736989999999998E-3</v>
+      </c>
+      <c r="AI32" s="2">
+        <f t="shared" si="15"/>
+        <v>170.9238</v>
+      </c>
+      <c r="AJ32" s="2">
+        <f t="shared" si="15"/>
+        <v>13.352556</v>
+      </c>
+    </row>
+    <row r="33" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <v>13241.4</v>
+      </c>
+      <c r="R33">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5">
+        <f t="shared" si="4"/>
+        <v>5543.6369999999997</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4829275554025392</v>
+      </c>
+      <c r="AD33">
+        <v>12</v>
+      </c>
+      <c r="AE33" s="2">
+        <f t="shared" ref="AE33:AJ33" si="16">AE17*$AC$20</f>
+        <v>5543.6369999999997</v>
+      </c>
+      <c r="AF33" s="2">
+        <f t="shared" si="16"/>
+        <v>852.45090000000005</v>
+      </c>
+      <c r="AG33" s="2">
+        <f t="shared" si="16"/>
+        <v>1661.4618</v>
+      </c>
+      <c r="AH33" s="2">
+        <f t="shared" si="16"/>
+        <v>9.5683230000000001E-3</v>
+      </c>
+      <c r="AI33" s="2">
+        <f t="shared" si="16"/>
+        <v>170.92535999999998</v>
+      </c>
+      <c r="AJ33" s="2">
+        <f t="shared" si="16"/>
+        <v>13.353095999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="Q36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" t="s">
+        <v>23</v>
+      </c>
+      <c r="V37" t="s">
+        <v>32</v>
+      </c>
+      <c r="W37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>13241.4</v>
+      </c>
+      <c r="R38">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S38">
+        <v>0.2</v>
+      </c>
+      <c r="T38">
+        <v>1.4</v>
+      </c>
+      <c r="U38" s="5">
+        <f>AE22</f>
+        <v>1431.8501999999999</v>
+      </c>
+      <c r="V38" s="5">
+        <f>SQRT(AF22^2 + AG22^2)</f>
+        <v>1773.0512400923924</v>
+      </c>
+      <c r="W38" s="4">
+        <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
+        <v>-4.4104645360085737E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>13241.4</v>
+      </c>
+      <c r="R39">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S39">
+        <v>0.2</v>
+      </c>
+      <c r="T39">
+        <v>1.4</v>
+      </c>
+      <c r="U39" s="5">
+        <f t="shared" ref="U39:U49" si="17">AE23</f>
+        <v>5543.5020000000004</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" ref="V39:V49" si="18">SQRT(AF23^2 + AG23^2)</f>
+        <v>1867.4344575112696</v>
+      </c>
+      <c r="W39" s="4">
+        <f t="shared" ref="W39:W49" si="19">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
+        <v>-0.39500258961547796</v>
+      </c>
+    </row>
+    <row r="40" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>13241.4</v>
+      </c>
+      <c r="R40">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S40">
+        <v>0.2</v>
+      </c>
+      <c r="T40">
+        <v>1.4</v>
+      </c>
+      <c r="U40" s="5">
+        <f t="shared" si="17"/>
+        <v>5543.4030000000002</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="18"/>
+        <v>1867.4269101848699</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="19"/>
+        <v>-0.39499285882419533</v>
+      </c>
+    </row>
+    <row r="41" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>13241.4</v>
+      </c>
+      <c r="R41">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S41">
+        <v>0.2</v>
+      </c>
+      <c r="T41">
+        <v>1.4</v>
+      </c>
+      <c r="U41" s="5">
+        <f t="shared" si="17"/>
+        <v>1431.8636999999999</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="18"/>
+        <v>1773.0468970259135</v>
+      </c>
+      <c r="W41" s="4">
+        <f t="shared" si="19"/>
+        <v>-4.4103350283592357E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42">
+        <v>13241.4</v>
+      </c>
+      <c r="R42">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S42">
+        <v>0.2</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42" s="5">
+        <f t="shared" si="17"/>
+        <v>2205.8631</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="18"/>
+        <v>3521.8423002955783</v>
+      </c>
+      <c r="W42" s="4">
+        <f t="shared" si="19"/>
+        <v>-0.54896334889973508</v>
+      </c>
+    </row>
+    <row r="43" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>13241.4</v>
+      </c>
+      <c r="R43">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S43">
+        <v>0.2</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43" s="5">
+        <f t="shared" si="17"/>
+        <v>2205.8960999999999</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="18"/>
+        <v>3521.8626380325013</v>
+      </c>
+      <c r="W43" s="4">
+        <f t="shared" si="19"/>
+        <v>-0.54896724121724383</v>
+      </c>
+    </row>
+    <row r="44" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>13241.4</v>
+      </c>
+      <c r="R44">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S44">
+        <v>0.2</v>
+      </c>
+      <c r="T44">
+        <v>1.4</v>
+      </c>
+      <c r="U44" s="5">
+        <f t="shared" si="17"/>
+        <v>2205.8816999999999</v>
+      </c>
+      <c r="V44" s="5">
+        <f t="shared" si="18"/>
+        <v>3521.8227489727374</v>
+      </c>
+      <c r="W44" s="4">
+        <f t="shared" si="19"/>
+        <v>-0.54896157078874053</v>
+      </c>
+    </row>
+    <row r="45" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>8</v>
+      </c>
+      <c r="Q45">
+        <v>13241.4</v>
+      </c>
+      <c r="R45">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S45">
+        <v>0.2</v>
+      </c>
+      <c r="T45">
+        <v>1.4</v>
+      </c>
+      <c r="U45" s="5">
+        <f t="shared" si="17"/>
+        <v>1431.8654999999999</v>
+      </c>
+      <c r="V45" s="5">
+        <f t="shared" si="18"/>
+        <v>1773.0316098832222</v>
+      </c>
+      <c r="W45" s="4">
+        <f t="shared" si="19"/>
+        <v>-4.4095248026997713E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>13241.4</v>
+      </c>
+      <c r="R46">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S46">
+        <v>0.2</v>
+      </c>
+      <c r="T46">
+        <v>1.4</v>
+      </c>
+      <c r="U46" s="5">
+        <f t="shared" si="17"/>
+        <v>1431.8523</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="18"/>
+        <v>1773.0402207468392</v>
+      </c>
+      <c r="W46" s="4">
+        <f t="shared" si="19"/>
+        <v>-4.4098867295321087E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>10</v>
+      </c>
+      <c r="Q47">
+        <v>13241.4</v>
+      </c>
+      <c r="R47">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S47">
+        <v>0.2</v>
+      </c>
+      <c r="T47">
+        <v>1.4</v>
+      </c>
+      <c r="U47" s="5">
+        <f t="shared" si="17"/>
+        <v>2205.8579999999997</v>
+      </c>
+      <c r="V47" s="5">
+        <f t="shared" si="18"/>
+        <v>3521.8139403029286</v>
+      </c>
+      <c r="W47" s="4">
+        <f t="shared" si="19"/>
+        <v>-0.54895951783936303</v>
+      </c>
+    </row>
+    <row r="48" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>11</v>
+      </c>
+      <c r="Q48">
+        <v>13241.4</v>
+      </c>
+      <c r="R48">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S48">
+        <v>0.2</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48" s="5">
+        <f t="shared" si="17"/>
+        <v>5543.5410000000002</v>
+      </c>
+      <c r="V48" s="5">
+        <f t="shared" si="18"/>
+        <v>1867.3717240555857</v>
+      </c>
+      <c r="W48" s="4">
+        <f t="shared" si="19"/>
+        <v>-0.3949851352096263</v>
+      </c>
+    </row>
+    <row r="49" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>12</v>
+      </c>
+      <c r="Q49">
+        <v>13241.4</v>
+      </c>
+      <c r="R49">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S49">
+        <v>0.2</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49" s="5">
+        <f t="shared" si="17"/>
+        <v>5543.6369999999997</v>
+      </c>
+      <c r="V49" s="5">
+        <f t="shared" si="18"/>
+        <v>1867.3852976207268</v>
+      </c>
+      <c r="W49" s="4">
+        <f t="shared" si="19"/>
+        <v>-0.3949965979492992</v>
+      </c>
+    </row>
+    <row r="50" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="4"/>
+    </row>
+    <row r="52" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="Q52" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="8"/>
+    </row>
+    <row r="53" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" t="s">
+        <v>18</v>
+      </c>
+      <c r="S53" t="s">
+        <v>17</v>
+      </c>
+      <c r="T53" t="s">
+        <v>19</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R54">
+        <v>21972.1</v>
+      </c>
+      <c r="S54">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V54" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W54">
+        <v>1.4</v>
+      </c>
+      <c r="X54" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z54" s="5">
+        <f>AE22</f>
+        <v>1431.8501999999999</v>
+      </c>
+      <c r="AA54" s="5">
+        <f>SQRT(AF22^2 + AG22^2)</f>
+        <v>1773.0512400923924</v>
+      </c>
+      <c r="AB54" s="2">
+        <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
+        <v>0.56340352827607476</v>
+      </c>
+      <c r="AC54" s="2">
+        <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
+        <v>0.78107888189569108</v>
+      </c>
+    </row>
+    <row r="55" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R55">
+        <v>21972.1</v>
+      </c>
+      <c r="S55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V55" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z55" s="5">
+        <f t="shared" ref="Z55:Z65" si="20">AE23</f>
+        <v>5543.5020000000004</v>
+      </c>
+      <c r="AA55" s="5">
+        <f t="shared" ref="AA55:AA65" si="21">SQRT(AF23^2 + AG23^2)</f>
+        <v>1867.4344575112696</v>
+      </c>
+      <c r="AB55" s="2">
+        <f t="shared" ref="AB55:AB65" si="22">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
+        <v>0.55100404628262045</v>
+      </c>
+      <c r="AC55" s="2">
+        <f t="shared" ref="AC55:AC65" si="23">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
+        <v>0.75984067124127885</v>
+      </c>
+    </row>
+    <row r="56" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R56">
+        <v>21972.1</v>
+      </c>
+      <c r="S56">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V56" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z56" s="5">
+        <f t="shared" si="20"/>
+        <v>5543.4030000000002</v>
+      </c>
+      <c r="AA56" s="5">
+        <f t="shared" si="21"/>
+        <v>1867.4269101848699</v>
+      </c>
+      <c r="AB56" s="2">
+        <f t="shared" si="22"/>
+        <v>0.55100443455732351</v>
+      </c>
+      <c r="AC56" s="2">
+        <f t="shared" si="23"/>
+        <v>0.7598414398659521</v>
+      </c>
+    </row>
+    <row r="57" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R57">
+        <v>21972.1</v>
+      </c>
+      <c r="S57">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V57" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W57">
+        <v>1.4</v>
+      </c>
+      <c r="X57" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z57" s="5">
+        <f t="shared" si="20"/>
+        <v>1431.8636999999999</v>
+      </c>
+      <c r="AA57" s="5">
+        <f t="shared" si="21"/>
+        <v>1773.0468970259135</v>
+      </c>
+      <c r="AB57" s="2">
+        <f t="shared" si="22"/>
+        <v>0.56340356570853656</v>
+      </c>
+      <c r="AC57" s="2">
+        <f t="shared" si="23"/>
+        <v>0.78107903868013095</v>
+      </c>
+    </row>
+    <row r="58" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R58">
+        <v>21972.1</v>
+      </c>
+      <c r="S58">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V58" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z58" s="5">
+        <f t="shared" si="20"/>
+        <v>2205.8631</v>
+      </c>
+      <c r="AA58" s="5">
+        <f t="shared" si="21"/>
+        <v>3521.8423002955783</v>
+      </c>
+      <c r="AB58" s="2">
+        <f t="shared" si="22"/>
+        <v>0.51931229175222615</v>
+      </c>
+      <c r="AC58" s="2">
+        <f t="shared" si="23"/>
+        <v>0.66327084729980323</v>
+      </c>
+    </row>
+    <row r="59" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R59">
+        <v>21972.1</v>
+      </c>
+      <c r="S59">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V59" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z59" s="5">
+        <f t="shared" si="20"/>
+        <v>2205.8960999999999</v>
+      </c>
+      <c r="AA59" s="5">
+        <f t="shared" si="21"/>
+        <v>3521.8626380325013</v>
+      </c>
+      <c r="AB59" s="2">
+        <f t="shared" si="22"/>
+        <v>0.51931158707808889</v>
+      </c>
+      <c r="AC59" s="2">
+        <f t="shared" si="23"/>
+        <v>0.66326913139649069</v>
+      </c>
+    </row>
+    <row r="60" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>7</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R60">
+        <v>21972.1</v>
+      </c>
+      <c r="S60">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V60" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z60" s="5">
+        <f t="shared" si="20"/>
+        <v>2205.8816999999999</v>
+      </c>
+      <c r="AA60" s="5">
+        <f t="shared" si="21"/>
+        <v>3521.8227489727374</v>
+      </c>
+      <c r="AB60" s="2">
+        <f t="shared" si="22"/>
+        <v>0.51931284682235401</v>
+      </c>
+      <c r="AC60" s="2">
+        <f t="shared" si="23"/>
+        <v>0.66327232896346433</v>
+      </c>
+    </row>
+    <row r="61" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R61">
+        <v>21972.1</v>
+      </c>
+      <c r="S61">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V61" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W61">
+        <v>1.4</v>
+      </c>
+      <c r="X61" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z61" s="5">
+        <f t="shared" si="20"/>
+        <v>1431.8654999999999</v>
+      </c>
+      <c r="AA61" s="5">
+        <f t="shared" si="21"/>
+        <v>1773.0316098832222</v>
+      </c>
+      <c r="AB61" s="2">
+        <f t="shared" si="22"/>
+        <v>0.56340381842118736</v>
+      </c>
+      <c r="AC61" s="2">
+        <f t="shared" si="23"/>
+        <v>0.78107977747240454</v>
+      </c>
+    </row>
+    <row r="62" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R62">
+        <v>21972.1</v>
+      </c>
+      <c r="S62">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V62" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W62">
+        <v>1.4</v>
+      </c>
+      <c r="X62" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z62" s="5">
+        <f t="shared" si="20"/>
+        <v>1431.8523</v>
+      </c>
+      <c r="AA62" s="5">
+        <f t="shared" si="21"/>
+        <v>1773.0402207468392</v>
+      </c>
+      <c r="AB62" s="2">
+        <f t="shared" si="22"/>
+        <v>0.56340370831499276</v>
+      </c>
+      <c r="AC62" s="2">
+        <f t="shared" si="23"/>
+        <v>0.78107941115565249</v>
+      </c>
+    </row>
+    <row r="63" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R63">
+        <v>21972.1</v>
+      </c>
+      <c r="S63">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V63" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z63" s="5">
+        <f t="shared" si="20"/>
+        <v>2205.8579999999997</v>
+      </c>
+      <c r="AA63" s="5">
+        <f t="shared" si="21"/>
+        <v>3521.8139403029286</v>
+      </c>
+      <c r="AB63" s="2">
+        <f t="shared" si="22"/>
+        <v>0.51931317489998641</v>
+      </c>
+      <c r="AC63" s="2">
+        <f t="shared" si="23"/>
+        <v>0.66327310353442193</v>
+      </c>
+    </row>
+    <row r="64" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>11</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R64">
+        <v>21972.1</v>
+      </c>
+      <c r="S64">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V64" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z64" s="5">
+        <f t="shared" si="20"/>
+        <v>5543.5410000000002</v>
+      </c>
+      <c r="AA64" s="5">
+        <f t="shared" si="21"/>
+        <v>1867.3717240555857</v>
+      </c>
+      <c r="AB64" s="2">
+        <f t="shared" si="22"/>
+        <v>0.55100503138166457</v>
+      </c>
+      <c r="AC64" s="2">
+        <f t="shared" si="23"/>
+        <v>0.75984362682804596</v>
+      </c>
+    </row>
+    <row r="65" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>12</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R65">
+        <v>21972.1</v>
+      </c>
+      <c r="S65">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V65" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z65" s="5">
+        <f t="shared" si="20"/>
+        <v>5543.6369999999997</v>
+      </c>
+      <c r="AA65" s="5">
+        <f t="shared" si="21"/>
+        <v>1867.3852976207268</v>
+      </c>
+      <c r="AB65" s="2">
+        <f t="shared" si="22"/>
+        <v>0.55100454654013853</v>
+      </c>
+      <c r="AC65" s="2">
+        <f t="shared" si="23"/>
+        <v>0.75984257132478139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="AD19:AK20"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="Q1:V2"/>
+    <mergeCell ref="AD1:AK2"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q36:R36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L6:M7 L13:M14">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:M19">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Z17">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28:M29">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:M32">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:M22">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6299180F-B9DC-4F73-90FF-4FF4CF35D475}">
+  <dimension ref="B1:AK65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="Q1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="AD1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+    </row>
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>70900000</v>
+      </c>
+      <c r="E6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.2</v>
+      </c>
+      <c r="G6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6">
+        <v>1.25</v>
+      </c>
+      <c r="J6" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L6" s="3">
+        <f>(J6/PRODUCT(D6:H6))-1</f>
+        <v>2.832517907748997</v>
+      </c>
+      <c r="M6" s="3">
+        <f>(K6/(E6*F6*G6*I6*D6))-1</f>
+        <v>2.9632120668150925</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R6">
+        <v>21972.1</v>
+      </c>
+      <c r="S6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V6">
+        <v>1.4</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X6" s="5">
+        <f>AE22</f>
+        <v>1482.9837</v>
+      </c>
+      <c r="Y6" s="7">
+        <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
+        <v>0.57841312775145681</v>
+      </c>
+      <c r="Z6" s="7">
+        <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
+        <v>0.82576797499487786</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>494.3279</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>52.867080000000001</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>52.86056</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>1.131045E-6</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>10.560309999999999</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>10.5603</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R7">
+        <v>21972.1</v>
+      </c>
+      <c r="S7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V7">
+        <v>1.4</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" ref="X7:X17" si="0">AE23</f>
+        <v>2203.6449000000002</v>
+      </c>
+      <c r="Y7" s="7">
+        <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
+        <v>0.57645332732310273</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
+        <v>0.8225990954023219</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>734.54830000000004</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>10.56025</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>147.04849999999999</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>5.1840990000000004E-4</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>20.10352</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>4.5082550000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R8">
+        <v>21972.1</v>
+      </c>
+      <c r="S8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V8">
+        <v>1.4</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" si="0"/>
+        <v>2203.5579000000002</v>
+      </c>
+      <c r="Y8" s="7">
+        <f>((Q8*U8)/(R8+S8*X8*T8))-1</f>
+        <v>0.57645356362132727</v>
+      </c>
+      <c r="Z8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82259947729339444</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>734.51930000000004</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>10.52632</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>147.0393</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>5.1801989999999997E-4</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>20.102689999999999</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>4.5083209999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R9">
+        <v>21972.1</v>
+      </c>
+      <c r="S9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V9">
+        <v>1.4</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="0"/>
+        <v>1482.9828</v>
+      </c>
+      <c r="Y9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57841313020200258</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.8257679789592236</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>494.32760000000002</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>52.869729999999997</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>52.85915</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>1.0522090000000001E-6</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>10.56005</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>10.56006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R10">
+        <v>21972.1</v>
+      </c>
+      <c r="S10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V10">
+        <v>1.4</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="0"/>
+        <v>2203.5992999999999</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57645345117595648</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82259929556589872</v>
+      </c>
+      <c r="AD10">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>734.53309999999999</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>147.04400000000001</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>10.55264</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>5.1807709999999996E-4</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>4.5083120000000001</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>20.103249999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R11">
+        <v>21972.1</v>
+      </c>
+      <c r="S11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V11">
+        <v>1.4</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" si="0"/>
+        <v>2203.5398999999998</v>
+      </c>
+      <c r="Y11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5764536125106241</v>
+      </c>
+      <c r="Z11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82259955630536075</v>
+      </c>
+      <c r="AD11">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>734.51329999999996</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>147.04499999999999</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>10.57307</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>5.1830910000000003E-4</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>4.5082550000000001</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>20.102209999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R12">
+        <v>21972.1</v>
+      </c>
+      <c r="S12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V12">
+        <v>1.4</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="0"/>
+        <v>2203.5765000000001</v>
+      </c>
+      <c r="Y12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57645351310239068</v>
+      </c>
+      <c r="Z12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82259939564770357</v>
+      </c>
+      <c r="AD12">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>734.52549999999997</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>147.04239999999999</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>10.535550000000001</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>5.1834579999999997E-4</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>4.5082620000000002</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>20.102609999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>157000000</v>
+      </c>
+      <c r="E13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F13">
+        <v>1.2</v>
+      </c>
+      <c r="G13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I13">
+        <v>1.25</v>
+      </c>
+      <c r="J13" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L13" s="3">
+        <f>(J13/PRODUCT(D13:H13))-1</f>
+        <v>0.73073579400894206</v>
+      </c>
+      <c r="M13" s="3">
+        <f>(K13/(D13*E13*F13*G13*I13))-1</f>
+        <v>0.78975627730694287</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R13">
+        <v>21972.1</v>
+      </c>
+      <c r="S13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V13">
+        <v>1.4</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" si="0"/>
+        <v>1482.9828</v>
+      </c>
+      <c r="Y13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57841313020200258</v>
+      </c>
+      <c r="Z13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.8257679789592236</v>
+      </c>
+      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>494.32760000000002</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>52.854730000000004</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>52.875050000000002</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>1.192338E-6</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>10.55997</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>10.559979999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R14">
+        <v>21972.1</v>
+      </c>
+      <c r="S14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V14">
+        <v>1.4</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X14" s="5">
+        <f t="shared" si="0"/>
+        <v>1482.9819</v>
+      </c>
+      <c r="Y14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57841313265254812</v>
+      </c>
+      <c r="Z14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82576798292356957</v>
+      </c>
+      <c r="AD14">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>494.32729999999998</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>52.867139999999999</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>52.86383</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>1.11502E-6</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>10.55973</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>10.55972</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R15">
+        <v>21972.1</v>
+      </c>
+      <c r="S15">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V15">
+        <v>1.4</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" si="0"/>
+        <v>2203.4418000000001</v>
+      </c>
+      <c r="Y15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57645387895734435</v>
+      </c>
+      <c r="Z15" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82259998692069591</v>
+      </c>
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>734.48059999999998</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>147.03479999999999</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>10.533939999999999</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>5.1799460000000002E-4</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>4.5083130000000002</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>20.101209999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R16">
+        <v>21972.1</v>
+      </c>
+      <c r="S16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V16">
+        <v>1.4</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" si="0"/>
+        <v>2203.4829</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57645376732675024</v>
+      </c>
+      <c r="Z16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82259980650996489</v>
+      </c>
+      <c r="AD16">
+        <v>11</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>734.49429999999995</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>10.559950000000001</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>147.0395</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>5.180483E-4</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>20.101769999999998</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>4.508305</v>
+      </c>
+    </row>
+    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5">
+        <v>157000000</v>
+      </c>
+      <c r="E17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F17">
+        <v>1.2</v>
+      </c>
+      <c r="G17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I17">
+        <v>1.25</v>
+      </c>
+      <c r="J17" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L17" s="3">
+        <f>(J17/PRODUCT(D17:H17))-1</f>
+        <v>0.73073579400894206</v>
+      </c>
+      <c r="M17" s="3">
+        <f>(K17/(PRODUCT(D17:G17)*I17))-1</f>
+        <v>0.78975627730694287</v>
+      </c>
+      <c r="P17">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R17">
+        <v>21972.1</v>
+      </c>
+      <c r="S17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V17">
+        <v>1.4</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X17" s="5">
+        <f t="shared" si="0"/>
+        <v>2203.4709000000003</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57645379991962287</v>
+      </c>
+      <c r="Z17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.8225998591846273</v>
+      </c>
+      <c r="AD17">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>734.49030000000005</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>10.54801</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>147.03899999999999</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>5.1833010000000004E-4</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>20.101289999999999</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>4.5082620000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="AD19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+    </row>
+    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="8"/>
+      <c r="AB20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+    </row>
+    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F22">
+        <v>1.2</v>
+      </c>
+      <c r="G22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I22">
+        <v>1.25</v>
+      </c>
+      <c r="J22" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K22" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L22" s="3">
+        <f>(J22/PRODUCT(D22:H22))-1</f>
+        <v>271725518.65940386</v>
+      </c>
+      <c r="M22" s="3">
+        <f>(K22/(PRODUCT(D22:G22)*I22))-1</f>
+        <v>280991734.53719008</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>13241.4</v>
+      </c>
+      <c r="R22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <f>AE22</f>
+        <v>1482.9837</v>
+      </c>
+      <c r="U22" s="4">
+        <f>(Q22/((1-R22)*T22*S22))-1</f>
+        <v>8.2815916078167717</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2">
+        <f>AE6*$AC$20</f>
+        <v>1482.9837</v>
+      </c>
+      <c r="AF22" s="2">
+        <f t="shared" ref="AF22:AJ22" si="3">AF6*$AC$20</f>
+        <v>158.60124000000002</v>
+      </c>
+      <c r="AG22" s="2">
+        <f t="shared" si="3"/>
+        <v>158.58168000000001</v>
+      </c>
+      <c r="AH22" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3931350000000001E-6</v>
+      </c>
+      <c r="AI22" s="2">
+        <f t="shared" si="3"/>
+        <v>31.680929999999996</v>
+      </c>
+      <c r="AJ22" s="2">
+        <f t="shared" si="3"/>
+        <v>31.680900000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>13241.4</v>
+      </c>
+      <c r="R23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" ref="T23:T33" si="4">AE23</f>
+        <v>2203.6449000000002</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" ref="U23:U33" si="5">(Q23/((1-R23)*T23*S23))-1</f>
+        <v>5.2462191909636005</v>
+      </c>
+      <c r="AD23">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="2">
+        <f t="shared" ref="AE23:AJ33" si="6">AE7*$AC$20</f>
+        <v>2203.6449000000002</v>
+      </c>
+      <c r="AF23" s="2">
+        <f t="shared" si="6"/>
+        <v>31.68075</v>
+      </c>
+      <c r="AG23" s="2">
+        <f t="shared" si="6"/>
+        <v>441.14549999999997</v>
+      </c>
+      <c r="AH23" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5552297000000002E-3</v>
+      </c>
+      <c r="AI23" s="2">
+        <f t="shared" si="6"/>
+        <v>60.310559999999995</v>
+      </c>
+      <c r="AJ23" s="2">
+        <f t="shared" si="6"/>
+        <v>13.524765</v>
+      </c>
+    </row>
+    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>13241.4</v>
+      </c>
+      <c r="R24">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24" s="5">
+        <f t="shared" si="4"/>
+        <v>2203.5579000000002</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2464658017150647</v>
+      </c>
+      <c r="AC24" s="6"/>
+      <c r="AD24">
+        <v>3</v>
+      </c>
+      <c r="AE24" s="2">
+        <f t="shared" si="6"/>
+        <v>2203.5579000000002</v>
+      </c>
+      <c r="AF24" s="2">
+        <f t="shared" si="6"/>
+        <v>31.578960000000002</v>
+      </c>
+      <c r="AG24" s="2">
+        <f t="shared" si="6"/>
+        <v>441.11789999999996</v>
+      </c>
+      <c r="AH24" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5540596999999998E-3</v>
+      </c>
+      <c r="AI24" s="2">
+        <f t="shared" si="6"/>
+        <v>60.308070000000001</v>
+      </c>
+      <c r="AJ24" s="2">
+        <f t="shared" si="6"/>
+        <v>13.524963</v>
+      </c>
+    </row>
+    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>13241.4</v>
+      </c>
+      <c r="R25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="4"/>
+        <v>1482.9828</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="5"/>
+        <v>8.2815972406753904</v>
+      </c>
+      <c r="AD25">
+        <v>4</v>
+      </c>
+      <c r="AE25" s="2">
+        <f t="shared" si="6"/>
+        <v>1482.9828</v>
+      </c>
+      <c r="AF25" s="2">
+        <f t="shared" si="6"/>
+        <v>158.60918999999998</v>
+      </c>
+      <c r="AG25" s="2">
+        <f t="shared" si="6"/>
+        <v>158.57745</v>
+      </c>
+      <c r="AH25" s="2">
+        <f t="shared" si="6"/>
+        <v>3.1566270000000001E-6</v>
+      </c>
+      <c r="AI25" s="2">
+        <f t="shared" si="6"/>
+        <v>31.680150000000001</v>
+      </c>
+      <c r="AJ25" s="2">
+        <f t="shared" si="6"/>
+        <v>31.68018</v>
+      </c>
+    </row>
+    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>13241.4</v>
+      </c>
+      <c r="R26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" si="4"/>
+        <v>2203.5992999999999</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2463484465842152</v>
+      </c>
+      <c r="AD26">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="2">
+        <f t="shared" si="6"/>
+        <v>2203.5992999999999</v>
+      </c>
+      <c r="AF26" s="2">
+        <f t="shared" si="6"/>
+        <v>441.13200000000006</v>
+      </c>
+      <c r="AG26" s="2">
+        <f t="shared" si="6"/>
+        <v>31.657920000000001</v>
+      </c>
+      <c r="AH26" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5542312999999998E-3</v>
+      </c>
+      <c r="AI26" s="2">
+        <f t="shared" si="6"/>
+        <v>13.524936</v>
+      </c>
+      <c r="AJ26" s="2">
+        <f t="shared" si="6"/>
+        <v>60.309749999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>13241.4</v>
+      </c>
+      <c r="R27">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" si="4"/>
+        <v>2203.5398999999998</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2465168270604341</v>
+      </c>
+      <c r="AD27">
+        <v>6</v>
+      </c>
+      <c r="AE27" s="2">
+        <f t="shared" si="6"/>
+        <v>2203.5398999999998</v>
+      </c>
+      <c r="AF27" s="2">
+        <f t="shared" si="6"/>
+        <v>441.13499999999999</v>
+      </c>
+      <c r="AG27" s="2">
+        <f t="shared" si="6"/>
+        <v>31.719209999999997</v>
+      </c>
+      <c r="AH27" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5549273000000001E-3</v>
+      </c>
+      <c r="AI27" s="2">
+        <f t="shared" si="6"/>
+        <v>13.524765</v>
+      </c>
+      <c r="AJ27" s="2">
+        <f t="shared" si="6"/>
+        <v>60.306629999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5">
+        <v>157000000</v>
+      </c>
+      <c r="E28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F28">
+        <v>1.2</v>
+      </c>
+      <c r="G28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I28">
+        <v>1.25</v>
+      </c>
+      <c r="J28" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K28" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L28" s="3">
+        <f>(J28/PRODUCT(D28:H28))-1</f>
+        <v>0.73073579400894206</v>
+      </c>
+      <c r="M28" s="3">
+        <f>(K28/(D28*E28*F28*G28*I28))-1</f>
+        <v>0.78975627730694287</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>13241.4</v>
+      </c>
+      <c r="R28">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="4"/>
+        <v>2203.5765000000001</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2464130764005992</v>
+      </c>
+      <c r="AD28">
+        <v>7</v>
+      </c>
+      <c r="AE28" s="2">
+        <f t="shared" si="6"/>
+        <v>2203.5765000000001</v>
+      </c>
+      <c r="AF28" s="2">
+        <f t="shared" si="6"/>
+        <v>441.12719999999996</v>
+      </c>
+      <c r="AG28" s="2">
+        <f t="shared" si="6"/>
+        <v>31.606650000000002</v>
+      </c>
+      <c r="AH28" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5550373999999999E-3</v>
+      </c>
+      <c r="AI28" s="2">
+        <f t="shared" si="6"/>
+        <v>13.524786000000001</v>
+      </c>
+      <c r="AJ28" s="2">
+        <f t="shared" si="6"/>
+        <v>60.307829999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>13241.4</v>
+      </c>
+      <c r="R29">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" si="4"/>
+        <v>1482.9828</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="5"/>
+        <v>8.2815972406753904</v>
+      </c>
+      <c r="AD29">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="2">
+        <f t="shared" si="6"/>
+        <v>1482.9828</v>
+      </c>
+      <c r="AF29" s="2">
+        <f t="shared" si="6"/>
+        <v>158.56419</v>
+      </c>
+      <c r="AG29" s="2">
+        <f t="shared" si="6"/>
+        <v>158.62515000000002</v>
+      </c>
+      <c r="AH29" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5770139999999998E-6</v>
+      </c>
+      <c r="AI29" s="2">
+        <f t="shared" si="6"/>
+        <v>31.67991</v>
+      </c>
+      <c r="AJ29" s="2">
+        <f t="shared" si="6"/>
+        <v>31.679939999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="P30">
+        <v>9</v>
+      </c>
+      <c r="Q30">
+        <v>13241.4</v>
+      </c>
+      <c r="R30">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30" s="5">
+        <f t="shared" si="4"/>
+        <v>1482.9819</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="5"/>
+        <v>8.281602873540848</v>
+      </c>
+      <c r="W30" s="2"/>
+      <c r="AD30">
+        <v>9</v>
+      </c>
+      <c r="AE30" s="2">
+        <f t="shared" si="6"/>
+        <v>1482.9819</v>
+      </c>
+      <c r="AF30" s="2">
+        <f t="shared" si="6"/>
+        <v>158.60141999999999</v>
+      </c>
+      <c r="AG30" s="2">
+        <f t="shared" si="6"/>
+        <v>158.59148999999999</v>
+      </c>
+      <c r="AH30" s="2">
+        <f t="shared" si="6"/>
+        <v>3.3450600000000001E-6</v>
+      </c>
+      <c r="AI30" s="2">
+        <f t="shared" si="6"/>
+        <v>31.679189999999998</v>
+      </c>
+      <c r="AJ30" s="2">
+        <f t="shared" si="6"/>
+        <v>31.679160000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <v>13241.4</v>
+      </c>
+      <c r="R31">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" s="5">
+        <f t="shared" si="4"/>
+        <v>2203.4418000000001</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2467949298452377</v>
+      </c>
+      <c r="AD31">
+        <v>10</v>
+      </c>
+      <c r="AE31" s="2">
+        <f t="shared" si="6"/>
+        <v>2203.4418000000001</v>
+      </c>
+      <c r="AF31" s="2">
+        <f t="shared" si="6"/>
+        <v>441.10439999999994</v>
+      </c>
+      <c r="AG31" s="2">
+        <f t="shared" si="6"/>
+        <v>31.601819999999996</v>
+      </c>
+      <c r="AH31" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5539837999999999E-3</v>
+      </c>
+      <c r="AI31" s="2">
+        <f t="shared" si="6"/>
+        <v>13.524939</v>
+      </c>
+      <c r="AJ31" s="2">
+        <f t="shared" si="6"/>
+        <v>60.303629999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5">
+        <v>157000000</v>
+      </c>
+      <c r="E32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F32">
+        <v>1.2</v>
+      </c>
+      <c r="G32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I32">
+        <v>1.25</v>
+      </c>
+      <c r="J32" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K32" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L32" s="3">
+        <f>(J32/PRODUCT(D32:H32))-1</f>
+        <v>0.73073579400894206</v>
+      </c>
+      <c r="M32" s="3">
+        <f>(K32/(PRODUCT(D32:G32)*I32))-1</f>
+        <v>0.78975627730694287</v>
+      </c>
+      <c r="P32">
+        <v>11</v>
+      </c>
+      <c r="Q32">
+        <v>13241.4</v>
+      </c>
+      <c r="R32">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="4"/>
+        <v>2203.4829</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2466784128204775</v>
+      </c>
+      <c r="AD32">
+        <v>11</v>
+      </c>
+      <c r="AE32" s="2">
+        <f t="shared" si="6"/>
+        <v>2203.4829</v>
+      </c>
+      <c r="AF32" s="2">
+        <f t="shared" si="6"/>
+        <v>31.679850000000002</v>
+      </c>
+      <c r="AG32" s="2">
+        <f t="shared" si="6"/>
+        <v>441.11850000000004</v>
+      </c>
+      <c r="AH32" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5541449E-3</v>
+      </c>
+      <c r="AI32" s="2">
+        <f t="shared" si="6"/>
+        <v>60.305309999999992</v>
+      </c>
+      <c r="AJ32" s="2">
+        <f t="shared" si="6"/>
+        <v>13.524915</v>
+      </c>
+    </row>
+    <row r="33" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <v>13241.4</v>
+      </c>
+      <c r="R33">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5">
+        <f t="shared" si="4"/>
+        <v>2203.4709000000003</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2467124319404732</v>
+      </c>
+      <c r="AD33">
+        <v>12</v>
+      </c>
+      <c r="AE33" s="2">
+        <f t="shared" si="6"/>
+        <v>2203.4709000000003</v>
+      </c>
+      <c r="AF33" s="2">
+        <f t="shared" si="6"/>
+        <v>31.644030000000001</v>
+      </c>
+      <c r="AG33" s="2">
+        <f t="shared" si="6"/>
+        <v>441.11699999999996</v>
+      </c>
+      <c r="AH33" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5549903000000001E-3</v>
+      </c>
+      <c r="AI33" s="2">
+        <f t="shared" si="6"/>
+        <v>60.303869999999996</v>
+      </c>
+      <c r="AJ33" s="2">
+        <f t="shared" si="6"/>
+        <v>13.524786000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="Q36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" t="s">
+        <v>23</v>
+      </c>
+      <c r="V37" t="s">
+        <v>32</v>
+      </c>
+      <c r="W37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>13241.4</v>
+      </c>
+      <c r="R38">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S38">
+        <v>0.2</v>
+      </c>
+      <c r="T38">
+        <v>1.4</v>
+      </c>
+      <c r="U38" s="5">
+        <f>AE22</f>
+        <v>1482.9837</v>
+      </c>
+      <c r="V38" s="5">
+        <f>SQRT(AF22^2 + AG22^2)</f>
+        <v>224.28219403501475</v>
+      </c>
+      <c r="W38" s="4">
+        <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
+        <v>6.5254491215749946</v>
+      </c>
+    </row>
+    <row r="39" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>13241.4</v>
+      </c>
+      <c r="R39">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S39">
+        <v>0.2</v>
+      </c>
+      <c r="T39">
+        <v>1.4</v>
+      </c>
+      <c r="U39" s="5">
+        <f t="shared" ref="U39:U49" si="7">AE23</f>
+        <v>2203.6449000000002</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" ref="V39:V49" si="8">SQRT(AF23^2 + AG23^2)</f>
+        <v>442.28160948745369</v>
+      </c>
+      <c r="W39" s="4">
+        <f t="shared" ref="W39:W49" si="9">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
+        <v>2.5922470362873717</v>
+      </c>
+    </row>
+    <row r="40" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>13241.4</v>
+      </c>
+      <c r="R40">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S40">
+        <v>0.2</v>
+      </c>
+      <c r="T40">
+        <v>1.4</v>
+      </c>
+      <c r="U40" s="5">
+        <f t="shared" si="7"/>
+        <v>2203.5579000000002</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="8"/>
+        <v>442.24680034466229</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="9"/>
+        <v>2.5925568165404691</v>
+      </c>
+    </row>
+    <row r="41" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>13241.4</v>
+      </c>
+      <c r="R41">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S41">
+        <v>0.2</v>
+      </c>
+      <c r="T41">
+        <v>1.4</v>
+      </c>
+      <c r="U41" s="5">
+        <f t="shared" si="7"/>
+        <v>1482.9828</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="8"/>
+        <v>224.28482516870952</v>
+      </c>
+      <c r="W41" s="4">
+        <f t="shared" si="9"/>
+        <v>6.5253613903741758</v>
+      </c>
+    </row>
+    <row r="42" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42">
+        <v>13241.4</v>
+      </c>
+      <c r="R42">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S42">
+        <v>0.2</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42" s="5">
+        <f t="shared" si="7"/>
+        <v>2203.5992999999999</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="8"/>
+        <v>442.26650938402111</v>
+      </c>
+      <c r="W42" s="4">
+        <f t="shared" si="9"/>
+        <v>2.5923838543447579</v>
+      </c>
+    </row>
+    <row r="43" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>13241.4</v>
+      </c>
+      <c r="R43">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S43">
+        <v>0.2</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43" s="5">
+        <f t="shared" si="7"/>
+        <v>2203.5398999999998</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="8"/>
+        <v>442.27389308891395</v>
+      </c>
+      <c r="W43" s="4">
+        <f t="shared" si="9"/>
+        <v>2.5923423374354702</v>
+      </c>
+    </row>
+    <row r="44" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>13241.4</v>
+      </c>
+      <c r="R44">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S44">
+        <v>0.2</v>
+      </c>
+      <c r="T44">
+        <v>1.4</v>
+      </c>
+      <c r="U44" s="5">
+        <f t="shared" si="7"/>
+        <v>2203.5765000000001</v>
+      </c>
+      <c r="V44" s="5">
+        <f t="shared" si="8"/>
+        <v>442.25805465142457</v>
+      </c>
+      <c r="W44" s="4">
+        <f t="shared" si="9"/>
+        <v>2.5924596155795139</v>
+      </c>
+    </row>
+    <row r="45" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>8</v>
+      </c>
+      <c r="Q45">
+        <v>13241.4</v>
+      </c>
+      <c r="R45">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S45">
+        <v>0.2</v>
+      </c>
+      <c r="T45">
+        <v>1.4</v>
+      </c>
+      <c r="U45" s="5">
+        <f t="shared" si="7"/>
+        <v>1482.9828</v>
+      </c>
+      <c r="V45" s="5">
+        <f t="shared" si="8"/>
+        <v>224.28673737624032</v>
+      </c>
+      <c r="W45" s="4">
+        <f t="shared" si="9"/>
+        <v>6.5252972311961024</v>
+      </c>
+    </row>
+    <row r="46" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>13241.4</v>
+      </c>
+      <c r="R46">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S46">
+        <v>0.2</v>
+      </c>
+      <c r="T46">
+        <v>1.4</v>
+      </c>
+      <c r="U46" s="5">
+        <f t="shared" si="7"/>
+        <v>1482.9819</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="8"/>
+        <v>224.28925771520244</v>
+      </c>
+      <c r="W46" s="4">
+        <f t="shared" si="9"/>
+        <v>6.5252132208681406</v>
+      </c>
+    </row>
+    <row r="47" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>10</v>
+      </c>
+      <c r="Q47">
+        <v>13241.4</v>
+      </c>
+      <c r="R47">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S47">
+        <v>0.2</v>
+      </c>
+      <c r="T47">
+        <v>1.4</v>
+      </c>
+      <c r="U47" s="5">
+        <f t="shared" si="7"/>
+        <v>2203.4418000000001</v>
+      </c>
+      <c r="V47" s="5">
+        <f t="shared" si="8"/>
+        <v>442.23496777920258</v>
+      </c>
+      <c r="W47" s="4">
+        <f t="shared" si="9"/>
+        <v>2.5926890191592169</v>
+      </c>
+    </row>
+    <row r="48" spans="16:36" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>11</v>
+      </c>
+      <c r="Q48">
+        <v>13241.4</v>
+      </c>
+      <c r="R48">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S48">
+        <v>0.2</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48" s="5">
+        <f t="shared" si="7"/>
+        <v>2203.4829</v>
+      </c>
+      <c r="V48" s="5">
+        <f t="shared" si="8"/>
+        <v>442.25461437759196</v>
+      </c>
+      <c r="W48" s="4">
+        <f t="shared" si="9"/>
+        <v>2.592516646887443</v>
+      </c>
+    </row>
+    <row r="49" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>12</v>
+      </c>
+      <c r="Q49">
+        <v>13241.4</v>
+      </c>
+      <c r="R49">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S49">
+        <v>0.2</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49" s="5">
+        <f t="shared" si="7"/>
+        <v>2203.4709000000003</v>
+      </c>
+      <c r="V49" s="5">
+        <f t="shared" si="8"/>
+        <v>442.25055378556721</v>
+      </c>
+      <c r="W49" s="4">
+        <f t="shared" si="9"/>
+        <v>2.5925533611146228</v>
+      </c>
+    </row>
+    <row r="50" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="4"/>
+    </row>
+    <row r="52" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="Q52" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="8"/>
+    </row>
+    <row r="53" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" t="s">
+        <v>18</v>
+      </c>
+      <c r="S53" t="s">
+        <v>17</v>
+      </c>
+      <c r="T53" t="s">
+        <v>19</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R54">
+        <v>21972.1</v>
+      </c>
+      <c r="S54">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V54" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W54">
+        <v>1.4</v>
+      </c>
+      <c r="X54" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z54" s="5">
+        <f>AE22</f>
+        <v>1482.9837</v>
+      </c>
+      <c r="AA54" s="5">
+        <f>SQRT(AF22^2 + AG22^2)</f>
+        <v>224.28219403501475</v>
+      </c>
+      <c r="AB54" s="2">
+        <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
+        <v>0.57816731924829345</v>
+      </c>
+      <c r="AC54" s="2">
+        <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
+        <v>0.82502262006935467</v>
+      </c>
+    </row>
+    <row r="55" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R55">
+        <v>21972.1</v>
+      </c>
+      <c r="S55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V55" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z55" s="5">
+        <f t="shared" ref="Z55:Z65" si="10">AE23</f>
+        <v>2203.6449000000002</v>
+      </c>
+      <c r="AA55" s="5">
+        <f t="shared" ref="AA55:AA65" si="11">SQRT(AF23^2 + AG23^2)</f>
+        <v>442.28160948745369</v>
+      </c>
+      <c r="AB55" s="2">
+        <f t="shared" ref="AB55:AB65" si="12">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
+        <v>0.57550163969187196</v>
+      </c>
+      <c r="AC55" s="2">
+        <f t="shared" ref="AC55:AC65" si="13">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
+        <v>0.81972074105166182</v>
+      </c>
+    </row>
+    <row r="56" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R56">
+        <v>21972.1</v>
+      </c>
+      <c r="S56">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V56" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z56" s="5">
+        <f t="shared" si="10"/>
+        <v>2203.5579000000002</v>
+      </c>
+      <c r="AA56" s="5">
+        <f t="shared" si="11"/>
+        <v>442.24680034466229</v>
+      </c>
+      <c r="AB56" s="2">
+        <f t="shared" si="12"/>
+        <v>0.57550202522341087</v>
+      </c>
+      <c r="AC56" s="2">
+        <f t="shared" si="13"/>
+        <v>0.81972157311976734</v>
+      </c>
+    </row>
+    <row r="57" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R57">
+        <v>21972.1</v>
+      </c>
+      <c r="S57">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V57" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W57">
+        <v>1.4</v>
+      </c>
+      <c r="X57" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z57" s="5">
+        <f t="shared" si="10"/>
+        <v>1482.9828</v>
+      </c>
+      <c r="AA57" s="5">
+        <f t="shared" si="11"/>
+        <v>224.28482516870952</v>
+      </c>
+      <c r="AB57" s="2">
+        <f t="shared" si="12"/>
+        <v>0.57816731593167447</v>
+      </c>
+      <c r="AC57" s="2">
+        <f t="shared" si="13"/>
+        <v>0.82502260655140836</v>
+      </c>
+    </row>
+    <row r="58" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R58">
+        <v>21972.1</v>
+      </c>
+      <c r="S58">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V58" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z58" s="5">
+        <f t="shared" si="10"/>
+        <v>2203.5992999999999</v>
+      </c>
+      <c r="AA58" s="5">
+        <f t="shared" si="11"/>
+        <v>442.26650938402111</v>
+      </c>
+      <c r="AB58" s="2">
+        <f t="shared" si="12"/>
+        <v>0.57550182824448659</v>
+      </c>
+      <c r="AC58" s="2">
+        <f t="shared" si="13"/>
+        <v>0.81972113634177912</v>
+      </c>
+    </row>
+    <row r="59" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R59">
+        <v>21972.1</v>
+      </c>
+      <c r="S59">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V59" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z59" s="5">
+        <f t="shared" si="10"/>
+        <v>2203.5398999999998</v>
+      </c>
+      <c r="AA59" s="5">
+        <f t="shared" si="11"/>
+        <v>442.27389308891395</v>
+      </c>
+      <c r="AB59" s="2">
+        <f t="shared" si="12"/>
+        <v>0.57550195754068278</v>
+      </c>
+      <c r="AC59" s="2">
+        <f t="shared" si="13"/>
+        <v>0.81972129997204757</v>
+      </c>
+    </row>
+    <row r="60" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>7</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R60">
+        <v>21972.1</v>
+      </c>
+      <c r="S60">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V60" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z60" s="5">
+        <f t="shared" si="10"/>
+        <v>2203.5765000000001</v>
+      </c>
+      <c r="AA60" s="5">
+        <f t="shared" si="11"/>
+        <v>442.25805465142457</v>
+      </c>
+      <c r="AB60" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5755019264095862</v>
+      </c>
+      <c r="AC60" s="2">
+        <f t="shared" si="13"/>
+        <v>0.81972134573120181</v>
+      </c>
+    </row>
+    <row r="61" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R61">
+        <v>21972.1</v>
+      </c>
+      <c r="S61">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V61" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W61">
+        <v>1.4</v>
+      </c>
+      <c r="X61" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z61" s="5">
+        <f t="shared" si="10"/>
+        <v>1482.9828</v>
+      </c>
+      <c r="AA61" s="5">
+        <f t="shared" si="11"/>
+        <v>224.28673737624032</v>
+      </c>
+      <c r="AB61" s="2">
+        <f t="shared" si="12"/>
+        <v>0.57816731174110925</v>
+      </c>
+      <c r="AC61" s="2">
+        <f t="shared" si="13"/>
+        <v>0.82502259384934451</v>
+      </c>
+    </row>
+    <row r="62" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R62">
+        <v>21972.1</v>
+      </c>
+      <c r="S62">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V62" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W62">
+        <v>1.4</v>
+      </c>
+      <c r="X62" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z62" s="5">
+        <f t="shared" si="10"/>
+        <v>1482.9819</v>
+      </c>
+      <c r="AA62" s="5">
+        <f t="shared" si="11"/>
+        <v>224.28925771520244</v>
+      </c>
+      <c r="AB62" s="2">
+        <f t="shared" si="12"/>
+        <v>0.57816730866718213</v>
+      </c>
+      <c r="AC62" s="2">
+        <f t="shared" si="13"/>
+        <v>0.82502258106702375</v>
+      </c>
+    </row>
+    <row r="63" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R63">
+        <v>21972.1</v>
+      </c>
+      <c r="S63">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V63" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z63" s="5">
+        <f t="shared" si="10"/>
+        <v>2203.4418000000001</v>
+      </c>
+      <c r="AA63" s="5">
+        <f t="shared" si="11"/>
+        <v>442.23496777920258</v>
+      </c>
+      <c r="AB63" s="2">
+        <f t="shared" si="12"/>
+        <v>0.57550239085993393</v>
+      </c>
+      <c r="AC63" s="2">
+        <f t="shared" si="13"/>
+        <v>0.81972223397022614</v>
+      </c>
+    </row>
+    <row r="64" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>11</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R64">
+        <v>21972.1</v>
+      </c>
+      <c r="S64">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V64" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z64" s="5">
+        <f t="shared" si="10"/>
+        <v>2203.4829</v>
+      </c>
+      <c r="AA64" s="5">
+        <f t="shared" si="11"/>
+        <v>442.25461437759196</v>
+      </c>
+      <c r="AB64" s="2">
+        <f t="shared" si="12"/>
+        <v>0.57550219496496635</v>
+      </c>
+      <c r="AC64" s="2">
+        <f t="shared" si="13"/>
+        <v>0.81972179932005318</v>
+      </c>
+    </row>
+    <row r="65" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>12</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R65">
+        <v>21972.1</v>
+      </c>
+      <c r="S65">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V65" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z65" s="5">
+        <f t="shared" si="10"/>
+        <v>2203.4709000000003</v>
+      </c>
+      <c r="AA65" s="5">
+        <f t="shared" si="11"/>
+        <v>442.25055378556721</v>
+      </c>
+      <c r="AB65" s="2">
+        <f t="shared" si="12"/>
+        <v>0.57550224495681523</v>
+      </c>
+      <c r="AC65" s="2">
+        <f t="shared" si="13"/>
+        <v>0.81972190446948434</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="Q1:V2"/>
+    <mergeCell ref="AD1:AK2"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="AD19:AK20"/>
+    <mergeCell ref="Q20:R20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L6:M7 L13:M14">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:M19">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Z17">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Calculos/MoS_JAVI.xlsx
+++ b/Calculos/MoS_JAVI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DF1E32-FB19-4162-9122-149C992B8BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37414E0C-B417-4CBC-AF0C-619775E49E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoS Estatico X" sheetId="1" r:id="rId1"/>
@@ -1204,7 +1204,7 @@
   <dimension ref="B1:AK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1374,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="5">
-        <v>13900000</v>
+        <v>14000000</v>
       </c>
       <c r="E6">
         <v>1.1000000000000001</v>
@@ -1399,11 +1399,11 @@
       </c>
       <c r="L6" s="3">
         <f>(J6/PRODUCT(D6:H6))-1</f>
-        <v>18.548598536647766</v>
+        <v>18.408965689957427</v>
       </c>
       <c r="M6" s="3">
         <f>(K6/(E6*F6*G6*I6*D6))-1</f>
-        <v>19.215232772459714</v>
+        <v>19.070838252656433</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1431,15 +1431,15 @@
       </c>
       <c r="X6" s="5">
         <f>AE6</f>
-        <v>141.7517</v>
+        <v>142.43889999999999</v>
       </c>
       <c r="Y6" s="7">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.58207354138509193</v>
+        <v>0.58207166157110968</v>
       </c>
       <c r="Z6" s="7">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.83169505139651734</v>
+        <v>0.83169200471797122</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>1</v>
       </c>
       <c r="AE6" s="2">
-        <v>141.7517</v>
+        <v>142.43889999999999</v>
       </c>
       <c r="AF6" s="2">
-        <v>-45.123309999999996</v>
+        <v>-45.789470000000001</v>
       </c>
       <c r="AG6" s="2">
-        <v>-215.58179999999999</v>
+        <v>-216.84119999999999</v>
       </c>
       <c r="AH6" s="2">
-        <v>4.634293E-4</v>
+        <v>4.6974130000000002E-4</v>
       </c>
       <c r="AI6" s="2">
-        <v>4.7700290000000001</v>
+        <v>4.825056</v>
       </c>
       <c r="AJ6" s="2">
-        <v>4.4343389999999996</v>
+        <v>4.4861550000000001</v>
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
@@ -1498,15 +1498,15 @@
       </c>
       <c r="X7" s="5">
         <f t="shared" ref="X7:X17" si="0">AE7</f>
-        <v>682.48509999999999</v>
+        <v>688.49419999999998</v>
       </c>
       <c r="Y7" s="7">
         <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.58059576207299068</v>
+        <v>0.58057935521362269</v>
       </c>
       <c r="Z7" s="7">
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.82930085723371505</v>
+        <v>0.82927428602807129</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1515,22 +1515,22 @@
         <v>2</v>
       </c>
       <c r="AE7" s="2">
-        <v>682.48509999999999</v>
+        <v>688.49419999999998</v>
       </c>
       <c r="AF7" s="2">
-        <v>-97.877080000000007</v>
+        <v>-98.790120000000002</v>
       </c>
       <c r="AG7" s="2">
-        <v>-16.189879999999999</v>
+        <v>-15.45998</v>
       </c>
       <c r="AH7" s="2">
-        <v>2.4908850000000002E-4</v>
+        <v>2.5460370000000002E-4</v>
       </c>
       <c r="AI7" s="2">
-        <v>18.93835</v>
+        <v>19.122219999999999</v>
       </c>
       <c r="AJ7" s="2">
-        <v>1.5976359999999999E-3</v>
+        <v>5.6507689999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
@@ -1560,15 +1560,15 @@
       </c>
       <c r="X8" s="5">
         <f t="shared" si="0"/>
-        <v>682.47209999999995</v>
+        <v>688.48109999999997</v>
       </c>
       <c r="Y8" s="7">
         <f>((Q8*U8)/(R8+S8*X8*T8))-1</f>
-        <v>0.58059579756772206</v>
+        <v>0.58057939098064804</v>
       </c>
       <c r="Z8" s="7">
         <f t="shared" si="2"/>
-        <v>0.82930091471831346</v>
+        <v>0.82927434395317645</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1577,22 +1577,22 @@
         <v>3</v>
       </c>
       <c r="AE8" s="2">
-        <v>682.47209999999995</v>
+        <v>688.48109999999997</v>
       </c>
       <c r="AF8" s="2">
-        <v>97.878230000000002</v>
+        <v>98.791269999999997</v>
       </c>
       <c r="AG8" s="2">
-        <v>-16.191980000000001</v>
+        <v>-15.4621</v>
       </c>
       <c r="AH8" s="2">
-        <v>-2.519938E-4</v>
+        <v>-2.5749330000000002E-4</v>
       </c>
       <c r="AI8" s="2">
-        <v>18.93816</v>
+        <v>19.122029999999999</v>
       </c>
       <c r="AJ8" s="2">
-        <v>-1.451602E-3</v>
+        <v>-5.5032659999999997E-3</v>
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
@@ -1625,15 +1625,15 @@
       </c>
       <c r="X9" s="5">
         <f t="shared" si="0"/>
-        <v>141.75579999999999</v>
+        <v>142.44300000000001</v>
       </c>
       <c r="Y9" s="7">
         <f t="shared" si="1"/>
-        <v>0.58207353016965757</v>
+        <v>0.58207165035570219</v>
       </c>
       <c r="Z9" s="7">
         <f t="shared" si="2"/>
-        <v>0.83169503321927252</v>
+        <v>0.8316919865407868</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1642,22 +1642,22 @@
         <v>4</v>
       </c>
       <c r="AE9" s="2">
-        <v>141.75579999999999</v>
+        <v>142.44300000000001</v>
       </c>
       <c r="AF9" s="2">
-        <v>45.126550000000002</v>
+        <v>45.792729999999999</v>
       </c>
       <c r="AG9" s="2">
-        <v>-215.57900000000001</v>
+        <v>-216.83840000000001</v>
       </c>
       <c r="AH9" s="2">
-        <v>-4.6339759999999998E-4</v>
+        <v>-4.6970969999999998E-4</v>
       </c>
       <c r="AI9" s="2">
-        <v>4.7700800000000001</v>
+        <v>4.825107</v>
       </c>
       <c r="AJ9" s="2">
-        <v>-4.4344190000000001</v>
+        <v>-4.4862359999999999</v>
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="X10" s="5">
         <f t="shared" si="0"/>
-        <v>277.142</v>
+        <v>279.49189999999999</v>
       </c>
       <c r="Y10" s="7">
         <f t="shared" si="1"/>
-        <v>0.58170327171690728</v>
+        <v>0.58169684666635657</v>
       </c>
       <c r="Z10" s="7">
         <f t="shared" si="2"/>
-        <v>0.83109499860452618</v>
+        <v>0.83108458726699164</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1704,22 +1704,22 @@
         <v>5</v>
       </c>
       <c r="AE10" s="2">
-        <v>277.142</v>
+        <v>279.49189999999999</v>
       </c>
       <c r="AF10" s="2">
-        <v>-54.203110000000002</v>
+        <v>-54.810659999999999</v>
       </c>
       <c r="AG10" s="2">
-        <v>-503.15089999999998</v>
+        <v>-507.19110000000001</v>
       </c>
       <c r="AH10" s="2">
-        <v>2.3654230000000002E-3</v>
+        <v>2.3853630000000002E-3</v>
       </c>
       <c r="AI10" s="2">
-        <v>2.4450470000000002</v>
+        <v>2.470202</v>
       </c>
       <c r="AJ10" s="2">
-        <v>8.4546410000000005</v>
+        <v>8.5367470000000001</v>
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
@@ -1752,15 +1752,15 @@
       </c>
       <c r="X11" s="5">
         <f t="shared" si="0"/>
-        <v>277.1454</v>
+        <v>279.49529999999999</v>
       </c>
       <c r="Y11" s="7">
         <f t="shared" si="1"/>
-        <v>0.58170326242065595</v>
+        <v>0.58169683737018074</v>
       </c>
       <c r="Z11" s="7">
         <f t="shared" si="2"/>
-        <v>0.83109498354058786</v>
+        <v>0.83108457220322474</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1769,22 +1769,22 @@
         <v>6</v>
       </c>
       <c r="AE11" s="2">
-        <v>277.1454</v>
+        <v>279.49529999999999</v>
       </c>
       <c r="AF11" s="2">
-        <v>54.199449999999999</v>
+        <v>54.80697</v>
       </c>
       <c r="AG11" s="2">
-        <v>-503.15440000000001</v>
+        <v>-507.19459999999998</v>
       </c>
       <c r="AH11" s="2">
-        <v>-2.3646190000000001E-3</v>
+        <v>-2.3845559999999999E-3</v>
       </c>
       <c r="AI11" s="2">
-        <v>2.44509</v>
+        <v>2.4702459999999999</v>
       </c>
       <c r="AJ11" s="2">
-        <v>-8.4547270000000001</v>
+        <v>-8.5368329999999997</v>
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
@@ -1847,15 +1847,15 @@
       </c>
       <c r="X12" s="5">
         <f t="shared" si="0"/>
-        <v>-277.1352</v>
+        <v>-279.48509999999999</v>
       </c>
       <c r="Y12" s="7">
         <f t="shared" si="1"/>
-        <v>0.58322022519661987</v>
+        <v>0.58322666262946421</v>
       </c>
       <c r="Z12" s="7">
         <f t="shared" si="2"/>
-        <v>0.83355406056555359</v>
+        <v>0.83356450000439009</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -1864,22 +1864,22 @@
         <v>7</v>
       </c>
       <c r="AE12" s="2">
-        <v>-277.1352</v>
+        <v>-279.48509999999999</v>
       </c>
       <c r="AF12" s="2">
-        <v>54.198770000000003</v>
+        <v>54.8063</v>
       </c>
       <c r="AG12" s="2">
-        <v>-503.14870000000002</v>
+        <v>-507.18889999999999</v>
       </c>
       <c r="AH12" s="2">
-        <v>2.3646180000000002E-3</v>
+        <v>2.384555E-3</v>
       </c>
       <c r="AI12" s="2">
-        <v>2.445128</v>
+        <v>2.4702839999999999</v>
       </c>
       <c r="AJ12" s="2">
-        <v>-8.4544429999999995</v>
+        <v>-8.5365490000000008</v>
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5">
-        <v>31100000</v>
+        <v>31400000</v>
       </c>
       <c r="E13">
         <v>1.1000000000000001</v>
@@ -1912,11 +1912,11 @@
       </c>
       <c r="L13" s="3">
         <f>(J13/PRODUCT(D13:H13))-1</f>
-        <v>7.7371549729711866</v>
+        <v>7.6536789700447105</v>
       </c>
       <c r="M13" s="3">
         <f>(K13/(D13*E13*F13*G13*I13))-1</f>
-        <v>8.0351040365655972</v>
+        <v>7.9487813865347157</v>
       </c>
       <c r="P13">
         <v>8</v>
@@ -1944,15 +1944,15 @@
       </c>
       <c r="X13" s="5">
         <f t="shared" si="0"/>
-        <v>-141.75530000000001</v>
+        <v>-142.4425</v>
       </c>
       <c r="Y13" s="7">
         <f t="shared" si="1"/>
-        <v>0.58284944713217479</v>
+        <v>0.58285132879493862</v>
       </c>
       <c r="Z13" s="7">
         <f t="shared" si="2"/>
-        <v>0.83295283552538746</v>
+        <v>0.83295588639969509</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -1961,22 +1961,22 @@
         <v>8</v>
       </c>
       <c r="AE13" s="2">
-        <v>-141.75530000000001</v>
+        <v>-142.4425</v>
       </c>
       <c r="AF13" s="2">
-        <v>45.121960000000001</v>
+        <v>45.788130000000002</v>
       </c>
       <c r="AG13" s="2">
-        <v>-215.57929999999999</v>
+        <v>-216.83869999999999</v>
       </c>
       <c r="AH13" s="2">
-        <v>4.632889E-4</v>
+        <v>4.6960079999999998E-4</v>
       </c>
       <c r="AI13" s="2">
-        <v>4.770086</v>
+        <v>4.825113</v>
       </c>
       <c r="AJ13" s="2">
-        <v>-4.4343570000000003</v>
+        <v>-4.4861740000000001</v>
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
@@ -2011,15 +2011,15 @@
       </c>
       <c r="X14" s="5">
         <f t="shared" si="0"/>
-        <v>-141.751</v>
+        <v>-142.43819999999999</v>
       </c>
       <c r="Y14" s="7">
         <f t="shared" si="1"/>
-        <v>0.58284943535810574</v>
+        <v>0.58285131702084181</v>
       </c>
       <c r="Z14" s="7">
         <f t="shared" si="2"/>
-        <v>0.83295281643525709</v>
+        <v>0.83295586730950122</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2028,22 +2028,22 @@
         <v>9</v>
       </c>
       <c r="AE14" s="2">
-        <v>-141.751</v>
+        <v>-142.43819999999999</v>
       </c>
       <c r="AF14" s="2">
-        <v>-45.118879999999997</v>
+        <v>-45.785029999999999</v>
       </c>
       <c r="AG14" s="2">
-        <v>-215.58269999999999</v>
+        <v>-216.84219999999999</v>
       </c>
       <c r="AH14" s="2">
-        <v>-4.6337929999999998E-4</v>
+        <v>-4.6969129999999999E-4</v>
       </c>
       <c r="AI14" s="2">
-        <v>4.7700279999999999</v>
+        <v>4.8250549999999999</v>
       </c>
       <c r="AJ14" s="2">
-        <v>4.4342740000000003</v>
+        <v>4.4860899999999999</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
@@ -2076,15 +2076,15 @@
       </c>
       <c r="X15" s="5">
         <f t="shared" si="0"/>
-        <v>-277.13220000000001</v>
+        <v>-279.4821</v>
       </c>
       <c r="Y15" s="7">
         <f t="shared" si="1"/>
-        <v>0.58322021697830428</v>
+        <v>0.58322665441108179</v>
       </c>
       <c r="Z15" s="7">
         <f t="shared" si="2"/>
-        <v>0.8335540472381191</v>
+        <v>0.83356448667680394</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2093,22 +2093,22 @@
         <v>10</v>
       </c>
       <c r="AE15" s="2">
-        <v>-277.13220000000001</v>
+        <v>-279.4821</v>
       </c>
       <c r="AF15" s="2">
-        <v>-54.202289999999998</v>
+        <v>-54.809829999999998</v>
       </c>
       <c r="AG15" s="2">
-        <v>-503.14670000000001</v>
+        <v>-507.18689999999998</v>
       </c>
       <c r="AH15" s="2">
-        <v>-2.365364E-3</v>
+        <v>-2.385304E-3</v>
       </c>
       <c r="AI15" s="2">
-        <v>2.4450799999999999</v>
+        <v>2.4702350000000002</v>
       </c>
       <c r="AJ15" s="2">
-        <v>8.4543649999999992</v>
+        <v>8.5364699999999996</v>
       </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
@@ -2171,15 +2171,15 @@
       </c>
       <c r="X16" s="5">
         <f t="shared" si="0"/>
-        <v>-682.48289999999997</v>
+        <v>-688.49189999999999</v>
       </c>
       <c r="Y16" s="7">
         <f t="shared" si="1"/>
-        <v>0.58433142968265495</v>
+        <v>0.58434791425573285</v>
       </c>
       <c r="Z16" s="7">
         <f t="shared" si="2"/>
-        <v>0.83535657913313521</v>
+        <v>0.83538332688593564</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         <v>11</v>
       </c>
       <c r="AE16" s="2">
-        <v>-682.48289999999997</v>
+        <v>-688.49189999999999</v>
       </c>
       <c r="AF16" s="2">
-        <v>97.861559999999997</v>
+        <v>98.774569999999997</v>
       </c>
       <c r="AG16" s="2">
-        <v>-16.19462</v>
+        <v>-15.46475</v>
       </c>
       <c r="AH16" s="2">
-        <v>2.518571E-4</v>
+        <v>2.5735640000000001E-4</v>
       </c>
       <c r="AI16" s="2">
-        <v>18.93844</v>
+        <v>19.122299999999999</v>
       </c>
       <c r="AJ16" s="2">
-        <v>-1.292936E-3</v>
+        <v>-5.3443120000000004E-3</v>
       </c>
     </row>
     <row r="17" spans="3:36" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="5">
-        <v>31100000</v>
+        <v>31400000</v>
       </c>
       <c r="E17">
         <v>1.1000000000000001</v>
@@ -2236,11 +2236,11 @@
       </c>
       <c r="L17" s="3">
         <f>(J17/PRODUCT(D17:H17))-1</f>
-        <v>7.7371549729711866</v>
+        <v>7.6536789700447105</v>
       </c>
       <c r="M17" s="3">
         <f>(K17/(PRODUCT(D17:G17)*I17))-1</f>
-        <v>8.0351040365655972</v>
+        <v>7.9487813865347157</v>
       </c>
       <c r="P17">
         <v>12</v>
@@ -2268,15 +2268,15 @@
       </c>
       <c r="X17" s="5">
         <f t="shared" si="0"/>
-        <v>-682.49549999999999</v>
+        <v>-688.50469999999996</v>
       </c>
       <c r="Y17" s="7">
         <f t="shared" si="1"/>
-        <v>0.58433146424805082</v>
+        <v>0.5843479493705166</v>
       </c>
       <c r="Z17" s="7">
         <f t="shared" si="2"/>
-        <v>0.83535663521847137</v>
+        <v>0.83538338386317568</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2285,22 +2285,22 @@
         <v>12</v>
       </c>
       <c r="AE17" s="2">
-        <v>-682.49549999999999</v>
+        <v>-688.50469999999996</v>
       </c>
       <c r="AF17" s="2">
-        <v>-97.861850000000004</v>
+        <v>-98.774879999999996</v>
       </c>
       <c r="AG17" s="2">
-        <v>-16.192640000000001</v>
+        <v>-15.46274</v>
       </c>
       <c r="AH17" s="2">
-        <v>-2.489991E-4</v>
+        <v>-2.5451450000000002E-4</v>
       </c>
       <c r="AI17" s="2">
-        <v>18.93862</v>
+        <v>19.122489999999999</v>
       </c>
       <c r="AJ17" s="2">
-        <v>1.441796E-3</v>
+        <v>5.4947219999999996E-3</v>
       </c>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="5">
-        <v>25700000</v>
+        <v>25900000</v>
       </c>
       <c r="E22">
         <v>1.1000000000000001</v>
@@ -2409,11 +2409,11 @@
       </c>
       <c r="L22" s="3">
         <f>(J22/PRODUCT(D22:H22))-1</f>
-        <v>9.572977418653851</v>
+        <v>9.4913328053823918</v>
       </c>
       <c r="M22" s="3">
         <f>(K22/(PRODUCT(D22:G22)*I22))-1</f>
-        <v>9.9335305656494199</v>
+        <v>9.849101758192667</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -2429,11 +2429,11 @@
       </c>
       <c r="T22" s="5">
         <f>ABS(AE6)</f>
-        <v>141.7517</v>
+        <v>142.43889999999999</v>
       </c>
       <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>96.102532558333095</v>
+        <v>95.634058985635718</v>
       </c>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
@@ -2451,11 +2451,11 @@
       </c>
       <c r="T23" s="5">
         <f t="shared" ref="T23:T33" si="3">ABS(AE7)</f>
-        <v>682.48509999999999</v>
+        <v>688.49419999999998</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" ref="U23:U33" si="4">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>19.168131237515759</v>
+        <v>18.992106054704696</v>
       </c>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
@@ -2473,11 +2473,11 @@
       </c>
       <c r="T24" s="5">
         <f t="shared" si="3"/>
-        <v>682.47209999999995</v>
+        <v>688.48109999999997</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="4"/>
-        <v>19.16851540810103</v>
+        <v>18.992486452350057</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
@@ -2496,11 +2496,11 @@
       </c>
       <c r="T25" s="5">
         <f t="shared" si="3"/>
-        <v>141.75579999999999</v>
+        <v>142.44300000000001</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="4"/>
-        <v>96.099724063841236</v>
+        <v>95.631277524687505</v>
       </c>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
@@ -2521,11 +2521,11 @@
       </c>
       <c r="T26" s="5">
         <f t="shared" si="3"/>
-        <v>277.142</v>
+        <v>279.49189999999999</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="4"/>
-        <v>48.665691466645498</v>
+        <v>48.248114397766322</v>
       </c>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
@@ -2576,11 +2576,11 @@
       </c>
       <c r="T27" s="5">
         <f t="shared" si="3"/>
-        <v>277.1454</v>
+        <v>279.49529999999999</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="4"/>
-        <v>48.665082171484954</v>
+        <v>48.247515305084079</v>
       </c>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
@@ -2588,7 +2588,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="5">
-        <v>1230000</v>
+        <v>1240000</v>
       </c>
       <c r="E28">
         <v>1.1000000000000001</v>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="L28" s="3">
         <f>(J28/PRODUCT(D28:H28))-1</f>
-        <v>219.91505663366169</v>
+        <v>218.13348359629347</v>
       </c>
       <c r="M28" s="3">
         <f>(K28/(D28*E28*F28*G28*I28))-1</f>
-        <v>227.44856547739028</v>
+        <v>225.60623833644357</v>
       </c>
       <c r="P28">
         <v>7</v>
@@ -2633,11 +2633,11 @@
       </c>
       <c r="T28" s="5">
         <f t="shared" si="3"/>
-        <v>277.1352</v>
+        <v>279.48509999999999</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="4"/>
-        <v>48.666910101816967</v>
+        <v>48.249312626859407</v>
       </c>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
@@ -2660,11 +2660,11 @@
       </c>
       <c r="T29" s="5">
         <f t="shared" si="3"/>
-        <v>141.75530000000001</v>
+        <v>142.4425</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="4"/>
-        <v>96.100066554471425</v>
+        <v>95.631616718669392</v>
       </c>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="T30" s="5">
         <f t="shared" si="3"/>
-        <v>141.751</v>
+        <v>142.43819999999999</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="4"/>
-        <v>96.103012073629557</v>
+        <v>95.634533885215234</v>
       </c>
       <c r="W30" s="2"/>
     </row>
@@ -2741,11 +2741,11 @@
       </c>
       <c r="T31" s="5">
         <f t="shared" si="3"/>
-        <v>277.13220000000001</v>
+        <v>279.4821</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="4"/>
-        <v>48.667447753992732</v>
+        <v>48.249841275878005</v>
       </c>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
@@ -2753,7 +2753,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="5">
-        <v>1230000</v>
+        <v>1240000</v>
       </c>
       <c r="E32">
         <v>1.1000000000000001</v>
@@ -2778,11 +2778,11 @@
       </c>
       <c r="L32" s="3">
         <f>(J32/PRODUCT(D32:H32))-1</f>
-        <v>219.91505663366169</v>
+        <v>218.13348359629347</v>
       </c>
       <c r="M32" s="3">
         <f>(K32/(PRODUCT(D32:G32)*I32))-1</f>
-        <v>227.44856547739028</v>
+        <v>225.60623833644357</v>
       </c>
       <c r="P32">
         <v>11</v>
@@ -2798,11 +2798,11 @@
       </c>
       <c r="T32" s="5">
         <f t="shared" si="3"/>
-        <v>682.48289999999997</v>
+        <v>688.49189999999999</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="4"/>
-        <v>19.16819624997061</v>
+        <v>18.992172841029888</v>
       </c>
     </row>
     <row r="33" spans="16:23" x14ac:dyDescent="0.25">
@@ -2820,11 +2820,11 @@
       </c>
       <c r="T33" s="5">
         <f t="shared" si="3"/>
-        <v>682.49549999999999</v>
+        <v>688.50469999999996</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="4"/>
-        <v>19.167823911584861</v>
+        <v>18.991801166279714</v>
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
@@ -2877,15 +2877,15 @@
       </c>
       <c r="U38" s="5">
         <f>ABS(AE6)</f>
-        <v>141.7517</v>
+        <v>142.43889999999999</v>
       </c>
       <c r="V38" s="5">
         <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>220.25354843133877</v>
+        <v>221.62306193246428</v>
       </c>
       <c r="W38" s="4">
         <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
-        <v>7.4999667480209453</v>
+        <v>7.4470153086152635</v>
       </c>
     </row>
     <row r="39" spans="16:23" x14ac:dyDescent="0.25">
@@ -2906,15 +2906,15 @@
       </c>
       <c r="U39" s="5">
         <f t="shared" ref="U39:U49" si="5">ABS(AE7)</f>
-        <v>682.48509999999999</v>
+        <v>688.49419999999998</v>
       </c>
       <c r="V39" s="5">
         <f t="shared" ref="V39:V49" si="6">SQRT(AF7^2 + AG7^2)</f>
-        <v>99.207031019685303</v>
+        <v>99.992493674349376</v>
       </c>
       <c r="W39" s="4">
         <f t="shared" ref="W39:W49" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
-        <v>17.122058493591524</v>
+        <v>16.971446966190555</v>
       </c>
     </row>
     <row r="40" spans="16:23" x14ac:dyDescent="0.25">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="U40" s="5">
         <f t="shared" si="5"/>
-        <v>682.47209999999995</v>
+        <v>688.48109999999997</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="6"/>
-        <v>99.208508325915773</v>
+        <v>99.993957640563963</v>
       </c>
       <c r="W40" s="4">
         <f t="shared" si="7"/>
-        <v>17.121806647667071</v>
+        <v>16.971201858611277</v>
       </c>
     </row>
     <row r="41" spans="16:23" x14ac:dyDescent="0.25">
@@ -2964,15 +2964,15 @@
       </c>
       <c r="U41" s="5">
         <f t="shared" si="5"/>
-        <v>141.75579999999999</v>
+        <v>142.44300000000001</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="6"/>
-        <v>220.25147163163859</v>
+        <v>221.62099592640791</v>
       </c>
       <c r="W41" s="4">
         <f t="shared" si="7"/>
-        <v>7.5000443378373696</v>
+        <v>7.4470915113575717</v>
       </c>
     </row>
     <row r="42" spans="16:23" x14ac:dyDescent="0.25">
@@ -2993,15 +2993,15 @@
       </c>
       <c r="U42" s="5">
         <f t="shared" si="5"/>
-        <v>277.142</v>
+        <v>279.49189999999999</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="6"/>
-        <v>506.06205677217304</v>
+        <v>510.14411725398304</v>
       </c>
       <c r="W42" s="4">
         <f t="shared" si="7"/>
-        <v>2.6626759850525028</v>
+        <v>2.6327350178245048</v>
       </c>
     </row>
     <row r="43" spans="16:23" x14ac:dyDescent="0.25">
@@ -3022,15 +3022,15 @@
       </c>
       <c r="U43" s="5">
         <f t="shared" si="5"/>
-        <v>277.1454</v>
+        <v>279.49529999999999</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="6"/>
-        <v>506.06514464015652</v>
+        <v>510.14720055072428</v>
       </c>
       <c r="W43" s="4">
         <f t="shared" si="7"/>
-        <v>2.6626527131137498</v>
+        <v>2.6327121458825</v>
       </c>
     </row>
     <row r="44" spans="16:23" x14ac:dyDescent="0.25">
@@ -3051,15 +3051,15 @@
       </c>
       <c r="U44" s="5">
         <f t="shared" si="5"/>
-        <v>277.1352</v>
+        <v>279.48509999999999</v>
       </c>
       <c r="V44" s="5">
         <f t="shared" si="6"/>
-        <v>506.05940459713116</v>
+        <v>510.14146156032052</v>
       </c>
       <c r="W44" s="4">
         <f t="shared" si="7"/>
-        <v>2.6626970271910801</v>
+        <v>2.6327557609838985</v>
       </c>
     </row>
     <row r="45" spans="16:23" x14ac:dyDescent="0.25">
@@ -3080,15 +3080,15 @@
       </c>
       <c r="U45" s="5">
         <f t="shared" si="5"/>
-        <v>141.75530000000001</v>
+        <v>142.4425</v>
       </c>
       <c r="V45" s="5">
         <f t="shared" si="6"/>
-        <v>220.25082488547369</v>
+        <v>221.62033901830151</v>
       </c>
       <c r="W45" s="4">
         <f t="shared" si="7"/>
-        <v>7.5000696094129271</v>
+        <v>7.4471168595598183</v>
       </c>
     </row>
     <row r="46" spans="16:23" x14ac:dyDescent="0.25">
@@ -3109,15 +3109,15 @@
       </c>
       <c r="U46" s="5">
         <f t="shared" si="5"/>
-        <v>141.751</v>
+        <v>142.43819999999999</v>
       </c>
       <c r="V46" s="5">
         <f t="shared" si="6"/>
-        <v>220.2535218146225</v>
+        <v>221.62312305565251</v>
       </c>
       <c r="W46" s="4">
         <f t="shared" si="7"/>
-        <v>7.4999682119757587</v>
+        <v>7.4470134130165491</v>
       </c>
     </row>
     <row r="47" spans="16:23" x14ac:dyDescent="0.25">
@@ -3138,15 +3138,15 @@
       </c>
       <c r="U47" s="5">
         <f t="shared" si="5"/>
-        <v>277.13220000000001</v>
+        <v>279.4821</v>
       </c>
       <c r="V47" s="5">
         <f t="shared" si="6"/>
-        <v>506.05779310483314</v>
+        <v>510.13985238975289</v>
       </c>
       <c r="W47" s="4">
         <f t="shared" si="7"/>
-        <v>2.6627095053978178</v>
+        <v>2.6327680282265664</v>
       </c>
     </row>
     <row r="48" spans="16:23" x14ac:dyDescent="0.25">
@@ -3167,15 +3167,15 @@
       </c>
       <c r="U48" s="5">
         <f t="shared" si="5"/>
-        <v>682.48289999999997</v>
+        <v>688.49189999999999</v>
       </c>
       <c r="V48" s="5">
         <f t="shared" si="6"/>
-        <v>99.192492874098079</v>
+        <v>99.977868407199992</v>
       </c>
       <c r="W48" s="4">
         <f t="shared" si="7"/>
-        <v>17.124717600747061</v>
+        <v>16.974079081706201</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -3196,15 +3196,15 @@
       </c>
       <c r="U49" s="5">
         <f t="shared" si="5"/>
-        <v>682.49549999999999</v>
+        <v>688.50469999999996</v>
       </c>
       <c r="V49" s="5">
         <f t="shared" si="6"/>
-        <v>99.192455739295511</v>
+        <v>99.977863786550273</v>
       </c>
       <c r="W49" s="4">
         <f t="shared" si="7"/>
-        <v>17.124706929147269</v>
+        <v>16.974062317657371</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
@@ -3295,19 +3295,19 @@
       </c>
       <c r="Z54" s="5">
         <f>ABS(AE6)</f>
-        <v>141.7517</v>
+        <v>142.43889999999999</v>
       </c>
       <c r="AA54" s="5">
         <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>220.25354843133877</v>
+        <v>221.62306193246428</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.58183482938864284</v>
+        <v>0.58182997331684971</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.83096919631379929</v>
+        <v>0.83095710410450074</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -3343,19 +3343,19 @@
       </c>
       <c r="Z55" s="5">
         <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)</f>
-        <v>682.48509999999999</v>
+        <v>688.49419999999998</v>
       </c>
       <c r="AA55" s="5">
         <f t="shared" ref="AA55:AA65" si="9">SQRT(AF7^2 + AG7^2)</f>
-        <v>99.207031019685303</v>
+        <v>99.992493674349376</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" ref="AB55:AB65" si="10">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.58054745906762673</v>
+        <v>0.58053028587484312</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" ref="AC55:AC65" si="11">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.8291541029310765</v>
+        <v>0.82912520547956636</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -3391,19 +3391,19 @@
       </c>
       <c r="Z56" s="5">
         <f t="shared" si="8"/>
-        <v>682.47209999999995</v>
+        <v>688.48109999999997</v>
       </c>
       <c r="AA56" s="5">
         <f t="shared" si="9"/>
-        <v>99.208508325915773</v>
+        <v>99.993957640563963</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054749312058518</v>
+        <v>0.58053032020176865</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="11"/>
-        <v>0.82915415603165554</v>
+        <v>0.82912525902570655</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -3439,19 +3439,19 @@
       </c>
       <c r="Z57" s="5">
         <f t="shared" si="8"/>
-        <v>141.75579999999999</v>
+        <v>142.44300000000001</v>
       </c>
       <c r="AA57" s="5">
         <f t="shared" si="9"/>
-        <v>220.25147163163859</v>
+        <v>221.62099592640791</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="10"/>
-        <v>0.58183482267893805</v>
+        <v>0.58182996661164177</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="11"/>
-        <v>0.83096919183832152</v>
+        <v>0.83095709964260256</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -3487,19 +3487,19 @@
       </c>
       <c r="Z58" s="5">
         <f t="shared" si="8"/>
-        <v>277.142</v>
+        <v>279.49189999999999</v>
       </c>
       <c r="AA58" s="5">
         <f t="shared" si="9"/>
-        <v>506.06205677217304</v>
+        <v>510.14411725398304</v>
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="10"/>
-        <v>0.58044518403464207</v>
+        <v>0.58041842110707931</v>
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="11"/>
-        <v>0.82727658602101739</v>
+        <v>0.82720458762434323</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -3535,19 +3535,19 @@
       </c>
       <c r="Z59" s="5">
         <f t="shared" si="8"/>
-        <v>277.1454</v>
+        <v>279.49529999999999</v>
       </c>
       <c r="AA59" s="5">
         <f t="shared" si="9"/>
-        <v>506.06514464015652</v>
+        <v>510.14720055072428</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="10"/>
-        <v>0.58044515942573049</v>
+        <v>0.58041839639857473</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="11"/>
-        <v>0.82727652459858358</v>
+        <v>0.82720452590374283</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -3583,19 +3583,19 @@
       </c>
       <c r="Z60" s="5">
         <f t="shared" si="8"/>
-        <v>277.1352</v>
+        <v>279.48509999999999</v>
       </c>
       <c r="AA60" s="5">
         <f t="shared" si="9"/>
-        <v>506.05940459713116</v>
+        <v>510.14146156032052</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="10"/>
-        <v>0.58044521575384844</v>
+        <v>0.58041845294860006</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="11"/>
-        <v>0.82727665585875276</v>
+        <v>0.82720465782913877</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -3631,19 +3631,19 @@
       </c>
       <c r="Z61" s="5">
         <f t="shared" si="8"/>
-        <v>141.75530000000001</v>
+        <v>142.4425</v>
       </c>
       <c r="AA61" s="5">
         <f t="shared" si="9"/>
-        <v>220.25082488547369</v>
+        <v>221.62033901830151</v>
       </c>
       <c r="AB61" s="2">
         <f t="shared" si="10"/>
-        <v>0.58183482544761667</v>
+        <v>0.58182996941116949</v>
       </c>
       <c r="AC61" s="2">
         <f t="shared" si="11"/>
-        <v>0.83096919831260396</v>
+        <v>0.8309571062106027</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -3679,19 +3679,19 @@
       </c>
       <c r="Z62" s="5">
         <f t="shared" si="8"/>
-        <v>141.751</v>
+        <v>142.43819999999999</v>
       </c>
       <c r="AA62" s="5">
         <f t="shared" si="9"/>
-        <v>220.2535218146225</v>
+        <v>221.62312305565251</v>
       </c>
       <c r="AB62" s="2">
         <f t="shared" si="10"/>
-        <v>0.58183483136028857</v>
+        <v>0.581829975097514</v>
       </c>
       <c r="AC62" s="2">
         <f t="shared" si="11"/>
-        <v>0.83096919958887216</v>
+        <v>0.83095710679906443</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -3727,19 +3727,19 @@
       </c>
       <c r="Z63" s="5">
         <f t="shared" si="8"/>
-        <v>277.13220000000001</v>
+        <v>279.4821</v>
       </c>
       <c r="AA63" s="5">
         <f t="shared" si="9"/>
-        <v>506.05779310483314</v>
+        <v>510.13985238975289</v>
       </c>
       <c r="AB63" s="2">
         <f t="shared" si="10"/>
-        <v>0.58044523193970532</v>
+        <v>0.58041846918659634</v>
       </c>
       <c r="AC63" s="2">
         <f t="shared" si="11"/>
-        <v>0.82727669330983788</v>
+        <v>0.82720469543619268</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -3775,19 +3775,19 @@
       </c>
       <c r="Z64" s="5">
         <f t="shared" si="8"/>
-        <v>682.48289999999997</v>
+        <v>688.49189999999999</v>
       </c>
       <c r="AA64" s="5">
         <f t="shared" si="9"/>
-        <v>99.192492874098079</v>
+        <v>99.977868407199992</v>
       </c>
       <c r="AB64" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054747922917405</v>
+        <v>0.58053030650636828</v>
       </c>
       <c r="AC64" s="2">
         <f t="shared" si="11"/>
-        <v>0.82915415566035167</v>
+        <v>0.82912525924874925</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -3823,19 +3823,19 @@
       </c>
       <c r="Z65" s="5">
         <f t="shared" si="8"/>
-        <v>682.49549999999999</v>
+        <v>688.50469999999996</v>
       </c>
       <c r="AA65" s="5">
         <f t="shared" si="9"/>
-        <v>99.192455739295511</v>
+        <v>99.977863786550273</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054744486589649</v>
+        <v>0.58053027156622461</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" si="11"/>
-        <v>0.82915410006775292</v>
+        <v>0.82912520267778311</v>
       </c>
     </row>
   </sheetData>
@@ -3910,8 +3910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C2AAF-AA2E-43AA-8D17-51A2E4C44F0A}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6:AJ17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4081,7 +4081,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>182000000</v>
+        <v>14000000</v>
       </c>
       <c r="E6">
         <v>1.1000000000000001</v>
@@ -4106,11 +4106,11 @@
       </c>
       <c r="L6" s="3">
         <f>(J6/PRODUCT(D6:H6))-1</f>
-        <v>0.49299736076595546</v>
+        <v>18.408965689957427</v>
       </c>
       <c r="M6" s="3">
         <f>(K6/(E6*F6*G6*I6*D6))-1</f>
-        <v>0.54391063481972535</v>
+        <v>19.070838252656433</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -4138,15 +4138,15 @@
       </c>
       <c r="X6" s="5">
         <f>AE6</f>
-        <v>141.7559</v>
+        <v>142.44309999999999</v>
       </c>
       <c r="Y6" s="2">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.58207352989611039</v>
+        <v>0.58207165008215567</v>
       </c>
       <c r="Z6" s="2">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.83169503277592494</v>
+        <v>0.83169198609744055</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -4155,22 +4155,22 @@
         <v>1</v>
       </c>
       <c r="AE6" s="2">
-        <v>141.7559</v>
+        <v>142.44309999999999</v>
       </c>
       <c r="AF6" s="2">
-        <v>215.5787</v>
+        <v>216.8381</v>
       </c>
       <c r="AG6" s="2">
-        <v>45.1265</v>
+        <v>45.792670000000001</v>
       </c>
       <c r="AH6" s="2">
-        <v>-4.6341850000000001E-4</v>
+        <v>-4.6973060000000001E-4</v>
       </c>
       <c r="AI6" s="2">
-        <v>4.4344200000000003</v>
+        <v>4.486237</v>
       </c>
       <c r="AJ6" s="2">
-        <v>4.7700839999999998</v>
+        <v>4.8251109999999997</v>
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
@@ -4205,15 +4205,15 @@
       </c>
       <c r="X7" s="5">
         <f t="shared" ref="X7:X17" si="0">AE7</f>
-        <v>277.14519999999999</v>
+        <v>279.49509999999998</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.58170326296749431</v>
+        <v>0.58169683791701465</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.83109498442670171</v>
+        <v>0.83108457308932859</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -4222,22 +4222,22 @@
         <v>2</v>
       </c>
       <c r="AE7" s="2">
-        <v>277.14519999999999</v>
+        <v>279.49509999999998</v>
       </c>
       <c r="AF7" s="2">
-        <v>503.15359999999998</v>
+        <v>507.19380000000001</v>
       </c>
       <c r="AG7" s="2">
-        <v>54.199530000000003</v>
+        <v>54.80706</v>
       </c>
       <c r="AH7" s="2">
-        <v>-2.3646790000000002E-3</v>
+        <v>-2.3846169999999999E-3</v>
       </c>
       <c r="AI7" s="2">
-        <v>8.4547220000000003</v>
+        <v>8.5368279999999999</v>
       </c>
       <c r="AJ7" s="2">
-        <v>2.445093</v>
+        <v>2.4702489999999999</v>
       </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
@@ -4267,15 +4267,15 @@
       </c>
       <c r="X8" s="5">
         <f t="shared" si="0"/>
-        <v>-277.13200000000001</v>
+        <v>-279.4819</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="1"/>
-        <v>0.58322021643041655</v>
+        <v>0.58322665386318984</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="2"/>
-        <v>0.8335540463496236</v>
+        <v>0.83356448578829823</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -4284,22 +4284,22 @@
         <v>3</v>
       </c>
       <c r="AE8" s="2">
-        <v>-277.13200000000001</v>
+        <v>-279.4819</v>
       </c>
       <c r="AF8" s="2">
-        <v>503.14589999999998</v>
+        <v>507.18619999999999</v>
       </c>
       <c r="AG8" s="2">
-        <v>-54.202350000000003</v>
+        <v>-54.809890000000003</v>
       </c>
       <c r="AH8" s="2">
-        <v>-2.365364E-3</v>
+        <v>-2.385304E-3</v>
       </c>
       <c r="AI8" s="2">
-        <v>-8.4543610000000005</v>
+        <v>-8.5364660000000008</v>
       </c>
       <c r="AJ8" s="2">
-        <v>2.4450820000000002</v>
+        <v>2.4702380000000002</v>
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
@@ -4332,15 +4332,15 @@
       </c>
       <c r="X9" s="5">
         <f t="shared" si="0"/>
-        <v>-141.75110000000001</v>
+        <v>-142.43819999999999</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="1"/>
-        <v>0.58284943563192138</v>
+        <v>0.58285131702084181</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="2"/>
-        <v>0.83295281687921374</v>
+        <v>0.83295586730950122</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -4349,22 +4349,22 @@
         <v>4</v>
       </c>
       <c r="AE9" s="2">
-        <v>-141.75110000000001</v>
+        <v>-142.43819999999999</v>
       </c>
       <c r="AF9" s="2">
-        <v>215.58240000000001</v>
+        <v>216.84190000000001</v>
       </c>
       <c r="AG9" s="2">
-        <v>-45.118810000000003</v>
+        <v>-45.784950000000002</v>
       </c>
       <c r="AH9" s="2">
-        <v>-4.6339280000000003E-4</v>
+        <v>-4.6970470000000001E-4</v>
       </c>
       <c r="AI9" s="2">
-        <v>-4.4342750000000004</v>
+        <v>-4.4860910000000001</v>
       </c>
       <c r="AJ9" s="2">
-        <v>4.7700319999999996</v>
+        <v>4.8250580000000003</v>
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
@@ -4394,15 +4394,15 @@
       </c>
       <c r="X10" s="5">
         <f t="shared" si="0"/>
-        <v>682.47230000000002</v>
+        <v>688.48130000000003</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="1"/>
-        <v>0.58059579702164932</v>
+        <v>0.58057939043458662</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="2"/>
-        <v>0.82930091383393512</v>
+        <v>0.82927434306882364</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -4411,22 +4411,22 @@
         <v>5</v>
       </c>
       <c r="AE10" s="2">
-        <v>682.47230000000002</v>
+        <v>688.48130000000003</v>
       </c>
       <c r="AF10" s="2">
-        <v>16.19191</v>
+        <v>15.46203</v>
       </c>
       <c r="AG10" s="2">
-        <v>97.877499999999998</v>
+        <v>98.790530000000004</v>
       </c>
       <c r="AH10" s="2">
-        <v>-2.5196110000000002E-4</v>
+        <v>-2.574605E-4</v>
       </c>
       <c r="AI10" s="2">
-        <v>1.4500610000000001E-3</v>
+        <v>5.5016589999999999E-3</v>
       </c>
       <c r="AJ10" s="2">
-        <v>18.93817</v>
+        <v>19.122029999999999</v>
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
@@ -4459,15 +4459,15 @@
       </c>
       <c r="X11" s="5">
         <f t="shared" si="0"/>
-        <v>-682.49570000000006</v>
+        <v>-688.50480000000005</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
-        <v>0.58433146479670794</v>
+        <v>0.58434794964485071</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="2"/>
-        <v>0.8353566361087148</v>
+        <v>0.83538338430831049</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -4476,22 +4476,22 @@
         <v>6</v>
       </c>
       <c r="AE11" s="2">
-        <v>-682.49570000000006</v>
+        <v>-688.50480000000005</v>
       </c>
       <c r="AF11" s="2">
-        <v>16.192599999999999</v>
+        <v>15.4627</v>
       </c>
       <c r="AG11" s="2">
-        <v>-97.861149999999995</v>
+        <v>-98.774169999999998</v>
       </c>
       <c r="AH11" s="2">
-        <v>-2.491247E-4</v>
+        <v>-2.546413E-4</v>
       </c>
       <c r="AI11" s="2">
-        <v>-1.440658E-3</v>
+        <v>-5.4935360000000003E-3</v>
       </c>
       <c r="AJ11" s="2">
-        <v>18.93863</v>
+        <v>19.122489999999999</v>
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
@@ -4554,15 +4554,15 @@
       </c>
       <c r="X12" s="5">
         <f t="shared" si="0"/>
-        <v>682.48490000000004</v>
+        <v>688.49400000000003</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="1"/>
-        <v>0.58059576261906343</v>
+        <v>0.58057935575968411</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="2"/>
-        <v>0.8293008581180934</v>
+        <v>0.82927428691242411</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -4571,22 +4571,22 @@
         <v>7</v>
       </c>
       <c r="AE12" s="2">
-        <v>682.48490000000004</v>
+        <v>688.49400000000003</v>
       </c>
       <c r="AF12" s="2">
-        <v>16.18994</v>
+        <v>15.460039999999999</v>
       </c>
       <c r="AG12" s="2">
-        <v>-97.877759999999995</v>
+        <v>-98.790809999999993</v>
       </c>
       <c r="AH12" s="2">
-        <v>2.4911170000000002E-4</v>
+        <v>2.5462709999999998E-4</v>
       </c>
       <c r="AI12" s="2">
-        <v>-1.598974E-3</v>
+        <v>-5.6521389999999996E-3</v>
       </c>
       <c r="AJ12" s="2">
-        <v>18.93835</v>
+        <v>19.122209999999999</v>
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
@@ -4651,15 +4651,15 @@
       </c>
       <c r="X13" s="5">
         <f t="shared" si="0"/>
-        <v>141.7516</v>
+        <v>142.43879999999999</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>0.58207354165863912</v>
+        <v>0.5820716618446562</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="2"/>
-        <v>0.8316950518398647</v>
+        <v>0.83169200516131703</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>8</v>
       </c>
       <c r="AE13" s="2">
-        <v>141.7516</v>
+        <v>142.43879999999999</v>
       </c>
       <c r="AF13" s="2">
-        <v>215.5821</v>
+        <v>216.8416</v>
       </c>
       <c r="AG13" s="2">
-        <v>-45.123390000000001</v>
+        <v>-45.789549999999998</v>
       </c>
       <c r="AH13" s="2">
-        <v>4.6350249999999998E-4</v>
+        <v>4.6981470000000001E-4</v>
       </c>
       <c r="AI13" s="2">
-        <v>-4.4343370000000002</v>
+        <v>-4.4861529999999998</v>
       </c>
       <c r="AJ13" s="2">
-        <v>4.7700259999999997</v>
+        <v>4.8250520000000003</v>
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
@@ -4718,15 +4718,15 @@
       </c>
       <c r="X14" s="5">
         <f t="shared" si="0"/>
-        <v>-141.7552</v>
+        <v>-142.44239999999999</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>0.58284944685835915</v>
+        <v>0.58285132852112254</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="2"/>
-        <v>0.83295283508143103</v>
+        <v>0.83295588595573733</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -4735,22 +4735,22 @@
         <v>9</v>
       </c>
       <c r="AE14" s="2">
-        <v>-141.7552</v>
+        <v>-142.44239999999999</v>
       </c>
       <c r="AF14" s="2">
-        <v>215.5796</v>
+        <v>216.8391</v>
       </c>
       <c r="AG14" s="2">
-        <v>45.122019999999999</v>
+        <v>45.78819</v>
       </c>
       <c r="AH14" s="2">
-        <v>4.633797E-4</v>
+        <v>4.6969189999999998E-4</v>
       </c>
       <c r="AI14" s="2">
-        <v>4.4343560000000002</v>
+        <v>4.486173</v>
       </c>
       <c r="AJ14" s="2">
-        <v>4.7700829999999996</v>
+        <v>4.8251099999999996</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
@@ -4780,15 +4780,15 @@
       </c>
       <c r="X15" s="5">
         <f t="shared" si="0"/>
-        <v>-682.48270000000002</v>
+        <v>-688.49170000000004</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>0.58433142913399783</v>
+        <v>0.5843479137070644</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="2"/>
-        <v>0.83535657824289178</v>
+        <v>0.83538332599566623</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -4797,22 +4797,22 @@
         <v>10</v>
       </c>
       <c r="AE15" s="2">
-        <v>-682.48270000000002</v>
+        <v>-688.49170000000004</v>
       </c>
       <c r="AF15" s="2">
-        <v>16.194680000000002</v>
+        <v>15.4648</v>
       </c>
       <c r="AG15" s="2">
-        <v>97.862250000000003</v>
+        <v>98.775270000000006</v>
       </c>
       <c r="AH15" s="2">
-        <v>2.5187849999999998E-4</v>
+        <v>2.5737790000000002E-4</v>
       </c>
       <c r="AI15" s="2">
-        <v>1.294314E-3</v>
+        <v>5.3457319999999997E-3</v>
       </c>
       <c r="AJ15" s="2">
-        <v>18.93844</v>
+        <v>19.122299999999999</v>
       </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
@@ -4875,15 +4875,15 @@
       </c>
       <c r="X16" s="5">
         <f t="shared" si="0"/>
-        <v>277.1422</v>
+        <v>279.49209999999999</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>0.5817032711700687</v>
+        <v>0.58169684611952244</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="2"/>
-        <v>0.83109499771841211</v>
+        <v>0.83108458638088778</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -4892,22 +4892,22 @@
         <v>11</v>
       </c>
       <c r="AE16" s="2">
-        <v>277.1422</v>
+        <v>279.49209999999999</v>
       </c>
       <c r="AF16" s="2">
-        <v>503.15159999999997</v>
+        <v>507.1918</v>
       </c>
       <c r="AG16" s="2">
-        <v>-54.203040000000001</v>
+        <v>-54.810589999999998</v>
       </c>
       <c r="AH16" s="2">
-        <v>2.3654259999999999E-3</v>
+        <v>2.3853670000000002E-3</v>
       </c>
       <c r="AI16" s="2">
-        <v>-8.4546449999999993</v>
+        <v>-8.5367499999999996</v>
       </c>
       <c r="AJ16" s="2">
-        <v>2.4450440000000002</v>
+        <v>2.470199</v>
       </c>
     </row>
     <row r="17" spans="3:36" x14ac:dyDescent="0.25">
@@ -4972,15 +4972,15 @@
       </c>
       <c r="X17" s="5">
         <f t="shared" si="0"/>
-        <v>-277.1354</v>
+        <v>-279.4853</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>0.58322022574450738</v>
+        <v>0.58322666317735639</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="2"/>
-        <v>0.83355406145404909</v>
+        <v>0.83356450089289602</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -4989,22 +4989,22 @@
         <v>12</v>
       </c>
       <c r="AE17" s="2">
-        <v>-277.1354</v>
+        <v>-279.4853</v>
       </c>
       <c r="AF17" s="2">
-        <v>503.14949999999999</v>
+        <v>507.18970000000002</v>
       </c>
       <c r="AG17" s="2">
-        <v>54.198709999999998</v>
+        <v>54.806240000000003</v>
       </c>
       <c r="AH17" s="2">
-        <v>2.3646159999999999E-3</v>
+        <v>2.3845530000000002E-3</v>
       </c>
       <c r="AI17" s="2">
-        <v>8.4544479999999993</v>
+        <v>8.5365529999999996</v>
       </c>
       <c r="AJ17" s="2">
-        <v>2.445125</v>
+        <v>2.4702809999999999</v>
       </c>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
@@ -5063,11 +5063,11 @@
       </c>
       <c r="T22" s="5">
         <f>ABS(AE6)</f>
-        <v>141.7559</v>
+        <v>142.44309999999999</v>
       </c>
       <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>96.099655566005111</v>
+        <v>95.631209686176902</v>
       </c>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
@@ -5089,11 +5089,11 @@
       </c>
       <c r="T23" s="5">
         <f t="shared" ref="T23:T33" si="3">ABS(AE7)</f>
-        <v>277.14519999999999</v>
+        <v>279.49509999999998</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" ref="U23:U33" si="4">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>48.665118011962925</v>
+        <v>48.247550545426613</v>
       </c>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
@@ -5116,11 +5116,11 @@
       </c>
       <c r="T24" s="5">
         <f t="shared" si="3"/>
-        <v>277.13200000000001</v>
+        <v>279.4819</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="4"/>
-        <v>48.667483597884996</v>
+        <v>48.249876519549439</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
@@ -5139,11 +5139,11 @@
       </c>
       <c r="T25" s="5">
         <f t="shared" si="3"/>
-        <v>141.75110000000001</v>
+        <v>142.43819999999999</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="4"/>
-        <v>96.102943571154398</v>
+        <v>95.634533885215234</v>
       </c>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
@@ -5162,11 +5162,11 @@
       </c>
       <c r="T26" s="5">
         <f t="shared" si="3"/>
-        <v>682.47230000000002</v>
+        <v>688.48130000000003</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="4"/>
-        <v>19.16850949767348</v>
+        <v>18.992480644643603</v>
       </c>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
@@ -5188,11 +5188,11 @@
       </c>
       <c r="T27" s="5">
         <f t="shared" si="3"/>
-        <v>682.49570000000006</v>
+        <v>688.50480000000005</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="4"/>
-        <v>19.167818001562594</v>
+        <v>18.991798262625132</v>
       </c>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
@@ -5215,11 +5215,11 @@
       </c>
       <c r="T28" s="5">
         <f t="shared" si="3"/>
-        <v>682.48490000000004</v>
+        <v>688.49400000000003</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="4"/>
-        <v>19.168137147721605</v>
+        <v>18.992111862193518</v>
       </c>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
@@ -5237,11 +5237,11 @@
       </c>
       <c r="T29" s="5">
         <f t="shared" si="3"/>
-        <v>141.7516</v>
+        <v>142.43879999999999</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="4"/>
-        <v>96.102601060228352</v>
+        <v>95.634126828147018</v>
       </c>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
@@ -5259,11 +5259,11 @@
       </c>
       <c r="T30" s="5">
         <f t="shared" si="3"/>
-        <v>141.7552</v>
+        <v>142.44239999999999</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="4"/>
-        <v>96.100135052887396</v>
+        <v>95.631684557751512</v>
       </c>
       <c r="W30" s="2"/>
     </row>
@@ -5282,11 +5282,11 @@
       </c>
       <c r="T31" s="5">
         <f t="shared" si="3"/>
-        <v>682.48270000000002</v>
+        <v>688.49170000000004</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="4"/>
-        <v>19.168202160214559</v>
+        <v>18.992178648557513</v>
       </c>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
@@ -5304,11 +5304,11 @@
       </c>
       <c r="T32" s="5">
         <f t="shared" si="3"/>
-        <v>277.1422</v>
+        <v>279.49209999999999</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="4"/>
-        <v>48.665655625339866</v>
+        <v>48.248079156616825</v>
       </c>
     </row>
     <row r="33" spans="16:23" x14ac:dyDescent="0.25">
@@ -5326,11 +5326,11 @@
       </c>
       <c r="T33" s="5">
         <f t="shared" si="3"/>
-        <v>277.1354</v>
+        <v>279.4853</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="4"/>
-        <v>48.666874258752458</v>
+        <v>48.249277383995022</v>
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="U38" s="5">
         <f>ABS(AE6)</f>
-        <v>141.7559</v>
+        <v>142.44309999999999</v>
       </c>
       <c r="V38" s="5">
         <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>220.25116775159219</v>
+        <v>221.62069000284899</v>
       </c>
       <c r="W38" s="4">
         <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
-        <v>7.500056002933345</v>
+        <v>7.4471031096494134</v>
       </c>
     </row>
     <row r="39" spans="16:23" x14ac:dyDescent="0.25">
@@ -5412,15 +5412,15 @@
       </c>
       <c r="U39" s="5">
         <f t="shared" ref="U39:U49" si="5">ABS(AE7)</f>
-        <v>277.14519999999999</v>
+        <v>279.49509999999998</v>
       </c>
       <c r="V39" s="5">
         <f t="shared" ref="V39:V49" si="6">SQRT(AF7^2 + AG7^2)</f>
-        <v>506.06435780953876</v>
+        <v>510.14641484997583</v>
       </c>
       <c r="W39" s="4">
         <f t="shared" ref="W39:W49" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
-        <v>2.6626584621315703</v>
+        <v>2.6327177946732827</v>
       </c>
     </row>
     <row r="40" spans="16:23" x14ac:dyDescent="0.25">
@@ -5441,15 +5441,15 @@
       </c>
       <c r="U40" s="5">
         <f t="shared" si="5"/>
-        <v>277.13200000000001</v>
+        <v>279.4819</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="6"/>
-        <v>506.05700413326213</v>
+        <v>510.13916288817904</v>
       </c>
       <c r="W40" s="4">
         <f t="shared" si="7"/>
-        <v>2.6627152700831456</v>
+        <v>2.6327729921367538</v>
       </c>
     </row>
     <row r="41" spans="16:23" x14ac:dyDescent="0.25">
@@ -5470,15 +5470,15 @@
       </c>
       <c r="U41" s="5">
         <f t="shared" si="5"/>
-        <v>141.75110000000001</v>
+        <v>142.43819999999999</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="6"/>
-        <v>220.25321383711091</v>
+        <v>221.62281300017943</v>
       </c>
       <c r="W41" s="4">
         <f t="shared" si="7"/>
-        <v>7.4999800349868995</v>
+        <v>7.447025230584897</v>
       </c>
     </row>
     <row r="42" spans="16:23" x14ac:dyDescent="0.25">
@@ -5499,15 +5499,15 @@
       </c>
       <c r="U42" s="5">
         <f t="shared" si="5"/>
-        <v>682.47230000000002</v>
+        <v>688.48130000000003</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="6"/>
-        <v>99.207776689622975</v>
+        <v>99.99321571687652</v>
       </c>
       <c r="W42" s="4">
         <f t="shared" si="7"/>
-        <v>17.1219400150921</v>
+        <v>16.971334925385264</v>
       </c>
     </row>
     <row r="43" spans="16:23" x14ac:dyDescent="0.25">
@@ -5528,15 +5528,15 @@
       </c>
       <c r="U43" s="5">
         <f t="shared" si="5"/>
-        <v>682.49570000000006</v>
+        <v>688.50480000000005</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="6"/>
-        <v>99.191758599605933</v>
+        <v>99.977156143185525</v>
       </c>
       <c r="W43" s="4">
         <f t="shared" si="7"/>
-        <v>17.124834036147142</v>
+        <v>16.974189401519016</v>
       </c>
     </row>
     <row r="44" spans="16:23" x14ac:dyDescent="0.25">
@@ -5557,15 +5557,15 @@
       </c>
       <c r="U44" s="5">
         <f t="shared" si="5"/>
-        <v>682.48490000000004</v>
+        <v>688.49400000000003</v>
       </c>
       <c r="V44" s="5">
         <f t="shared" si="6"/>
-        <v>99.207711695317315</v>
+        <v>99.993184654043787</v>
       </c>
       <c r="W44" s="4">
         <f t="shared" si="7"/>
-        <v>17.121934433095685</v>
+        <v>16.971323053553295</v>
       </c>
     </row>
     <row r="45" spans="16:23" x14ac:dyDescent="0.25">
@@ -5586,15 +5586,15 @@
       </c>
       <c r="U45" s="5">
         <f t="shared" si="5"/>
-        <v>141.7516</v>
+        <v>142.43879999999999</v>
       </c>
       <c r="V45" s="5">
         <f t="shared" si="6"/>
-        <v>220.25385845769443</v>
+        <v>221.62346983061721</v>
       </c>
       <c r="W45" s="4">
         <f t="shared" si="7"/>
-        <v>7.4999548459781149</v>
+        <v>7.4469998238875519</v>
       </c>
     </row>
     <row r="46" spans="16:23" x14ac:dyDescent="0.25">
@@ -5615,15 +5615,15 @@
       </c>
       <c r="U46" s="5">
         <f t="shared" si="5"/>
-        <v>141.7552</v>
+        <v>142.44239999999999</v>
       </c>
       <c r="V46" s="5">
         <f t="shared" si="6"/>
-        <v>220.25113081444189</v>
+        <v>221.62074278434793</v>
       </c>
       <c r="W46" s="4">
         <f t="shared" si="7"/>
-        <v>7.5000578652068519</v>
+        <v>7.4471015319506861</v>
       </c>
     </row>
     <row r="47" spans="16:23" x14ac:dyDescent="0.25">
@@ -5644,15 +5644,15 @@
       </c>
       <c r="U47" s="5">
         <f t="shared" si="5"/>
-        <v>682.48270000000002</v>
+        <v>688.49170000000004</v>
       </c>
       <c r="V47" s="5">
         <f t="shared" si="6"/>
-        <v>99.193183411789434</v>
+        <v>99.978567716350597</v>
       </c>
       <c r="W47" s="4">
         <f t="shared" si="7"/>
-        <v>17.124591701824325</v>
+        <v>16.973953635297558</v>
       </c>
     </row>
     <row r="48" spans="16:23" x14ac:dyDescent="0.25">
@@ -5673,15 +5673,15 @@
       </c>
       <c r="U48" s="5">
         <f t="shared" si="5"/>
-        <v>277.1422</v>
+        <v>279.49209999999999</v>
       </c>
       <c r="V48" s="5">
         <f t="shared" si="6"/>
-        <v>506.06274524786107</v>
+        <v>510.14480568108121</v>
       </c>
       <c r="W48" s="4">
         <f t="shared" si="7"/>
-        <v>2.6626709478330928</v>
+        <v>2.6327300616651699</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -5702,15 +5702,15 @@
       </c>
       <c r="U49" s="5">
         <f t="shared" si="5"/>
-        <v>277.1354</v>
+        <v>279.4853</v>
       </c>
       <c r="V49" s="5">
         <f t="shared" si="6"/>
-        <v>506.06019356981051</v>
+        <v>510.14225048414448</v>
       </c>
       <c r="W49" s="4">
         <f t="shared" si="7"/>
-        <v>2.6626912625535155</v>
+        <v>2.6327500891281015</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
@@ -5801,19 +5801,19 @@
       </c>
       <c r="Z54" s="5">
         <f>ABS(AE6)</f>
-        <v>141.7559</v>
+        <v>142.44309999999999</v>
       </c>
       <c r="AA54" s="5">
         <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>220.25116775159219</v>
+        <v>221.62069000284899</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.58183482306405265</v>
+        <v>0.58182996700530332</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.83096919339718989</v>
+        <v>0.8309571012274295</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -5849,19 +5849,19 @@
       </c>
       <c r="Z55" s="5">
         <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)</f>
-        <v>277.14519999999999</v>
+        <v>279.49509999999998</v>
       </c>
       <c r="AA55" s="5">
         <f t="shared" ref="AA55:AA65" si="9">SQRT(AF7^2 + AG7^2)</f>
-        <v>506.06435780953876</v>
+        <v>510.14641484997583</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" ref="AB55:AB65" si="10">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.5804451638787953</v>
+        <v>0.58041840087727681</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" ref="AC55:AC65" si="11">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.82727653731592854</v>
+        <v>0.82720453869792498</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -5897,19 +5897,19 @@
       </c>
       <c r="Z56" s="5">
         <f t="shared" si="8"/>
-        <v>277.13200000000001</v>
+        <v>279.4819</v>
       </c>
       <c r="AA56" s="5">
         <f t="shared" si="9"/>
-        <v>506.05700413326213</v>
+        <v>510.13916288817904</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="10"/>
-        <v>0.58044523640334589</v>
+        <v>0.58041847318367945</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="11"/>
-        <v>0.82727670605922143</v>
+        <v>0.82720470677154556</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -5945,19 +5945,19 @@
       </c>
       <c r="Z57" s="5">
         <f t="shared" si="8"/>
-        <v>141.75110000000001</v>
+        <v>142.43819999999999</v>
       </c>
       <c r="AA57" s="5">
         <f t="shared" si="9"/>
-        <v>220.25321383711091</v>
+        <v>221.62281300017943</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="10"/>
-        <v>0.58183483175428874</v>
+        <v>0.58182997577361295</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="11"/>
-        <v>0.83096920117474982</v>
+        <v>0.83095710885411034</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -5993,19 +5993,19 @@
       </c>
       <c r="Z58" s="5">
         <f t="shared" si="8"/>
-        <v>682.47230000000002</v>
+        <v>688.48130000000003</v>
       </c>
       <c r="AA58" s="5">
         <f t="shared" si="9"/>
-        <v>99.207776689622975</v>
+        <v>99.99321571687652</v>
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054749328699229</v>
+        <v>0.58053032038390096</v>
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="11"/>
-        <v>0.82915415731183373</v>
+        <v>0.82912526035361744</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -6041,19 +6041,19 @@
       </c>
       <c r="Z59" s="5">
         <f t="shared" si="8"/>
-        <v>682.49570000000006</v>
+        <v>688.50480000000005</v>
       </c>
       <c r="AA59" s="5">
         <f t="shared" si="9"/>
-        <v>99.191758599605933</v>
+        <v>99.977156143185525</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054744499860234</v>
+        <v>0.58053027198760665</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="11"/>
-        <v>0.829154101245549</v>
+        <v>0.82912520434521642</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -6089,19 +6089,19 @@
       </c>
       <c r="Z60" s="5">
         <f t="shared" si="8"/>
-        <v>682.48490000000004</v>
+        <v>688.49400000000003</v>
       </c>
       <c r="AA60" s="5">
         <f t="shared" si="9"/>
-        <v>99.207711695317315</v>
+        <v>99.993184654043787</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054745895084792</v>
+        <v>0.58053028574271326</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="11"/>
-        <v>0.82915410180166726</v>
+        <v>0.8291252043035604</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -6137,19 +6137,19 @@
       </c>
       <c r="Z61" s="5">
         <f t="shared" si="8"/>
-        <v>141.7516</v>
+        <v>142.43879999999999</v>
       </c>
       <c r="AA61" s="5">
         <f t="shared" si="9"/>
-        <v>220.25385845769443</v>
+        <v>221.62346983061721</v>
       </c>
       <c r="AB61" s="2">
         <f t="shared" si="10"/>
-        <v>0.58183482899020134</v>
+        <v>0.58182997270081716</v>
       </c>
       <c r="AC61" s="2">
         <f t="shared" si="11"/>
-        <v>0.83096919471442243</v>
+        <v>0.83095710184376337</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -6185,19 +6185,19 @@
       </c>
       <c r="Z62" s="5">
         <f t="shared" si="8"/>
-        <v>141.7552</v>
+        <v>142.44239999999999</v>
       </c>
       <c r="AA62" s="5">
         <f t="shared" si="9"/>
-        <v>220.25113081444189</v>
+        <v>221.62074278434793</v>
       </c>
       <c r="AB62" s="2">
         <f t="shared" si="10"/>
-        <v>0.58183482505806294</v>
+        <v>0.5818299688041586</v>
       </c>
       <c r="AC62" s="2">
         <f t="shared" si="11"/>
-        <v>0.83096919674024217</v>
+        <v>0.83095710397728562</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -6233,19 +6233,19 @@
       </c>
       <c r="Z63" s="5">
         <f t="shared" si="8"/>
-        <v>682.48270000000002</v>
+        <v>688.49170000000004</v>
       </c>
       <c r="AA63" s="5">
         <f t="shared" si="9"/>
-        <v>99.193183411789434</v>
+        <v>99.978567716350597</v>
       </c>
       <c r="AB63" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054747910289017</v>
+        <v>0.58053030636616465</v>
       </c>
       <c r="AC63" s="2">
         <f t="shared" si="11"/>
-        <v>0.82915415450206731</v>
+        <v>0.8291252580482138</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -6281,19 +6281,19 @@
       </c>
       <c r="Z64" s="5">
         <f t="shared" si="8"/>
-        <v>277.1422</v>
+        <v>279.49209999999999</v>
       </c>
       <c r="AA64" s="5">
         <f t="shared" si="9"/>
-        <v>506.06274524786107</v>
+        <v>510.14480568108121</v>
       </c>
       <c r="AB64" s="2">
         <f t="shared" si="10"/>
-        <v>0.58044518007003965</v>
+        <v>0.58041841711534148</v>
       </c>
       <c r="AC64" s="2">
         <f t="shared" si="11"/>
-        <v>0.82727657478333172</v>
+        <v>0.82720457630518385</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -6329,19 +6329,19 @@
       </c>
       <c r="Z65" s="5">
         <f t="shared" si="8"/>
-        <v>277.1354</v>
+        <v>279.4853</v>
       </c>
       <c r="AA65" s="5">
         <f t="shared" si="9"/>
-        <v>506.06019356981051</v>
+        <v>510.14225048414448</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" si="10"/>
-        <v>0.58044521129018367</v>
+        <v>0.58041844845380131</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" si="11"/>
-        <v>0.82727664310929705</v>
+        <v>0.8272046449861985</v>
       </c>
     </row>
   </sheetData>
@@ -6408,7 +6408,7 @@
   <dimension ref="B1:AK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6578,7 +6578,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="5">
-        <v>17600000</v>
+        <v>19500000</v>
       </c>
       <c r="E6">
         <v>1.1000000000000001</v>
@@ -6603,11 +6603,11 @@
       </c>
       <c r="L6" s="3">
         <f>(J6/PRODUCT(D6:H6))-1</f>
-        <v>14.438949980647948</v>
+        <v>12.934642033815583</v>
       </c>
       <c r="M6" s="3">
         <f>(K6/(E6*F6*G6*I6*D6))-1</f>
-        <v>14.965439519158526</v>
+        <v>13.409832591650774</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -6635,15 +6635,15 @@
       </c>
       <c r="X6" s="5">
         <f>AE6</f>
-        <v>258.113</v>
+        <v>258.26679999999999</v>
       </c>
       <c r="Y6" s="2">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.58175530235882822</v>
+        <v>0.5817548818126177</v>
       </c>
       <c r="Z6" s="2">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.83117931180544113</v>
+        <v>0.83117863032125605</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -6652,22 +6652,22 @@
         <v>1</v>
       </c>
       <c r="AE6" s="2">
-        <v>258.113</v>
+        <v>258.26679999999999</v>
       </c>
       <c r="AF6" s="2">
-        <v>-44.292580000000001</v>
+        <v>-44.592260000000003</v>
       </c>
       <c r="AG6" s="2">
-        <v>44.291960000000003</v>
+        <v>44.591630000000002</v>
       </c>
       <c r="AH6" s="2">
-        <v>-1.645617E-8</v>
+        <v>-1.6352389999999998E-8</v>
       </c>
       <c r="AI6" s="2">
-        <v>2.0431750000000002</v>
+        <v>2.098312</v>
       </c>
       <c r="AJ6" s="2">
-        <v>2.043158</v>
+        <v>2.0982949999999998</v>
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
@@ -6702,15 +6702,15 @@
       </c>
       <c r="X7" s="5">
         <f t="shared" ref="X7:X17" si="0">AE7</f>
-        <v>667.11410000000001</v>
+        <v>671.98779999999999</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.58063773161079357</v>
+        <v>0.58062442404163273</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.82936882866216299</v>
+        <v>0.82934727633915384</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -6719,22 +6719,22 @@
         <v>2</v>
       </c>
       <c r="AE7" s="2">
-        <v>667.11410000000001</v>
+        <v>671.98779999999999</v>
       </c>
       <c r="AF7" s="2">
-        <v>6.1783279999999996</v>
+        <v>6.3643280000000004</v>
       </c>
       <c r="AG7" s="2">
-        <v>125.25539999999999</v>
+        <v>126.3643</v>
       </c>
       <c r="AH7" s="2">
-        <v>-2.6058219999999999E-4</v>
+        <v>-2.6136060000000002E-4</v>
       </c>
       <c r="AI7" s="2">
-        <v>15.02087</v>
+        <v>15.181089999999999</v>
       </c>
       <c r="AJ7" s="2">
-        <v>-1.8205690000000001</v>
+        <v>-1.8219529999999999</v>
       </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
@@ -6764,15 +6764,15 @@
       </c>
       <c r="X8" s="5">
         <f t="shared" si="0"/>
-        <v>667.10230000000001</v>
+        <v>671.97590000000002</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="1"/>
-        <v>0.58063776383079935</v>
+        <v>0.58062445653414207</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="2"/>
-        <v>0.82936888084436844</v>
+        <v>0.82934732896234142</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -6781,22 +6781,22 @@
         <v>3</v>
       </c>
       <c r="AE8" s="2">
-        <v>667.10230000000001</v>
+        <v>671.97590000000002</v>
       </c>
       <c r="AF8" s="2">
-        <v>-6.1786789999999998</v>
+        <v>-6.3647</v>
       </c>
       <c r="AG8" s="2">
-        <v>125.2518</v>
+        <v>126.36060000000001</v>
       </c>
       <c r="AH8" s="2">
-        <v>2.616621E-4</v>
+        <v>2.6246E-4</v>
       </c>
       <c r="AI8" s="2">
-        <v>15.020670000000001</v>
+        <v>15.18088</v>
       </c>
       <c r="AJ8" s="2">
-        <v>1.820757</v>
+        <v>1.8221430000000001</v>
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
@@ -6829,15 +6829,15 @@
       </c>
       <c r="X9" s="5">
         <f t="shared" si="0"/>
-        <v>258.11290000000002</v>
+        <v>258.26670000000001</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="1"/>
-        <v>0.58175530263226549</v>
+        <v>0.58175488208605453</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="2"/>
-        <v>0.83117931224853914</v>
+        <v>0.83117863076435339</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -6846,22 +6846,22 @@
         <v>4</v>
       </c>
       <c r="AE9" s="2">
-        <v>258.11290000000002</v>
+        <v>258.26670000000001</v>
       </c>
       <c r="AF9" s="2">
-        <v>44.291690000000003</v>
+        <v>44.591349999999998</v>
       </c>
       <c r="AG9" s="2">
-        <v>44.2911</v>
+        <v>44.590760000000003</v>
       </c>
       <c r="AH9" s="2">
-        <v>8.4054050000000003E-10</v>
+        <v>5.2245960000000005E-10</v>
       </c>
       <c r="AI9" s="2">
-        <v>2.043142</v>
+        <v>2.0982780000000001</v>
       </c>
       <c r="AJ9" s="2">
-        <v>-2.0431780000000002</v>
+        <v>-2.0983139999999998</v>
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
@@ -6891,15 +6891,15 @@
       </c>
       <c r="X10" s="5">
         <f t="shared" si="0"/>
-        <v>667.1037</v>
+        <v>671.97739999999999</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="1"/>
-        <v>0.58063776000808653</v>
+        <v>0.5806244524384474</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="2"/>
-        <v>0.82936887465325904</v>
+        <v>0.8293473223291663</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>5</v>
       </c>
       <c r="AE10" s="2">
-        <v>667.1037</v>
+        <v>671.97739999999999</v>
       </c>
       <c r="AF10" s="2">
-        <v>-125.252</v>
+        <v>-126.3608</v>
       </c>
       <c r="AG10" s="2">
-        <v>-6.1797110000000002</v>
+        <v>-6.365767</v>
       </c>
       <c r="AH10" s="2">
-        <v>2.6169080000000003E-4</v>
+        <v>2.6248899999999997E-4</v>
       </c>
       <c r="AI10" s="2">
-        <v>-1.820749</v>
+        <v>-1.8221350000000001</v>
       </c>
       <c r="AJ10" s="2">
-        <v>15.020709999999999</v>
+        <v>15.18092</v>
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
@@ -6956,15 +6956,15 @@
       </c>
       <c r="X11" s="5">
         <f t="shared" si="0"/>
-        <v>667.1182</v>
+        <v>671.99210000000005</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
-        <v>0.58063772041570738</v>
+        <v>0.58062441230064232</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="2"/>
-        <v>0.82936881053105838</v>
+        <v>0.82934725732405323</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -6973,22 +6973,22 @@
         <v>6</v>
       </c>
       <c r="AE11" s="2">
-        <v>667.1182</v>
+        <v>671.99210000000005</v>
       </c>
       <c r="AF11" s="2">
-        <v>125.2548</v>
+        <v>126.36369999999999</v>
       </c>
       <c r="AG11" s="2">
-        <v>-6.1829029999999996</v>
+        <v>-6.3689730000000004</v>
       </c>
       <c r="AH11" s="2">
-        <v>-2.6047419999999997E-4</v>
+        <v>-2.6125209999999999E-4</v>
       </c>
       <c r="AI11" s="2">
-        <v>-1.8206260000000001</v>
+        <v>-1.822011</v>
       </c>
       <c r="AJ11" s="2">
-        <v>-15.020960000000001</v>
+        <v>-15.181179999999999</v>
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
@@ -7051,15 +7051,15 @@
       </c>
       <c r="X12" s="5">
         <f t="shared" si="0"/>
-        <v>667.11289999999997</v>
+        <v>671.98659999999995</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="1"/>
-        <v>0.58063773488740433</v>
+        <v>0.5806244273181882</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="2"/>
-        <v>0.82936883396882766</v>
+        <v>0.82934728164569393</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -7068,22 +7068,22 @@
         <v>7</v>
       </c>
       <c r="AE12" s="2">
-        <v>667.11289999999997</v>
+        <v>671.98659999999995</v>
       </c>
       <c r="AF12" s="2">
-        <v>-125.2551</v>
+        <v>-126.364</v>
       </c>
       <c r="AG12" s="2">
-        <v>6.1775989999999998</v>
+        <v>6.3636249999999999</v>
       </c>
       <c r="AH12" s="2">
-        <v>-2.6055909999999998E-4</v>
+        <v>-2.6133770000000002E-4</v>
       </c>
       <c r="AI12" s="2">
-        <v>1.8205789999999999</v>
+        <v>1.8219639999999999</v>
       </c>
       <c r="AJ12" s="2">
-        <v>15.02084</v>
+        <v>15.18106</v>
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
@@ -7091,7 +7091,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5">
-        <v>28600000</v>
+        <v>27500000</v>
       </c>
       <c r="E13">
         <v>1.1000000000000001</v>
@@ -7116,11 +7116,11 @@
       </c>
       <c r="L13" s="3">
         <f>(J13/PRODUCT(D13:H13))-1</f>
-        <v>8.5008922957833555</v>
+        <v>8.8809279876146885</v>
       </c>
       <c r="M13" s="3">
         <f>(K13/(D13*E13*F13*G13*I13))-1</f>
-        <v>8.8248858579437091</v>
+        <v>9.2178812922614579</v>
       </c>
       <c r="P13">
         <v>8</v>
@@ -7148,15 +7148,15 @@
       </c>
       <c r="X13" s="5">
         <f t="shared" si="0"/>
-        <v>258.11290000000002</v>
+        <v>258.26670000000001</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>0.58175530263226549</v>
+        <v>0.58175488208605453</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="2"/>
-        <v>0.83117931224853914</v>
+        <v>0.83117863076435339</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -7165,22 +7165,22 @@
         <v>8</v>
       </c>
       <c r="AE13" s="2">
-        <v>258.11290000000002</v>
+        <v>258.26670000000001</v>
       </c>
       <c r="AF13" s="2">
-        <v>-44.290529999999997</v>
+        <v>-44.59019</v>
       </c>
       <c r="AG13" s="2">
-        <v>-44.292259999999999</v>
+        <v>-44.591929999999998</v>
       </c>
       <c r="AH13" s="2">
-        <v>7.8197320000000005E-8</v>
+        <v>7.8099209999999998E-8</v>
       </c>
       <c r="AI13" s="2">
-        <v>-2.0431599999999999</v>
+        <v>-2.0982959999999999</v>
       </c>
       <c r="AJ13" s="2">
-        <v>2.0431599999999999</v>
+        <v>2.0982959999999999</v>
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
@@ -7215,15 +7215,15 @@
       </c>
       <c r="X14" s="5">
         <f t="shared" si="0"/>
-        <v>258.11279999999999</v>
+        <v>258.26650000000001</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>0.58175530290570254</v>
+        <v>0.58175488263292863</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="2"/>
-        <v>0.83117931269163692</v>
+        <v>0.83117863165054828</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -7232,22 +7232,22 @@
         <v>9</v>
       </c>
       <c r="AE14" s="2">
-        <v>258.11279999999999</v>
+        <v>258.26650000000001</v>
       </c>
       <c r="AF14" s="2">
-        <v>44.29081</v>
+        <v>44.590470000000003</v>
       </c>
       <c r="AG14" s="2">
-        <v>-44.290179999999999</v>
+        <v>-44.589829999999999</v>
       </c>
       <c r="AH14" s="2">
-        <v>-1.728463E-8</v>
+        <v>-1.7191449999999999E-8</v>
       </c>
       <c r="AI14" s="2">
-        <v>-2.0431620000000001</v>
+        <v>-2.0982989999999999</v>
       </c>
       <c r="AJ14" s="2">
-        <v>-2.0431439999999998</v>
+        <v>-2.0982810000000001</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
@@ -7280,15 +7280,15 @@
       </c>
       <c r="X15" s="5">
         <f t="shared" si="0"/>
-        <v>667.10649999999998</v>
+        <v>671.98019999999997</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>0.58063775236266157</v>
+        <v>0.58062444479315101</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="2"/>
-        <v>0.82936886227104067</v>
+        <v>0.82934730994723971</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -7297,22 +7297,22 @@
         <v>10</v>
       </c>
       <c r="AE15" s="2">
-        <v>667.10649999999998</v>
+        <v>671.98019999999997</v>
       </c>
       <c r="AF15" s="2">
-        <v>125.2513</v>
+        <v>126.3601</v>
       </c>
       <c r="AG15" s="2">
-        <v>6.1833660000000004</v>
+        <v>6.3694540000000002</v>
       </c>
       <c r="AH15" s="2">
-        <v>2.6168380000000002E-4</v>
+        <v>2.6248230000000002E-4</v>
       </c>
       <c r="AI15" s="2">
-        <v>1.8208150000000001</v>
+        <v>1.822201</v>
       </c>
       <c r="AJ15" s="2">
-        <v>-15.020759999999999</v>
+        <v>-15.18098</v>
       </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
@@ -7375,15 +7375,15 @@
       </c>
       <c r="X16" s="5">
         <f t="shared" si="0"/>
-        <v>667.10760000000005</v>
+        <v>671.98130000000003</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>0.58063774935910151</v>
+        <v>0.58062444178964201</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="2"/>
-        <v>0.82936885740659783</v>
+        <v>0.82934730508291143</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -7392,22 +7392,22 @@
         <v>11</v>
       </c>
       <c r="AE16" s="2">
-        <v>667.10760000000005</v>
+        <v>671.98130000000003</v>
       </c>
       <c r="AF16" s="2">
-        <v>6.1839940000000002</v>
+        <v>6.3700590000000004</v>
       </c>
       <c r="AG16" s="2">
-        <v>-125.25149999999999</v>
+        <v>-126.3603</v>
       </c>
       <c r="AH16" s="2">
-        <v>2.6170490000000001E-4</v>
+        <v>2.6250310000000001E-4</v>
       </c>
       <c r="AI16" s="2">
-        <v>-15.02079</v>
+        <v>-15.181010000000001</v>
       </c>
       <c r="AJ16" s="2">
-        <v>-1.820805</v>
+        <v>-1.8221909999999999</v>
       </c>
     </row>
     <row r="17" spans="3:36" x14ac:dyDescent="0.25">
@@ -7415,7 +7415,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="5">
-        <v>57300000</v>
+        <v>50700000</v>
       </c>
       <c r="E17">
         <v>1.1000000000000001</v>
@@ -7440,11 +7440,11 @@
       </c>
       <c r="L17" s="3">
         <f>(J17/PRODUCT(D17:H17))-1</f>
-        <v>3.7421556659581841</v>
+        <v>4.3594777053136857</v>
       </c>
       <c r="M17" s="3">
         <f>(K17/(PRODUCT(D17:G17)*I17))-1</f>
-        <v>3.903869730142933</v>
+        <v>4.5422433044810662</v>
       </c>
       <c r="P17">
         <v>12</v>
@@ -7472,15 +7472,15 @@
       </c>
       <c r="X17" s="5">
         <f t="shared" si="0"/>
-        <v>667.11689999999999</v>
+        <v>671.99069999999995</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>0.58063772396536861</v>
+        <v>0.5806244161232903</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="2"/>
-        <v>0.82936881627994508</v>
+        <v>0.82934726351501609</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -7489,22 +7489,22 @@
         <v>12</v>
       </c>
       <c r="AE17" s="2">
-        <v>667.11689999999999</v>
+        <v>671.99069999999995</v>
       </c>
       <c r="AF17" s="2">
-        <v>-6.1819860000000002</v>
+        <v>-6.368017</v>
       </c>
       <c r="AG17" s="2">
-        <v>-125.2547</v>
+        <v>-126.3635</v>
       </c>
       <c r="AH17" s="2">
-        <v>-2.6057629999999999E-4</v>
+        <v>-2.6135479999999999E-4</v>
       </c>
       <c r="AI17" s="2">
-        <v>-15.02093</v>
+        <v>-15.181150000000001</v>
       </c>
       <c r="AJ17" s="2">
-        <v>1.8206340000000001</v>
+        <v>1.8220190000000001</v>
       </c>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
@@ -7588,7 +7588,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="5">
-        <v>39300000</v>
+        <v>33900000</v>
       </c>
       <c r="E22">
         <v>1.1000000000000001</v>
@@ -7613,11 +7613,11 @@
       </c>
       <c r="L22" s="3">
         <f>(J22/PRODUCT(D22:H22))-1</f>
-        <v>5.9141353602901754</v>
+        <v>7.0155020548496712</v>
       </c>
       <c r="M22" s="3">
         <f>(K22/(PRODUCT(D22:G22)*I22))-1</f>
-        <v>6.1499169347885498</v>
+        <v>7.2888417562592931</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -7633,11 +7633,11 @@
       </c>
       <c r="T22" s="5">
         <f>ABS(AE6)</f>
-        <v>258.113</v>
+        <v>258.26679999999999</v>
       </c>
       <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>52.327221273043456</v>
+        <v>52.295464474911469</v>
       </c>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
@@ -7655,11 +7655,11 @@
       </c>
       <c r="T23" s="5">
         <f t="shared" ref="T23:T33" si="3">ABS(AE7)</f>
-        <v>667.11410000000001</v>
+        <v>671.98779999999999</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" ref="U23:U33" si="4">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>19.632825875587198</v>
+        <v>19.483182975121075</v>
       </c>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
@@ -7677,11 +7677,11 @@
       </c>
       <c r="T24" s="5">
         <f t="shared" si="3"/>
-        <v>667.10230000000001</v>
+        <v>671.97590000000002</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="4"/>
-        <v>19.633190838120427</v>
+        <v>19.48354571116176</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
@@ -7700,11 +7700,11 @@
       </c>
       <c r="T25" s="5">
         <f t="shared" si="3"/>
-        <v>258.11290000000002</v>
+        <v>258.26670000000001</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="4"/>
-        <v>52.327241933468123</v>
+        <v>52.29548511073655</v>
       </c>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
@@ -7725,11 +7725,11 @@
       </c>
       <c r="T26" s="5">
         <f t="shared" si="3"/>
-        <v>667.1037</v>
+        <v>671.97739999999999</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="4"/>
-        <v>19.633147536805843</v>
+        <v>19.48349998742378</v>
       </c>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
@@ -7780,11 +7780,11 @@
       </c>
       <c r="T27" s="5">
         <f t="shared" si="3"/>
-        <v>667.1182</v>
+        <v>671.99210000000005</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="4"/>
-        <v>19.632699069593762</v>
+        <v>19.483051905593925</v>
       </c>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
@@ -7792,7 +7792,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="5">
-        <v>1920000</v>
+        <v>1930000</v>
       </c>
       <c r="E28">
         <v>1.1000000000000001</v>
@@ -7817,11 +7817,11 @@
       </c>
       <c r="L28" s="3">
         <f>(J28/PRODUCT(D28:H28))-1</f>
-        <v>140.52370815593954</v>
+        <v>139.79042469399167</v>
       </c>
       <c r="M28" s="3">
         <f>(K28/(D28*E28*F28*G28*I28))-1</f>
-        <v>145.34986225895318</v>
+        <v>144.59157281719695</v>
       </c>
       <c r="P28">
         <v>7</v>
@@ -7837,11 +7837,11 @@
       </c>
       <c r="T28" s="5">
         <f t="shared" si="3"/>
-        <v>667.11289999999997</v>
+        <v>671.98659999999995</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="4"/>
-        <v>19.632862989831356</v>
+        <v>19.483219552962911</v>
       </c>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
@@ -7864,11 +7864,11 @@
       </c>
       <c r="T29" s="5">
         <f t="shared" si="3"/>
-        <v>258.11290000000002</v>
+        <v>258.26670000000001</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="4"/>
-        <v>52.327241933468123</v>
+        <v>52.29548511073655</v>
       </c>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
@@ -7889,11 +7889,11 @@
       </c>
       <c r="T30" s="5">
         <f t="shared" si="3"/>
-        <v>258.11279999999999</v>
+        <v>258.26650000000001</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="4"/>
-        <v>52.327262593908806</v>
+        <v>52.295526382434673</v>
       </c>
       <c r="W30" s="2"/>
     </row>
@@ -7945,11 +7945,11 @@
       </c>
       <c r="T31" s="5">
         <f t="shared" si="3"/>
-        <v>667.10649999999998</v>
+        <v>671.98019999999997</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="4"/>
-        <v>19.633060934721914</v>
+        <v>19.483414636992379</v>
       </c>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
@@ -7957,7 +7957,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="5">
-        <v>1360000</v>
+        <v>1370000</v>
       </c>
       <c r="E32">
         <v>1.1000000000000001</v>
@@ -7982,11 +7982,11 @@
       </c>
       <c r="L32" s="3">
         <f>(J32/PRODUCT(D32:H32))-1</f>
-        <v>198.79817622014991</v>
+        <v>197.33979537182768</v>
       </c>
       <c r="M32" s="3">
         <f>(K32/(PRODUCT(D32:G32)*I32))-1</f>
-        <v>205.61157024793386</v>
+        <v>204.10345659648908</v>
       </c>
       <c r="P32">
         <v>11</v>
@@ -8002,11 +8002,11 @@
       </c>
       <c r="T32" s="5">
         <f t="shared" si="3"/>
-        <v>667.10760000000005</v>
+        <v>671.98130000000003</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="4"/>
-        <v>19.63302691267355</v>
+        <v>19.483381106660353</v>
       </c>
     </row>
     <row r="33" spans="16:23" x14ac:dyDescent="0.25">
@@ -8024,11 +8024,11 @@
       </c>
       <c r="T33" s="5">
         <f t="shared" si="3"/>
-        <v>667.11689999999999</v>
+        <v>671.99069999999995</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="4"/>
-        <v>19.632739276203413</v>
+        <v>19.483094579209304</v>
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
@@ -8081,15 +8081,15 @@
       </c>
       <c r="U38" s="5">
         <f>ABS(AE6)</f>
-        <v>258.113</v>
+        <v>258.26679999999999</v>
       </c>
       <c r="V38" s="5">
         <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>62.638728943825164</v>
+        <v>63.062533393168565</v>
       </c>
       <c r="W38" s="4">
         <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
-        <v>28.632728854316991</v>
+        <v>28.433250365711036</v>
       </c>
     </row>
     <row r="39" spans="16:23" x14ac:dyDescent="0.25">
@@ -8110,15 +8110,15 @@
       </c>
       <c r="U39" s="5">
         <f t="shared" ref="U39:U49" si="5">ABS(AE7)</f>
-        <v>667.11410000000001</v>
+        <v>671.98779999999999</v>
       </c>
       <c r="V39" s="5">
         <f t="shared" ref="V39:V49" si="6">SQRT(AF7^2 + AG7^2)</f>
-        <v>125.40768304229044</v>
+        <v>126.52446793162808</v>
       </c>
       <c r="W39" s="4">
         <f t="shared" ref="W39:W49" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
-        <v>13.352773211500363</v>
+        <v>13.22079284324235</v>
       </c>
     </row>
     <row r="40" spans="16:23" x14ac:dyDescent="0.25">
@@ -8139,15 +8139,15 @@
       </c>
       <c r="U40" s="5">
         <f t="shared" si="5"/>
-        <v>667.10230000000001</v>
+        <v>671.97590000000002</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="6"/>
-        <v>125.40410470724251</v>
+        <v>126.52079132873774</v>
       </c>
       <c r="W40" s="4">
         <f t="shared" si="7"/>
-        <v>13.353195691200561</v>
+        <v>13.221219015158477</v>
       </c>
     </row>
     <row r="41" spans="16:23" x14ac:dyDescent="0.25">
@@ -8168,15 +8168,15 @@
       </c>
       <c r="U41" s="5">
         <f t="shared" si="5"/>
-        <v>258.11290000000002</v>
+        <v>258.26670000000001</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="6"/>
-        <v>62.637491506813234</v>
+        <v>63.061274742904622</v>
       </c>
       <c r="W41" s="4">
         <f t="shared" si="7"/>
-        <v>28.633314484064027</v>
+        <v>28.433838046682435</v>
       </c>
     </row>
     <row r="42" spans="16:23" x14ac:dyDescent="0.25">
@@ -8197,15 +8197,15 @@
       </c>
       <c r="U42" s="5">
         <f t="shared" si="5"/>
-        <v>667.1037</v>
+        <v>671.97739999999999</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="6"/>
-        <v>125.40435531529008</v>
+        <v>126.52104475595469</v>
       </c>
       <c r="W42" s="4">
         <f t="shared" si="7"/>
-        <v>13.35316547353915</v>
+        <v>13.221188900114603</v>
       </c>
     </row>
     <row r="43" spans="16:23" x14ac:dyDescent="0.25">
@@ -8226,15 +8226,15 @@
       </c>
       <c r="U43" s="5">
         <f t="shared" si="5"/>
-        <v>667.1182</v>
+        <v>671.99210000000005</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="6"/>
-        <v>125.4073092468992</v>
+        <v>126.52410242623628</v>
       </c>
       <c r="W43" s="4">
         <f t="shared" si="7"/>
-        <v>13.352811499087935</v>
+        <v>13.220829253961845</v>
       </c>
     </row>
     <row r="44" spans="16:23" x14ac:dyDescent="0.25">
@@ -8255,15 +8255,15 @@
       </c>
       <c r="U44" s="5">
         <f t="shared" si="5"/>
-        <v>667.11289999999997</v>
+        <v>671.98659999999995</v>
       </c>
       <c r="V44" s="5">
         <f t="shared" si="6"/>
-        <v>125.40734749373659</v>
+        <v>126.52413295154655</v>
       </c>
       <c r="W44" s="4">
         <f t="shared" si="7"/>
-        <v>13.352812929799807</v>
+        <v>13.220831797049161</v>
       </c>
     </row>
     <row r="45" spans="16:23" x14ac:dyDescent="0.25">
@@ -8284,15 +8284,15 @@
       </c>
       <c r="U45" s="5">
         <f t="shared" si="5"/>
-        <v>258.11290000000002</v>
+        <v>258.26670000000001</v>
       </c>
       <c r="V45" s="5">
         <f t="shared" si="6"/>
-        <v>62.637491517369206</v>
+        <v>63.061281824595035</v>
       </c>
       <c r="W45" s="4">
         <f t="shared" si="7"/>
-        <v>28.633314479070076</v>
+        <v>28.433834741305148</v>
       </c>
     </row>
     <row r="46" spans="16:23" x14ac:dyDescent="0.25">
@@ -8313,15 +8313,15 @@
       </c>
       <c r="U46" s="5">
         <f t="shared" si="5"/>
-        <v>258.11279999999999</v>
+        <v>258.26650000000001</v>
       </c>
       <c r="V46" s="5">
         <f t="shared" si="6"/>
-        <v>62.636218714801899</v>
+        <v>63.059994879874516</v>
       </c>
       <c r="W46" s="4">
         <f t="shared" si="7"/>
-        <v>28.633916863798557</v>
+        <v>28.434435870499836</v>
       </c>
     </row>
     <row r="47" spans="16:23" x14ac:dyDescent="0.25">
@@ -8342,15 +8342,15 @@
       </c>
       <c r="U47" s="5">
         <f t="shared" si="5"/>
-        <v>667.10649999999998</v>
+        <v>671.98019999999997</v>
       </c>
       <c r="V47" s="5">
         <f t="shared" si="6"/>
-        <v>125.40383633198769</v>
+        <v>126.52053120449708</v>
       </c>
       <c r="W47" s="4">
         <f t="shared" si="7"/>
-        <v>13.353221805573511</v>
+        <v>13.221243583036204</v>
       </c>
     </row>
     <row r="48" spans="16:23" x14ac:dyDescent="0.25">
@@ -8371,15 +8371,15 @@
       </c>
       <c r="U48" s="5">
         <f t="shared" si="5"/>
-        <v>667.10760000000005</v>
+        <v>671.98130000000003</v>
       </c>
       <c r="V48" s="5">
         <f t="shared" si="6"/>
-        <v>125.40406705542701</v>
+        <v>126.52076140994994</v>
       </c>
       <c r="W48" s="4">
         <f t="shared" si="7"/>
-        <v>13.35319419246486</v>
+        <v>13.221216512544299</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -8400,15 +8400,15 @@
       </c>
       <c r="U49" s="5">
         <f t="shared" si="5"/>
-        <v>667.11689999999999</v>
+        <v>671.99069999999995</v>
       </c>
       <c r="V49" s="5">
         <f t="shared" si="6"/>
-        <v>125.4071641613596</v>
+        <v>126.52385456016698</v>
       </c>
       <c r="W49" s="4">
         <f t="shared" si="7"/>
-        <v>13.352829528700189</v>
+        <v>13.220858633884408</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
@@ -8499,19 +8499,19 @@
       </c>
       <c r="Z54" s="5">
         <f>ABS(AE6)</f>
-        <v>258.113</v>
+        <v>258.26679999999999</v>
       </c>
       <c r="AA54" s="5">
         <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>62.638728943825164</v>
+        <v>63.062533393168565</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.58173600301523631</v>
+        <v>0.58173532045297338</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.83112062230657568</v>
+        <v>0.83111914407193965</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -8547,19 +8547,19 @@
       </c>
       <c r="Z55" s="5">
         <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)</f>
-        <v>667.11410000000001</v>
+        <v>671.98779999999999</v>
       </c>
       <c r="AA55" s="5">
         <f t="shared" ref="AA55:AA65" si="9">SQRT(AF7^2 + AG7^2)</f>
-        <v>125.40768304229044</v>
+        <v>126.52446793162808</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" ref="AB55:AB65" si="10">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.58056054175571603</v>
+        <v>0.58054585536488501</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" ref="AC55:AC65" si="11">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.82913431325365194</v>
+        <v>0.82910857476004285</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -8595,19 +8595,19 @@
       </c>
       <c r="Z56" s="5">
         <f t="shared" si="8"/>
-        <v>667.10230000000001</v>
+        <v>671.97590000000002</v>
       </c>
       <c r="AA56" s="5">
         <f t="shared" si="9"/>
-        <v>125.40410470724251</v>
+        <v>126.52079132873774</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="10"/>
-        <v>0.58056057837562802</v>
+        <v>0.58054589241830801</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="11"/>
-        <v>0.82913437879617535</v>
+        <v>0.82910864123230654</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -8643,19 +8643,19 @@
       </c>
       <c r="Z57" s="5">
         <f t="shared" si="8"/>
-        <v>258.11290000000002</v>
+        <v>258.26670000000001</v>
       </c>
       <c r="AA57" s="5">
         <f t="shared" si="9"/>
-        <v>62.637491506813234</v>
+        <v>63.061274742904622</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="10"/>
-        <v>0.58173600405116477</v>
+        <v>0.58173532150721918</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="11"/>
-        <v>0.83112062506833584</v>
+        <v>0.83111914688939881</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -8691,19 +8691,19 @@
       </c>
       <c r="Z58" s="5">
         <f t="shared" si="8"/>
-        <v>667.1037</v>
+        <v>671.97739999999999</v>
       </c>
       <c r="AA58" s="5">
         <f t="shared" si="9"/>
-        <v>125.40435531529008</v>
+        <v>126.52104475595469</v>
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="10"/>
-        <v>0.58056057424500218</v>
+        <v>0.58054588800851215</v>
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="11"/>
-        <v>0.82913437167036608</v>
+        <v>0.82910863364570786</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -8739,19 +8739,19 @@
       </c>
       <c r="Z59" s="5">
         <f t="shared" si="8"/>
-        <v>667.1182</v>
+        <v>671.99210000000005</v>
       </c>
       <c r="AA59" s="5">
         <f t="shared" si="9"/>
-        <v>125.4073092468992</v>
+        <v>126.52410242623628</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="10"/>
-        <v>0.58056053102238603</v>
+        <v>0.58054584407955101</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="11"/>
-        <v>0.82913429652726123</v>
+        <v>0.8291085571312411</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -8787,19 +8787,19 @@
       </c>
       <c r="Z60" s="5">
         <f t="shared" si="8"/>
-        <v>667.11289999999997</v>
+        <v>671.98659999999995</v>
       </c>
       <c r="AA60" s="5">
         <f t="shared" si="9"/>
-        <v>125.40734749373659</v>
+        <v>126.52413295154655</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="10"/>
-        <v>0.58056054544488345</v>
+        <v>0.58054585905694989</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="11"/>
-        <v>0.82913431981300101</v>
+        <v>0.8291085813282062</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -8835,19 +8835,19 @@
       </c>
       <c r="Z61" s="5">
         <f t="shared" si="8"/>
-        <v>258.11290000000002</v>
+        <v>258.26670000000001</v>
       </c>
       <c r="AA61" s="5">
         <f t="shared" si="9"/>
-        <v>62.637491517369206</v>
+        <v>63.061281824595035</v>
       </c>
       <c r="AB61" s="2">
         <f t="shared" si="10"/>
-        <v>0.58173600405115811</v>
+        <v>0.58173532150282625</v>
       </c>
       <c r="AC61" s="2">
         <f t="shared" si="11"/>
-        <v>0.83112062506831608</v>
+        <v>0.83111914687603949</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -8883,19 +8883,19 @@
       </c>
       <c r="Z62" s="5">
         <f t="shared" si="8"/>
-        <v>258.11279999999999</v>
+        <v>258.26650000000001</v>
       </c>
       <c r="AA62" s="5">
         <f t="shared" si="9"/>
-        <v>62.636218714801899</v>
+        <v>63.059994879874516</v>
       </c>
       <c r="AB62" s="2">
         <f t="shared" si="10"/>
-        <v>0.58173600510886248</v>
+        <v>0.58173532284803509</v>
       </c>
       <c r="AC62" s="2">
         <f t="shared" si="11"/>
-        <v>0.83112062789629548</v>
+        <v>0.83111915018988047</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -8931,19 +8931,19 @@
       </c>
       <c r="Z63" s="5">
         <f t="shared" si="8"/>
-        <v>667.10649999999998</v>
+        <v>671.98019999999997</v>
       </c>
       <c r="AA63" s="5">
         <f t="shared" si="9"/>
-        <v>125.40383633198769</v>
+        <v>126.52053120449708</v>
       </c>
       <c r="AB63" s="2">
         <f t="shared" si="10"/>
-        <v>0.58056056723951222</v>
+        <v>0.58054588100209603</v>
       </c>
       <c r="AC63" s="2">
         <f t="shared" si="11"/>
-        <v>0.82913436123350293</v>
+        <v>0.82910862320592837</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -8979,19 +8979,19 @@
       </c>
       <c r="Z64" s="5">
         <f t="shared" si="8"/>
-        <v>667.10760000000005</v>
+        <v>671.98130000000003</v>
       </c>
       <c r="AA64" s="5">
         <f t="shared" si="9"/>
-        <v>125.40406705542701</v>
+        <v>126.52076140994994</v>
       </c>
       <c r="AB64" s="2">
         <f t="shared" si="10"/>
-        <v>0.58056056395239586</v>
+        <v>0.58054587771316046</v>
       </c>
       <c r="AC64" s="2">
         <f t="shared" si="11"/>
-        <v>0.82913435550820536</v>
+        <v>0.82910861747508702</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -9027,19 +9027,19 @@
       </c>
       <c r="Z65" s="5">
         <f t="shared" si="8"/>
-        <v>667.11689999999999</v>
+        <v>671.99069999999995</v>
       </c>
       <c r="AA65" s="5">
         <f t="shared" si="9"/>
-        <v>125.4071641613596</v>
+        <v>126.52385456016698</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" si="10"/>
-        <v>0.58056053475011749</v>
+        <v>0.58054584820944299</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" si="11"/>
-        <v>0.82913430281645839</v>
+        <v>0.82910856425484414</v>
       </c>
     </row>
   </sheetData>
@@ -9113,8 +9113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29E2087-3134-4CBC-BDF3-11097EF74533}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9284,7 +9284,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="5">
-        <v>113000000</v>
+        <v>115000000</v>
       </c>
       <c r="E6">
         <v>1.1000000000000001</v>
@@ -9309,11 +9309,11 @@
       </c>
       <c r="L6" s="3">
         <f>(J6/PRODUCT(D6:H6))-1</f>
-        <v>1.4046506164549024</v>
+        <v>1.3628306057339477</v>
       </c>
       <c r="M6" s="3">
         <f>(K6/(E6*F6*G6*I6*D6))-1</f>
-        <v>1.4866525268777879</v>
+        <v>1.4434063959755656</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -9341,36 +9341,36 @@
       </c>
       <c r="X6" s="5">
         <f>AE22</f>
-        <v>1431.8501999999999</v>
+        <v>1434.5537999999999</v>
       </c>
       <c r="Y6" s="7">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.57855236778033814</v>
+        <v>0.57854500507693163</v>
       </c>
       <c r="Z6" s="7">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.82599323709666694</v>
+        <v>0.82598132534047286</v>
       </c>
       <c r="AD6">
         <v>1</v>
       </c>
       <c r="AE6" s="2">
-        <v>477.28339999999997</v>
+        <v>478.18459999999999</v>
       </c>
       <c r="AF6" s="2">
-        <v>279.82220000000001</v>
+        <v>281.15300000000002</v>
       </c>
       <c r="AG6" s="2">
-        <v>520.57730000000004</v>
+        <v>522.79409999999996</v>
       </c>
       <c r="AH6" s="2">
-        <v>3.4808220000000002E-3</v>
+        <v>3.4910869999999999E-3</v>
       </c>
       <c r="AI6" s="2">
-        <v>19.050260000000002</v>
+        <v>19.188559999999999</v>
       </c>
       <c r="AJ6" s="2">
-        <v>18.321660000000001</v>
+        <v>18.446829999999999</v>
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
@@ -9405,36 +9405,36 @@
       </c>
       <c r="X7" s="5">
         <f t="shared" ref="X7:X17" si="0">AE23</f>
-        <v>5543.5020000000004</v>
+        <v>5592.6149999999998</v>
       </c>
       <c r="Y7" s="7">
         <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.56743393756739868</v>
+        <v>0.56730207627628104</v>
       </c>
       <c r="Z7" s="7">
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.80805560395353249</v>
+        <v>0.80784347158910541</v>
       </c>
       <c r="AD7">
         <v>2</v>
       </c>
       <c r="AE7" s="2">
-        <v>1847.8340000000001</v>
+        <v>1864.2049999999999</v>
       </c>
       <c r="AF7" s="2">
-        <v>284.18599999999998</v>
+        <v>286.35739999999998</v>
       </c>
       <c r="AG7" s="2">
-        <v>553.82069999999999</v>
+        <v>554.84659999999997</v>
       </c>
       <c r="AH7" s="2">
-        <v>3.1896070000000001E-3</v>
+        <v>3.198785E-3</v>
       </c>
       <c r="AI7" s="2">
-        <v>56.97392</v>
+        <v>57.474240000000002</v>
       </c>
       <c r="AJ7" s="2">
-        <v>4.4511669999999999</v>
+        <v>4.45573</v>
       </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
@@ -9464,36 +9464,36 @@
       </c>
       <c r="X8" s="5">
         <f t="shared" si="0"/>
-        <v>5543.4030000000002</v>
+        <v>5592.5129999999999</v>
       </c>
       <c r="Y8" s="7">
         <f>((Q8*U8)/(R8+S8*X8*T8))-1</f>
-        <v>0.56743420339046646</v>
+        <v>0.56730235010851637</v>
       </c>
       <c r="Z8" s="7">
         <f t="shared" si="2"/>
-        <v>0.80805603161165407</v>
+        <v>0.80784391210318107</v>
       </c>
       <c r="AD8">
         <v>3</v>
       </c>
       <c r="AE8" s="2">
-        <v>1847.8009999999999</v>
+        <v>1864.171</v>
       </c>
       <c r="AF8" s="2">
-        <v>284.18770000000001</v>
+        <v>286.35899999999998</v>
       </c>
       <c r="AG8" s="2">
-        <v>553.81700000000001</v>
+        <v>554.84289999999999</v>
       </c>
       <c r="AH8" s="2">
-        <v>3.1913850000000001E-3</v>
+        <v>3.2005660000000002E-3</v>
       </c>
       <c r="AI8" s="2">
-        <v>56.973379999999999</v>
+        <v>57.473700000000001</v>
       </c>
       <c r="AJ8" s="2">
-        <v>4.4509869999999996</v>
+        <v>4.4555480000000003</v>
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
@@ -9526,36 +9526,36 @@
       </c>
       <c r="X9" s="5">
         <f t="shared" si="0"/>
-        <v>1431.8636999999999</v>
+        <v>1434.5676000000001</v>
       </c>
       <c r="Y9" s="7">
         <f t="shared" si="1"/>
-        <v>0.57855233101566994</v>
+        <v>0.57854496749562112</v>
       </c>
       <c r="Z9" s="7">
         <f t="shared" si="2"/>
-        <v>0.82599317761680568</v>
+        <v>0.8259812645396305</v>
       </c>
       <c r="AD9">
         <v>4</v>
       </c>
       <c r="AE9" s="2">
-        <v>477.28789999999998</v>
+        <v>478.18920000000003</v>
       </c>
       <c r="AF9" s="2">
-        <v>279.82769999999999</v>
+        <v>281.1585</v>
       </c>
       <c r="AG9" s="2">
-        <v>520.57270000000005</v>
+        <v>522.78959999999995</v>
       </c>
       <c r="AH9" s="2">
-        <v>3.4766860000000001E-3</v>
+        <v>3.4869409999999999E-3</v>
       </c>
       <c r="AI9" s="2">
-        <v>19.050360000000001</v>
+        <v>19.188669999999998</v>
       </c>
       <c r="AJ9" s="2">
-        <v>18.321840000000002</v>
+        <v>18.447009999999999</v>
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
@@ -9585,36 +9585,36 @@
       </c>
       <c r="X10" s="5">
         <f t="shared" si="0"/>
-        <v>2205.8631</v>
+        <v>2224.6469999999999</v>
       </c>
       <c r="Y10" s="7">
         <f t="shared" si="1"/>
-        <v>0.57644730255712484</v>
+        <v>0.5763962861894163</v>
       </c>
       <c r="Z10" s="7">
         <f t="shared" si="2"/>
-        <v>0.82258935855089232</v>
+        <v>0.82250691026269585</v>
       </c>
       <c r="AD10">
         <v>5</v>
       </c>
       <c r="AE10" s="2">
-        <v>735.28769999999997</v>
+        <v>741.54899999999998</v>
       </c>
       <c r="AF10" s="2">
-        <v>212.89949999999999</v>
+        <v>214.43969999999999</v>
       </c>
       <c r="AG10" s="2">
-        <v>1154.481</v>
+        <v>1164.1880000000001</v>
       </c>
       <c r="AH10" s="2">
-        <v>7.7330059999999997E-3</v>
+        <v>7.7921220000000003E-3</v>
       </c>
       <c r="AI10" s="2">
-        <v>8.4594930000000002</v>
+        <v>8.5342199999999995</v>
       </c>
       <c r="AJ10" s="2">
-        <v>25.785810000000001</v>
+        <v>26.005210000000002</v>
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
@@ -9647,36 +9647,36 @@
       </c>
       <c r="X11" s="5">
         <f t="shared" si="0"/>
-        <v>2205.8960999999999</v>
+        <v>2224.6803</v>
       </c>
       <c r="Y11" s="7">
         <f t="shared" si="1"/>
-        <v>0.57644721292746737</v>
+        <v>0.57639619575079748</v>
       </c>
       <c r="Z11" s="7">
         <f t="shared" si="2"/>
-        <v>0.82258921369724747</v>
+        <v>0.822506764105424</v>
       </c>
       <c r="AD11">
         <v>6</v>
       </c>
       <c r="AE11" s="2">
-        <v>735.29870000000005</v>
+        <v>741.56010000000003</v>
       </c>
       <c r="AF11" s="2">
-        <v>212.89349999999999</v>
+        <v>214.43379999999999</v>
       </c>
       <c r="AG11" s="2">
-        <v>1154.489</v>
+        <v>1164.1959999999999</v>
       </c>
       <c r="AH11" s="2">
-        <v>7.7287700000000003E-3</v>
+        <v>7.7878280000000001E-3</v>
       </c>
       <c r="AI11" s="2">
-        <v>8.4596540000000005</v>
+        <v>8.5343820000000008</v>
       </c>
       <c r="AJ11" s="2">
-        <v>25.786049999999999</v>
+        <v>26.005459999999999</v>
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
@@ -9739,36 +9739,36 @@
       </c>
       <c r="X12" s="5">
         <f t="shared" si="0"/>
-        <v>2205.8816999999999</v>
+        <v>2224.6646999999998</v>
       </c>
       <c r="Y12" s="7">
         <f t="shared" si="1"/>
-        <v>0.57644725203858926</v>
+        <v>0.57639623811843732</v>
       </c>
       <c r="Z12" s="7">
         <f t="shared" si="2"/>
-        <v>0.82258927690610806</v>
+        <v>0.82250683257549451</v>
       </c>
       <c r="AD12">
         <v>7</v>
       </c>
       <c r="AE12" s="2">
-        <v>735.29390000000001</v>
+        <v>741.55489999999998</v>
       </c>
       <c r="AF12" s="2">
-        <v>212.89609999999999</v>
+        <v>214.43620000000001</v>
       </c>
       <c r="AG12" s="2">
-        <v>1154.4749999999999</v>
+        <v>1164.182</v>
       </c>
       <c r="AH12" s="2">
-        <v>7.7287909999999996E-3</v>
+        <v>7.7878640000000002E-3</v>
       </c>
       <c r="AI12" s="2">
-        <v>8.4597510000000007</v>
+        <v>8.5344770000000008</v>
       </c>
       <c r="AJ12" s="2">
-        <v>25.786010000000001</v>
+        <v>26.005400000000002</v>
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
@@ -9776,7 +9776,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5">
-        <v>210000000</v>
+        <v>213000000</v>
       </c>
       <c r="E13">
         <v>1.1000000000000001</v>
@@ -9801,11 +9801,11 @@
       </c>
       <c r="L13" s="3">
         <f>(J13/PRODUCT(D13:H13))-1</f>
-        <v>0.2939310459971618</v>
+        <v>0.27570666506762431</v>
       </c>
       <c r="M13" s="3">
         <f>(K13/(D13*E13*F13*G13*I13))-1</f>
-        <v>0.33805588351042903</v>
+        <v>0.31921002599619763</v>
       </c>
       <c r="P13">
         <v>8</v>
@@ -9833,36 +9833,36 @@
       </c>
       <c r="X13" s="5">
         <f t="shared" si="0"/>
-        <v>1431.8654999999999</v>
+        <v>1434.5697</v>
       </c>
       <c r="Y13" s="7">
         <f t="shared" si="1"/>
-        <v>0.57855232611371421</v>
+        <v>0.57854496177672621</v>
       </c>
       <c r="Z13" s="7">
         <f t="shared" si="2"/>
-        <v>0.82599316968615799</v>
+        <v>0.82598125528732869</v>
       </c>
       <c r="AD13">
         <v>8</v>
       </c>
       <c r="AE13" s="2">
-        <v>477.2885</v>
+        <v>478.18990000000002</v>
       </c>
       <c r="AF13" s="2">
-        <v>279.82010000000002</v>
+        <v>281.1508</v>
       </c>
       <c r="AG13" s="2">
-        <v>520.57100000000003</v>
+        <v>522.78800000000001</v>
       </c>
       <c r="AH13" s="2">
-        <v>3.476884E-3</v>
+        <v>3.4871559999999999E-3</v>
       </c>
       <c r="AI13" s="2">
-        <v>19.05058</v>
+        <v>19.188870000000001</v>
       </c>
       <c r="AJ13" s="2">
-        <v>18.321899999999999</v>
+        <v>18.44707</v>
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
@@ -9897,36 +9897,36 @@
       </c>
       <c r="X14" s="5">
         <f t="shared" si="0"/>
-        <v>1431.8523</v>
+        <v>1434.5562</v>
       </c>
       <c r="Y14" s="7">
         <f t="shared" si="1"/>
-        <v>0.57855236206138949</v>
+        <v>0.57854499854105135</v>
       </c>
       <c r="Z14" s="7">
         <f t="shared" si="2"/>
-        <v>0.82599322784424367</v>
+        <v>0.82598131476641323</v>
       </c>
       <c r="AD14">
         <v>9</v>
       </c>
       <c r="AE14" s="2">
-        <v>477.28410000000002</v>
+        <v>478.18540000000002</v>
       </c>
       <c r="AF14" s="2">
-        <v>279.815</v>
+        <v>281.14569999999998</v>
       </c>
       <c r="AG14" s="2">
-        <v>520.577</v>
+        <v>522.79390000000001</v>
       </c>
       <c r="AH14" s="2">
-        <v>3.480805E-3</v>
+        <v>3.4910470000000002E-3</v>
       </c>
       <c r="AI14" s="2">
-        <v>19.050460000000001</v>
+        <v>19.188759999999998</v>
       </c>
       <c r="AJ14" s="2">
-        <v>18.321729999999999</v>
+        <v>18.44689</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
@@ -9959,36 +9959,36 @@
       </c>
       <c r="X15" s="5">
         <f t="shared" si="0"/>
-        <v>2205.8579999999997</v>
+        <v>2224.6410000000001</v>
       </c>
       <c r="Y15" s="7">
         <f t="shared" si="1"/>
-        <v>0.57644731640898184</v>
+        <v>0.57639630248466367</v>
       </c>
       <c r="Z15" s="7">
         <f t="shared" si="2"/>
-        <v>0.82258938093736678</v>
+        <v>0.82250693659734186</v>
       </c>
       <c r="AD15">
         <v>10</v>
       </c>
       <c r="AE15" s="2">
-        <v>735.28599999999994</v>
+        <v>741.54700000000003</v>
       </c>
       <c r="AF15" s="2">
-        <v>212.9016</v>
+        <v>214.4417</v>
       </c>
       <c r="AG15" s="2">
-        <v>1154.471</v>
+        <v>1164.1780000000001</v>
       </c>
       <c r="AH15" s="2">
-        <v>7.7329019999999998E-3</v>
+        <v>7.7919959999999998E-3</v>
       </c>
       <c r="AI15" s="2">
-        <v>8.4595889999999994</v>
+        <v>8.5343140000000002</v>
       </c>
       <c r="AJ15" s="2">
-        <v>25.785830000000001</v>
+        <v>26.005220000000001</v>
       </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
@@ -10051,36 +10051,36 @@
       </c>
       <c r="X16" s="5">
         <f t="shared" si="0"/>
-        <v>5543.5410000000002</v>
+        <v>5592.6509999999998</v>
       </c>
       <c r="Y16" s="7">
         <f t="shared" si="1"/>
-        <v>0.5674338328492452</v>
+        <v>0.5673019796296328</v>
       </c>
       <c r="Z16" s="7">
         <f t="shared" si="2"/>
-        <v>0.80805543548220693</v>
+        <v>0.8078433161136005</v>
       </c>
       <c r="AD16">
         <v>11</v>
       </c>
       <c r="AE16" s="2">
-        <v>1847.847</v>
+        <v>1864.2170000000001</v>
       </c>
       <c r="AF16" s="2">
-        <v>284.14760000000001</v>
+        <v>286.31900000000002</v>
       </c>
       <c r="AG16" s="2">
-        <v>553.81690000000003</v>
+        <v>554.84280000000001</v>
       </c>
       <c r="AH16" s="2">
-        <v>3.1912329999999999E-3</v>
+        <v>3.2003819999999999E-3</v>
       </c>
       <c r="AI16" s="2">
-        <v>56.974600000000002</v>
+        <v>57.474899999999998</v>
       </c>
       <c r="AJ16" s="2">
-        <v>4.4508520000000003</v>
+        <v>4.4554119999999999</v>
       </c>
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.25">
@@ -10088,7 +10088,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="5">
-        <v>210000000</v>
+        <v>213000000</v>
       </c>
       <c r="E17">
         <v>1.1000000000000001</v>
@@ -10113,11 +10113,11 @@
       </c>
       <c r="L17" s="3">
         <f>(J17/PRODUCT(D17:H17))-1</f>
-        <v>0.2939310459971618</v>
+        <v>0.27570666506762431</v>
       </c>
       <c r="M17" s="3">
         <f>(K17/(PRODUCT(D17:G17)*I17))-1</f>
-        <v>0.33805588351042903</v>
+        <v>0.31921002599619763</v>
       </c>
       <c r="P17">
         <v>12</v>
@@ -10145,36 +10145,36 @@
       </c>
       <c r="X17" s="5">
         <f t="shared" si="0"/>
-        <v>5543.6369999999997</v>
+        <v>5592.7470000000003</v>
       </c>
       <c r="Y17" s="7">
         <f t="shared" si="1"/>
-        <v>0.56743357508154246</v>
+        <v>0.56730172190529515</v>
       </c>
       <c r="Z17" s="7">
         <f t="shared" si="2"/>
-        <v>0.80805502078369318</v>
+        <v>0.80784290151238491</v>
       </c>
       <c r="AD17">
         <v>12</v>
       </c>
       <c r="AE17" s="2">
-        <v>1847.8789999999999</v>
+        <v>1864.249</v>
       </c>
       <c r="AF17" s="2">
-        <v>284.15030000000002</v>
+        <v>286.32159999999999</v>
       </c>
       <c r="AG17" s="2">
-        <v>553.82060000000001</v>
+        <v>554.84649999999999</v>
       </c>
       <c r="AH17" s="2">
-        <v>3.1894409999999999E-3</v>
+        <v>3.1986340000000001E-3</v>
       </c>
       <c r="AI17" s="2">
-        <v>56.975119999999997</v>
+        <v>57.47542</v>
       </c>
       <c r="AJ17" s="2">
-        <v>4.4510319999999997</v>
+        <v>4.4555949999999998</v>
       </c>
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.25">
@@ -10345,38 +10345,38 @@
       </c>
       <c r="T22" s="5">
         <f>AE22</f>
-        <v>1431.8501999999999</v>
+        <v>1434.5537999999999</v>
       </c>
       <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>8.6130510471340269</v>
+        <v>8.594934023700656</v>
       </c>
       <c r="AD22">
         <v>1</v>
       </c>
       <c r="AE22" s="2">
         <f>AE6*$AC$20</f>
-        <v>1431.8501999999999</v>
+        <v>1434.5537999999999</v>
       </c>
       <c r="AF22" s="2">
         <f t="shared" ref="AF22:AJ22" si="3">AF6*$AC$20</f>
-        <v>839.46659999999997</v>
+        <v>843.45900000000006</v>
       </c>
       <c r="AG22" s="2">
         <f t="shared" si="3"/>
-        <v>1561.7319000000002</v>
+        <v>1568.3822999999998</v>
       </c>
       <c r="AH22" s="2">
         <f t="shared" si="3"/>
-        <v>1.0442466000000001E-2</v>
+        <v>1.0473260999999999E-2</v>
       </c>
       <c r="AI22" s="2">
         <f t="shared" si="3"/>
-        <v>57.150780000000005</v>
+        <v>57.56568</v>
       </c>
       <c r="AJ22" s="2">
         <f t="shared" si="3"/>
-        <v>54.964980000000004</v>
+        <v>55.340489999999996</v>
       </c>
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.25">
@@ -10394,38 +10394,38 @@
       </c>
       <c r="T23" s="5">
         <f t="shared" ref="T23:T33" si="4">AE23</f>
-        <v>5543.5020000000004</v>
+        <v>5592.6149999999998</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" ref="U23:U33" si="5">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>1.4829880217323028</v>
+        <v>1.4611830180423762</v>
       </c>
       <c r="AD23">
         <v>2</v>
       </c>
       <c r="AE23" s="2">
         <f t="shared" ref="AE23:AJ23" si="6">AE7*$AC$20</f>
-        <v>5543.5020000000004</v>
+        <v>5592.6149999999998</v>
       </c>
       <c r="AF23" s="2">
         <f t="shared" si="6"/>
-        <v>852.55799999999999</v>
+        <v>859.07219999999995</v>
       </c>
       <c r="AG23" s="2">
         <f t="shared" si="6"/>
-        <v>1661.4621</v>
+        <v>1664.5398</v>
       </c>
       <c r="AH23" s="2">
         <f t="shared" si="6"/>
-        <v>9.5688209999999999E-3</v>
+        <v>9.5963550000000009E-3</v>
       </c>
       <c r="AI23" s="2">
         <f t="shared" si="6"/>
-        <v>170.92176000000001</v>
+        <v>172.42272</v>
       </c>
       <c r="AJ23" s="2">
         <f t="shared" si="6"/>
-        <v>13.353501</v>
+        <v>13.367190000000001</v>
       </c>
     </row>
     <row r="24" spans="3:37" x14ac:dyDescent="0.25">
@@ -10443,11 +10443,11 @@
       </c>
       <c r="T24" s="5">
         <f t="shared" si="4"/>
-        <v>5543.4030000000002</v>
+        <v>5592.5129999999999</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="5"/>
-        <v>1.4830323655792417</v>
+        <v>1.4612279067476579</v>
       </c>
       <c r="AC24" s="6"/>
       <c r="AD24">
@@ -10455,27 +10455,27 @@
       </c>
       <c r="AE24" s="2">
         <f t="shared" ref="AE24:AJ24" si="7">AE8*$AC$20</f>
-        <v>5543.4030000000002</v>
+        <v>5592.5129999999999</v>
       </c>
       <c r="AF24" s="2">
         <f t="shared" si="7"/>
-        <v>852.56310000000008</v>
+        <v>859.077</v>
       </c>
       <c r="AG24" s="2">
         <f t="shared" si="7"/>
-        <v>1661.451</v>
+        <v>1664.5286999999998</v>
       </c>
       <c r="AH24" s="2">
         <f t="shared" si="7"/>
-        <v>9.5741550000000009E-3</v>
+        <v>9.6016980000000005E-3</v>
       </c>
       <c r="AI24" s="2">
         <f t="shared" si="7"/>
-        <v>170.92014</v>
+        <v>172.4211</v>
       </c>
       <c r="AJ24" s="2">
         <f t="shared" si="7"/>
-        <v>13.352960999999999</v>
+        <v>13.366644000000001</v>
       </c>
     </row>
     <row r="25" spans="3:37" x14ac:dyDescent="0.25">
@@ -10493,38 +10493,38 @@
       </c>
       <c r="T25" s="5">
         <f t="shared" si="4"/>
-        <v>1431.8636999999999</v>
+        <v>1434.5676000000001</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="5"/>
-        <v>8.6129604126768946</v>
+        <v>8.594841724049159</v>
       </c>
       <c r="AD25">
         <v>4</v>
       </c>
       <c r="AE25" s="2">
         <f t="shared" ref="AE25:AJ25" si="8">AE9*$AC$20</f>
-        <v>1431.8636999999999</v>
+        <v>1434.5676000000001</v>
       </c>
       <c r="AF25" s="2">
         <f t="shared" si="8"/>
-        <v>839.48309999999992</v>
+        <v>843.47550000000001</v>
       </c>
       <c r="AG25" s="2">
         <f t="shared" si="8"/>
-        <v>1561.7181</v>
+        <v>1568.3687999999997</v>
       </c>
       <c r="AH25" s="2">
         <f t="shared" si="8"/>
-        <v>1.0430058000000001E-2</v>
+        <v>1.0460822999999999E-2</v>
       </c>
       <c r="AI25" s="2">
         <f t="shared" si="8"/>
-        <v>57.151080000000007</v>
+        <v>57.566009999999991</v>
       </c>
       <c r="AJ25" s="2">
         <f t="shared" si="8"/>
-        <v>54.965520000000005</v>
+        <v>55.341029999999996</v>
       </c>
     </row>
     <row r="26" spans="3:37" x14ac:dyDescent="0.25">
@@ -10545,38 +10545,38 @@
       </c>
       <c r="T26" s="5">
         <f t="shared" si="4"/>
-        <v>2205.8631</v>
+        <v>2224.6469999999999</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="5"/>
-        <v>5.239938038062772</v>
+        <v>5.1872508602259444</v>
       </c>
       <c r="AD26">
         <v>5</v>
       </c>
       <c r="AE26" s="2">
         <f t="shared" ref="AE26:AJ26" si="9">AE10*$AC$20</f>
-        <v>2205.8631</v>
+        <v>2224.6469999999999</v>
       </c>
       <c r="AF26" s="2">
         <f t="shared" si="9"/>
-        <v>638.69849999999997</v>
+        <v>643.31909999999993</v>
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="9"/>
-        <v>3463.4430000000002</v>
+        <v>3492.5640000000003</v>
       </c>
       <c r="AH26" s="2">
         <f t="shared" si="9"/>
-        <v>2.3199017999999998E-2</v>
+        <v>2.3376366000000003E-2</v>
       </c>
       <c r="AI26" s="2">
         <f t="shared" si="9"/>
-        <v>25.378478999999999</v>
+        <v>25.60266</v>
       </c>
       <c r="AJ26" s="2">
         <f t="shared" si="9"/>
-        <v>77.357430000000008</v>
+        <v>78.015630000000002</v>
       </c>
     </row>
     <row r="27" spans="3:37" x14ac:dyDescent="0.25">
@@ -10627,38 +10627,38 @@
       </c>
       <c r="T27" s="5">
         <f t="shared" si="4"/>
-        <v>2205.8960999999999</v>
+        <v>2224.6803</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="5"/>
-        <v>5.2398446891714734</v>
+        <v>5.1871582467148487</v>
       </c>
       <c r="AD27">
         <v>6</v>
       </c>
       <c r="AE27" s="2">
         <f t="shared" ref="AE27:AJ27" si="10">AE11*$AC$20</f>
-        <v>2205.8960999999999</v>
+        <v>2224.6803</v>
       </c>
       <c r="AF27" s="2">
         <f t="shared" si="10"/>
-        <v>638.68049999999994</v>
+        <v>643.30139999999994</v>
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="10"/>
-        <v>3463.4670000000001</v>
+        <v>3492.5879999999997</v>
       </c>
       <c r="AH27" s="2">
         <f t="shared" si="10"/>
-        <v>2.3186310000000002E-2</v>
+        <v>2.3363484E-2</v>
       </c>
       <c r="AI27" s="2">
         <f t="shared" si="10"/>
-        <v>25.378962000000001</v>
+        <v>25.603146000000002</v>
       </c>
       <c r="AJ27" s="2">
         <f t="shared" si="10"/>
-        <v>77.358149999999995</v>
+        <v>78.016379999999998</v>
       </c>
     </row>
     <row r="28" spans="3:37" x14ac:dyDescent="0.25">
@@ -10666,7 +10666,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="5">
-        <v>210000000</v>
+        <v>213000000</v>
       </c>
       <c r="E28">
         <v>1.1000000000000001</v>
@@ -10691,11 +10691,11 @@
       </c>
       <c r="L28" s="3">
         <f>(J28/PRODUCT(D28:H28))-1</f>
-        <v>0.2939310459971618</v>
+        <v>0.27570666506762431</v>
       </c>
       <c r="M28" s="3">
         <f>(K28/(D28*E28*F28*G28*I28))-1</f>
-        <v>0.33805588351042903</v>
+        <v>0.31921002599619763</v>
       </c>
       <c r="P28">
         <v>7</v>
@@ -10711,38 +10711,38 @@
       </c>
       <c r="T28" s="5">
         <f t="shared" si="4"/>
-        <v>2205.8816999999999</v>
+        <v>2224.6646999999998</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="5"/>
-        <v>5.2398854228896612</v>
+        <v>5.1872016328793569</v>
       </c>
       <c r="AD28">
         <v>7</v>
       </c>
       <c r="AE28" s="2">
         <f t="shared" ref="AE28:AJ28" si="11">AE12*$AC$20</f>
-        <v>2205.8816999999999</v>
+        <v>2224.6646999999998</v>
       </c>
       <c r="AF28" s="2">
         <f t="shared" si="11"/>
-        <v>638.68830000000003</v>
+        <v>643.30860000000007</v>
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="11"/>
-        <v>3463.4249999999997</v>
+        <v>3492.5460000000003</v>
       </c>
       <c r="AH28" s="2">
         <f t="shared" si="11"/>
-        <v>2.3186373E-2</v>
+        <v>2.3363592000000002E-2</v>
       </c>
       <c r="AI28" s="2">
         <f t="shared" si="11"/>
-        <v>25.379253000000002</v>
+        <v>25.603431</v>
       </c>
       <c r="AJ28" s="2">
         <f t="shared" si="11"/>
-        <v>77.358029999999999</v>
+        <v>78.016199999999998</v>
       </c>
     </row>
     <row r="29" spans="3:37" x14ac:dyDescent="0.25">
@@ -10765,38 +10765,38 @@
       </c>
       <c r="T29" s="5">
         <f t="shared" si="4"/>
-        <v>1431.8654999999999</v>
+        <v>1434.5697</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="5"/>
-        <v>8.6129483282117381</v>
+        <v>8.594827678605693</v>
       </c>
       <c r="AD29">
         <v>8</v>
       </c>
       <c r="AE29" s="2">
         <f t="shared" ref="AE29:AJ29" si="12">AE13*$AC$20</f>
-        <v>1431.8654999999999</v>
+        <v>1434.5697</v>
       </c>
       <c r="AF29" s="2">
         <f t="shared" si="12"/>
-        <v>839.46030000000007</v>
+        <v>843.45240000000001</v>
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="12"/>
-        <v>1561.7130000000002</v>
+        <v>1568.364</v>
       </c>
       <c r="AH29" s="2">
         <f t="shared" si="12"/>
-        <v>1.0430652E-2</v>
+        <v>1.0461468E-2</v>
       </c>
       <c r="AI29" s="2">
         <f t="shared" si="12"/>
-        <v>57.151740000000004</v>
+        <v>57.566610000000004</v>
       </c>
       <c r="AJ29" s="2">
         <f t="shared" si="12"/>
-        <v>54.965699999999998</v>
+        <v>55.341210000000004</v>
       </c>
     </row>
     <row r="30" spans="3:37" x14ac:dyDescent="0.25">
@@ -10817,11 +10817,11 @@
       </c>
       <c r="T30" s="5">
         <f t="shared" si="4"/>
-        <v>1431.8523</v>
+        <v>1434.5562</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="5"/>
-        <v>8.6130369483284444</v>
+        <v>8.5949179714597896</v>
       </c>
       <c r="W30" s="2"/>
       <c r="AD30">
@@ -10829,27 +10829,27 @@
       </c>
       <c r="AE30" s="2">
         <f t="shared" ref="AE30:AJ30" si="13">AE14*$AC$20</f>
-        <v>1431.8523</v>
+        <v>1434.5562</v>
       </c>
       <c r="AF30" s="2">
         <f t="shared" si="13"/>
-        <v>839.44499999999994</v>
+        <v>843.43709999999987</v>
       </c>
       <c r="AG30" s="2">
         <f t="shared" si="13"/>
-        <v>1561.731</v>
+        <v>1568.3816999999999</v>
       </c>
       <c r="AH30" s="2">
         <f t="shared" si="13"/>
-        <v>1.0442415E-2</v>
+        <v>1.0473141E-2</v>
       </c>
       <c r="AI30" s="2">
         <f t="shared" si="13"/>
-        <v>57.151380000000003</v>
+        <v>57.566279999999992</v>
       </c>
       <c r="AJ30" s="2">
         <f t="shared" si="13"/>
-        <v>54.965189999999993</v>
+        <v>55.340670000000003</v>
       </c>
     </row>
     <row r="31" spans="3:37" x14ac:dyDescent="0.25">
@@ -10900,38 +10900,38 @@
       </c>
       <c r="T31" s="5">
         <f t="shared" si="4"/>
-        <v>2205.8579999999997</v>
+        <v>2224.6410000000001</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="5"/>
-        <v>5.2399524649587894</v>
+        <v>5.1872675476398511</v>
       </c>
       <c r="AD31">
         <v>10</v>
       </c>
       <c r="AE31" s="2">
         <f t="shared" ref="AE31:AJ31" si="14">AE15*$AC$20</f>
-        <v>2205.8579999999997</v>
+        <v>2224.6410000000001</v>
       </c>
       <c r="AF31" s="2">
         <f t="shared" si="14"/>
-        <v>638.70479999999998</v>
+        <v>643.32510000000002</v>
       </c>
       <c r="AG31" s="2">
         <f t="shared" si="14"/>
-        <v>3463.413</v>
+        <v>3492.5340000000006</v>
       </c>
       <c r="AH31" s="2">
         <f t="shared" si="14"/>
-        <v>2.3198705999999999E-2</v>
+        <v>2.3375988E-2</v>
       </c>
       <c r="AI31" s="2">
         <f t="shared" si="14"/>
-        <v>25.378766999999996</v>
+        <v>25.602941999999999</v>
       </c>
       <c r="AJ31" s="2">
         <f t="shared" si="14"/>
-        <v>77.357489999999999</v>
+        <v>78.015659999999997</v>
       </c>
     </row>
     <row r="32" spans="3:37" x14ac:dyDescent="0.25">
@@ -10939,7 +10939,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="5">
-        <v>210000000</v>
+        <v>213000000</v>
       </c>
       <c r="E32">
         <v>1.1000000000000001</v>
@@ -10964,11 +10964,11 @@
       </c>
       <c r="L32" s="3">
         <f>(J32/PRODUCT(D32:H32))-1</f>
-        <v>0.2939310459971618</v>
+        <v>0.27570666506762431</v>
       </c>
       <c r="M32" s="3">
         <f>(K32/(PRODUCT(D32:G32)*I32))-1</f>
-        <v>0.33805588351042903</v>
+        <v>0.31921002599619763</v>
       </c>
       <c r="P32">
         <v>11</v>
@@ -10984,38 +10984,38 @@
       </c>
       <c r="T32" s="5">
         <f t="shared" si="4"/>
-        <v>5543.5410000000002</v>
+        <v>5592.6509999999998</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="5"/>
-        <v>1.4829705533789799</v>
+        <v>1.4611671753608557</v>
       </c>
       <c r="AD32">
         <v>11</v>
       </c>
       <c r="AE32" s="2">
         <f t="shared" ref="AE32:AJ32" si="15">AE16*$AC$20</f>
-        <v>5543.5410000000002</v>
+        <v>5592.6509999999998</v>
       </c>
       <c r="AF32" s="2">
         <f t="shared" si="15"/>
-        <v>852.44280000000003</v>
+        <v>858.95700000000011</v>
       </c>
       <c r="AG32" s="2">
         <f t="shared" si="15"/>
-        <v>1661.4507000000001</v>
+        <v>1664.5284000000001</v>
       </c>
       <c r="AH32" s="2">
         <f t="shared" si="15"/>
-        <v>9.5736989999999998E-3</v>
+        <v>9.6011459999999996E-3</v>
       </c>
       <c r="AI32" s="2">
         <f t="shared" si="15"/>
-        <v>170.9238</v>
+        <v>172.4247</v>
       </c>
       <c r="AJ32" s="2">
         <f t="shared" si="15"/>
-        <v>13.352556</v>
+        <v>13.366236000000001</v>
       </c>
     </row>
     <row r="33" spans="16:36" x14ac:dyDescent="0.25">
@@ -11033,38 +11033,38 @@
       </c>
       <c r="T33" s="5">
         <f t="shared" si="4"/>
-        <v>5543.6369999999997</v>
+        <v>5592.7470000000003</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="5"/>
-        <v>1.4829275554025392</v>
+        <v>1.4611249292072506</v>
       </c>
       <c r="AD33">
         <v>12</v>
       </c>
       <c r="AE33" s="2">
         <f t="shared" ref="AE33:AJ33" si="16">AE17*$AC$20</f>
-        <v>5543.6369999999997</v>
+        <v>5592.7470000000003</v>
       </c>
       <c r="AF33" s="2">
         <f t="shared" si="16"/>
-        <v>852.45090000000005</v>
+        <v>858.96479999999997</v>
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="16"/>
-        <v>1661.4618</v>
+        <v>1664.5394999999999</v>
       </c>
       <c r="AH33" s="2">
         <f t="shared" si="16"/>
-        <v>9.5683230000000001E-3</v>
+        <v>9.5959019999999999E-3</v>
       </c>
       <c r="AI33" s="2">
         <f t="shared" si="16"/>
-        <v>170.92535999999998</v>
+        <v>172.42626000000001</v>
       </c>
       <c r="AJ33" s="2">
         <f t="shared" si="16"/>
-        <v>13.353095999999999</v>
+        <v>13.366785</v>
       </c>
     </row>
     <row r="36" spans="16:36" x14ac:dyDescent="0.25">
@@ -11117,15 +11117,15 @@
       </c>
       <c r="U38" s="5">
         <f>AE22</f>
-        <v>1431.8501999999999</v>
+        <v>1434.5537999999999</v>
       </c>
       <c r="V38" s="5">
         <f>SQRT(AF22^2 + AG22^2)</f>
-        <v>1773.0512400923924</v>
+        <v>1780.7992934730992</v>
       </c>
       <c r="W38" s="4">
         <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
-        <v>-4.4104645360085737E-2</v>
+        <v>-4.8472279684931285E-2</v>
       </c>
     </row>
     <row r="39" spans="16:36" x14ac:dyDescent="0.25">
@@ -11146,15 +11146,15 @@
       </c>
       <c r="U39" s="5">
         <f t="shared" ref="U39:U49" si="17">AE23</f>
-        <v>5543.5020000000004</v>
+        <v>5592.6149999999998</v>
       </c>
       <c r="V39" s="5">
         <f t="shared" ref="V39:V49" si="18">SQRT(AF23^2 + AG23^2)</f>
-        <v>1867.4344575112696</v>
+        <v>1873.1518333004615</v>
       </c>
       <c r="W39" s="4">
         <f t="shared" ref="W39:W49" si="19">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
-        <v>-0.39500258961547796</v>
+        <v>-0.40045250926093479</v>
       </c>
     </row>
     <row r="40" spans="16:36" x14ac:dyDescent="0.25">
@@ -11175,15 +11175,15 @@
       </c>
       <c r="U40" s="5">
         <f t="shared" si="17"/>
-        <v>5543.4030000000002</v>
+        <v>5592.5129999999999</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="18"/>
-        <v>1867.4269101848699</v>
+        <v>1873.1441709202977</v>
       </c>
       <c r="W40" s="4">
         <f t="shared" si="19"/>
-        <v>-0.39499285882419533</v>
+        <v>-0.40044257319975229</v>
       </c>
     </row>
     <row r="41" spans="16:36" x14ac:dyDescent="0.25">
@@ -11204,15 +11204,15 @@
       </c>
       <c r="U41" s="5">
         <f t="shared" si="17"/>
-        <v>1431.8636999999999</v>
+        <v>1434.5676000000001</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="18"/>
-        <v>1773.0468970259135</v>
+        <v>1780.7952189720438</v>
       </c>
       <c r="W41" s="4">
         <f t="shared" si="19"/>
-        <v>-4.4103350283592357E-2</v>
+        <v>-4.8471167548963079E-2</v>
       </c>
     </row>
     <row r="42" spans="16:36" x14ac:dyDescent="0.25">
@@ -11233,15 +11233,15 @@
       </c>
       <c r="U42" s="5">
         <f t="shared" si="17"/>
-        <v>2205.8631</v>
+        <v>2224.6469999999999</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="18"/>
-        <v>3521.8423002955783</v>
+        <v>3551.3184535494438</v>
       </c>
       <c r="W42" s="4">
         <f t="shared" si="19"/>
-        <v>-0.54896334889973508</v>
+        <v>-0.55343387729685212</v>
       </c>
     </row>
     <row r="43" spans="16:36" x14ac:dyDescent="0.25">
@@ -11262,15 +11262,15 @@
       </c>
       <c r="U43" s="5">
         <f t="shared" si="17"/>
-        <v>2205.8960999999999</v>
+        <v>2224.6803</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="18"/>
-        <v>3521.8626380325013</v>
+        <v>3551.3388502064904</v>
       </c>
       <c r="W43" s="4">
         <f t="shared" si="19"/>
-        <v>-0.54896724121724383</v>
+        <v>-0.55343773072454772</v>
       </c>
     </row>
     <row r="44" spans="16:36" x14ac:dyDescent="0.25">
@@ -11291,15 +11291,15 @@
       </c>
       <c r="U44" s="5">
         <f t="shared" si="17"/>
-        <v>2205.8816999999999</v>
+        <v>2224.6646999999998</v>
       </c>
       <c r="V44" s="5">
         <f t="shared" si="18"/>
-        <v>3521.8227489727374</v>
+        <v>3551.2988492873933</v>
       </c>
       <c r="W44" s="4">
         <f t="shared" si="19"/>
-        <v>-0.54896157078874053</v>
+        <v>-0.5534320970711244</v>
       </c>
     </row>
     <row r="45" spans="16:36" x14ac:dyDescent="0.25">
@@ -11320,15 +11320,15 @@
       </c>
       <c r="U45" s="5">
         <f t="shared" si="17"/>
-        <v>1431.8654999999999</v>
+        <v>1434.5697</v>
       </c>
       <c r="V45" s="5">
         <f t="shared" si="18"/>
-        <v>1773.0316098832222</v>
+        <v>1780.7800503042929</v>
       </c>
       <c r="W45" s="4">
         <f t="shared" si="19"/>
-        <v>-4.4095248026997713E-2</v>
+        <v>-4.8463224499111335E-2</v>
       </c>
     </row>
     <row r="46" spans="16:36" x14ac:dyDescent="0.25">
@@ -11349,15 +11349,15 @@
       </c>
       <c r="U46" s="5">
         <f t="shared" si="17"/>
-        <v>1431.8523</v>
+        <v>1434.5562</v>
       </c>
       <c r="V46" s="5">
         <f t="shared" si="18"/>
-        <v>1773.0402207468392</v>
+        <v>1780.7883924125572</v>
       </c>
       <c r="W46" s="4">
         <f t="shared" si="19"/>
-        <v>-4.4098867295321087E-2</v>
+        <v>-4.846664014193014E-2</v>
       </c>
     </row>
     <row r="47" spans="16:36" x14ac:dyDescent="0.25">
@@ -11378,15 +11378,15 @@
       </c>
       <c r="U47" s="5">
         <f t="shared" si="17"/>
-        <v>2205.8579999999997</v>
+        <v>2224.6410000000001</v>
       </c>
       <c r="V47" s="5">
         <f t="shared" si="18"/>
-        <v>3521.8139403029286</v>
+        <v>3551.2900367959269</v>
       </c>
       <c r="W47" s="4">
         <f t="shared" si="19"/>
-        <v>-0.54895951783936303</v>
+        <v>-0.55343007176964187</v>
       </c>
     </row>
     <row r="48" spans="16:36" x14ac:dyDescent="0.25">
@@ -11407,15 +11407,15 @@
       </c>
       <c r="U48" s="5">
         <f t="shared" si="17"/>
-        <v>5543.5410000000002</v>
+        <v>5592.6509999999998</v>
       </c>
       <c r="V48" s="5">
         <f t="shared" si="18"/>
-        <v>1867.3717240555857</v>
+        <v>1873.0888719587122</v>
       </c>
       <c r="W48" s="4">
         <f t="shared" si="19"/>
-        <v>-0.3949851352096263</v>
+        <v>-0.40043499760605328</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -11436,15 +11436,15 @@
       </c>
       <c r="U49" s="5">
         <f t="shared" si="17"/>
-        <v>5543.6369999999997</v>
+        <v>5592.7470000000003</v>
       </c>
       <c r="V49" s="5">
         <f t="shared" si="18"/>
-        <v>1867.3852976207268</v>
+        <v>1873.1023129288185</v>
       </c>
       <c r="W49" s="4">
         <f t="shared" si="19"/>
-        <v>-0.3949965979492992</v>
+        <v>-0.40044634342415664</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
@@ -11535,19 +11535,19 @@
       </c>
       <c r="Z54" s="5">
         <f>AE22</f>
-        <v>1431.8501999999999</v>
+        <v>1434.5537999999999</v>
       </c>
       <c r="AA54" s="5">
         <f>SQRT(AF22^2 + AG22^2)</f>
-        <v>1773.0512400923924</v>
+        <v>1780.7992934730992</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.56340352827607476</v>
+        <v>0.56326561058451352</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.78107888189569108</v>
+        <v>0.78068895147246953</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -11583,19 +11583,19 @@
       </c>
       <c r="Z55" s="5">
         <f t="shared" ref="Z55:Z65" si="20">AE23</f>
-        <v>5543.5020000000004</v>
+        <v>5592.6149999999998</v>
       </c>
       <c r="AA55" s="5">
         <f t="shared" ref="AA55:AA65" si="21">SQRT(AF23^2 + AG23^2)</f>
-        <v>1867.4344575112696</v>
+        <v>1873.1518333004615</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" ref="AB55:AB65" si="22">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.55100404628262045</v>
+        <v>0.55077714237806363</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" ref="AC55:AC65" si="23">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.75984067124127885</v>
+        <v>0.75936126115301628</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -11631,19 +11631,19 @@
       </c>
       <c r="Z56" s="5">
         <f t="shared" si="20"/>
-        <v>5543.4030000000002</v>
+        <v>5592.5129999999999</v>
       </c>
       <c r="AA56" s="5">
         <f t="shared" si="21"/>
-        <v>1867.4269101848699</v>
+        <v>1873.1441709202977</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="22"/>
-        <v>0.55100443455732351</v>
+        <v>0.55077754070392082</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="23"/>
-        <v>0.7598414398659521</v>
+        <v>0.75936204800087426</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -11679,19 +11679,19 @@
       </c>
       <c r="Z57" s="5">
         <f t="shared" si="20"/>
-        <v>1431.8636999999999</v>
+        <v>1434.5676000000001</v>
       </c>
       <c r="AA57" s="5">
         <f t="shared" si="21"/>
-        <v>1773.0468970259135</v>
+        <v>1780.7952189720438</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="22"/>
-        <v>0.56340356570853656</v>
+        <v>0.56326564299106496</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="23"/>
-        <v>0.78107903868013095</v>
+        <v>0.78068909469638181</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -11727,19 +11727,19 @@
       </c>
       <c r="Z58" s="5">
         <f t="shared" si="20"/>
-        <v>2205.8631</v>
+        <v>2224.6469999999999</v>
       </c>
       <c r="AA58" s="5">
         <f t="shared" si="21"/>
-        <v>3521.8423002955783</v>
+        <v>3551.3184535494438</v>
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="22"/>
-        <v>0.51931229175222615</v>
+        <v>0.51835871187550486</v>
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="23"/>
-        <v>0.66327084729980323</v>
+        <v>0.66087626886558737</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -11775,19 +11775,19 @@
       </c>
       <c r="Z59" s="5">
         <f t="shared" si="20"/>
-        <v>2205.8960999999999</v>
+        <v>2224.6803</v>
       </c>
       <c r="AA59" s="5">
         <f t="shared" si="21"/>
-        <v>3521.8626380325013</v>
+        <v>3551.3388502064904</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="22"/>
-        <v>0.51931158707808889</v>
+        <v>0.51835800075955119</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="23"/>
-        <v>0.66326913139649069</v>
+        <v>0.6608745413083974</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -11823,19 +11823,19 @@
       </c>
       <c r="Z60" s="5">
         <f t="shared" si="20"/>
-        <v>2205.8816999999999</v>
+        <v>2224.6646999999998</v>
       </c>
       <c r="AA60" s="5">
         <f t="shared" si="21"/>
-        <v>3521.8227489727374</v>
+        <v>3551.2988492873933</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="22"/>
-        <v>0.51931284682235401</v>
+        <v>0.51835927473447052</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="23"/>
-        <v>0.66327232896346433</v>
+        <v>0.66087776418718591</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -11871,19 +11871,19 @@
       </c>
       <c r="Z61" s="5">
         <f t="shared" si="20"/>
-        <v>1431.8654999999999</v>
+        <v>1434.5697</v>
       </c>
       <c r="AA61" s="5">
         <f t="shared" si="21"/>
-        <v>1773.0316098832222</v>
+        <v>1780.7800503042929</v>
       </c>
       <c r="AB61" s="2">
         <f t="shared" si="22"/>
-        <v>0.56340381842118736</v>
+        <v>0.56326589396460958</v>
       </c>
       <c r="AC61" s="2">
         <f t="shared" si="23"/>
-        <v>0.78107977747240454</v>
+        <v>0.78068982923215469</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -11919,19 +11919,19 @@
       </c>
       <c r="Z62" s="5">
         <f t="shared" si="20"/>
-        <v>1431.8523</v>
+        <v>1434.5562</v>
       </c>
       <c r="AA62" s="5">
         <f t="shared" si="21"/>
-        <v>1773.0402207468392</v>
+        <v>1780.7883924125572</v>
       </c>
       <c r="AB62" s="2">
         <f t="shared" si="22"/>
-        <v>0.56340370831499276</v>
+        <v>0.56326578859268883</v>
       </c>
       <c r="AC62" s="2">
         <f t="shared" si="23"/>
-        <v>0.78107941115565249</v>
+        <v>0.78068947571300296</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -11967,19 +11967,19 @@
       </c>
       <c r="Z63" s="5">
         <f t="shared" si="20"/>
-        <v>2205.8579999999997</v>
+        <v>2224.6410000000001</v>
       </c>
       <c r="AA63" s="5">
         <f t="shared" si="21"/>
-        <v>3521.8139403029286</v>
+        <v>3551.2900367959269</v>
       </c>
       <c r="AB63" s="2">
         <f t="shared" si="22"/>
-        <v>0.51931317489998641</v>
+        <v>0.51835960457404728</v>
       </c>
       <c r="AC63" s="2">
         <f t="shared" si="23"/>
-        <v>0.66327310353442193</v>
+        <v>0.66087854152007308</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -12015,19 +12015,19 @@
       </c>
       <c r="Z64" s="5">
         <f t="shared" si="20"/>
-        <v>5543.5410000000002</v>
+        <v>5592.6509999999998</v>
       </c>
       <c r="AA64" s="5">
         <f t="shared" si="21"/>
-        <v>1867.3717240555857</v>
+        <v>1873.0888719587122</v>
       </c>
       <c r="AB64" s="2">
         <f t="shared" si="22"/>
-        <v>0.55100503138166457</v>
+        <v>0.55077814212067988</v>
       </c>
       <c r="AC64" s="2">
         <f t="shared" si="23"/>
-        <v>0.75984362682804596</v>
+        <v>0.75936424709135664</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -12063,19 +12063,19 @@
       </c>
       <c r="Z65" s="5">
         <f t="shared" si="20"/>
-        <v>5543.6369999999997</v>
+        <v>5592.7470000000003</v>
       </c>
       <c r="AA65" s="5">
         <f t="shared" si="21"/>
-        <v>1867.3852976207268</v>
+        <v>1873.1023129288185</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" si="22"/>
-        <v>0.55100454654013853</v>
+        <v>0.55077765905402698</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" si="23"/>
-        <v>0.75984257132478139</v>
+        <v>0.75936319693654175</v>
       </c>
     </row>
   </sheetData>
@@ -12150,8 +12150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6299180F-B9DC-4F73-90FF-4FF4CF35D475}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12321,7 +12321,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="5">
-        <v>70900000</v>
+        <v>78600000</v>
       </c>
       <c r="E6">
         <v>1.1000000000000001</v>
@@ -12346,11 +12346,11 @@
       </c>
       <c r="L6" s="3">
         <f>(J6/PRODUCT(D6:H6))-1</f>
-        <v>2.832517907748997</v>
+        <v>2.4570676801450877</v>
       </c>
       <c r="M6" s="3">
         <f>(K6/(E6*F6*G6*I6*D6))-1</f>
-        <v>2.9632120668150925</v>
+        <v>2.5749584673942758</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -12378,36 +12378,36 @@
       </c>
       <c r="X6" s="5">
         <f>AE22</f>
-        <v>1482.9837</v>
+        <v>1616.2065</v>
       </c>
       <c r="Y6" s="7">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.57841312775145681</v>
+        <v>0.57805046827032625</v>
       </c>
       <c r="Z6" s="7">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.82576797499487786</v>
+        <v>0.82518133992254228</v>
       </c>
       <c r="AD6">
         <v>1</v>
       </c>
       <c r="AE6" s="2">
-        <v>494.3279</v>
+        <v>538.7355</v>
       </c>
       <c r="AF6" s="2">
-        <v>52.867080000000001</v>
+        <v>54.657649999999997</v>
       </c>
       <c r="AG6" s="2">
-        <v>52.86056</v>
+        <v>54.651339999999998</v>
       </c>
       <c r="AH6" s="2">
-        <v>1.131045E-6</v>
+        <v>1.1651089999999999E-6</v>
       </c>
       <c r="AI6" s="2">
-        <v>10.560309999999999</v>
+        <v>12.267799999999999</v>
       </c>
       <c r="AJ6" s="2">
-        <v>10.5603</v>
+        <v>12.26778</v>
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
@@ -12442,36 +12442,36 @@
       </c>
       <c r="X7" s="5">
         <f t="shared" ref="X7:X17" si="0">AE23</f>
-        <v>2203.6449000000002</v>
+        <v>2199.5192999999999</v>
       </c>
       <c r="Y7" s="7">
         <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.57645332732310273</v>
+        <v>0.57646453282584731</v>
       </c>
       <c r="Z7" s="7">
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.8225990954023219</v>
+        <v>0.82261720511650593</v>
       </c>
       <c r="AD7">
         <v>2</v>
       </c>
       <c r="AE7" s="2">
-        <v>734.54830000000004</v>
+        <v>733.17309999999998</v>
       </c>
       <c r="AF7" s="2">
-        <v>10.56025</v>
+        <v>12.23687</v>
       </c>
       <c r="AG7" s="2">
-        <v>147.04849999999999</v>
+        <v>152.2268</v>
       </c>
       <c r="AH7" s="2">
-        <v>5.1840990000000004E-4</v>
+        <v>5.9239730000000003E-4</v>
       </c>
       <c r="AI7" s="2">
-        <v>20.10352</v>
+        <v>21.53267</v>
       </c>
       <c r="AJ7" s="2">
-        <v>4.5082550000000001</v>
+        <v>5.0451959999999998</v>
       </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
@@ -12501,36 +12501,36 @@
       </c>
       <c r="X8" s="5">
         <f t="shared" si="0"/>
-        <v>2203.5579000000002</v>
+        <v>2199.4358999999999</v>
       </c>
       <c r="Y8" s="7">
         <f>((Q8*U8)/(R8+S8*X8*T8))-1</f>
-        <v>0.57645356362132727</v>
+        <v>0.57646475934943298</v>
       </c>
       <c r="Z8" s="7">
         <f t="shared" si="2"/>
-        <v>0.82259947729339444</v>
+        <v>0.82261757121246126</v>
       </c>
       <c r="AD8">
         <v>3</v>
       </c>
       <c r="AE8" s="2">
-        <v>734.51930000000004</v>
+        <v>733.14530000000002</v>
       </c>
       <c r="AF8" s="2">
-        <v>10.52632</v>
+        <v>12.212680000000001</v>
       </c>
       <c r="AG8" s="2">
-        <v>147.0393</v>
+        <v>152.21860000000001</v>
       </c>
       <c r="AH8" s="2">
-        <v>5.1801989999999997E-4</v>
+        <v>5.9131240000000001E-4</v>
       </c>
       <c r="AI8" s="2">
-        <v>20.102689999999999</v>
+        <v>21.531929999999999</v>
       </c>
       <c r="AJ8" s="2">
-        <v>4.5083209999999996</v>
+        <v>5.0452500000000002</v>
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
@@ -12563,36 +12563,36 @@
       </c>
       <c r="X9" s="5">
         <f t="shared" si="0"/>
-        <v>1482.9828</v>
+        <v>1616.2055999999998</v>
       </c>
       <c r="Y9" s="7">
         <f t="shared" si="1"/>
-        <v>0.57841313020200258</v>
+        <v>0.57805047071974558</v>
       </c>
       <c r="Z9" s="7">
         <f t="shared" si="2"/>
-        <v>0.8257679789592236</v>
+        <v>0.82518134388434095</v>
       </c>
       <c r="AD9">
         <v>4</v>
       </c>
       <c r="AE9" s="2">
-        <v>494.32760000000002</v>
+        <v>538.73519999999996</v>
       </c>
       <c r="AF9" s="2">
-        <v>52.869729999999997</v>
+        <v>54.659849999999999</v>
       </c>
       <c r="AG9" s="2">
-        <v>52.85915</v>
+        <v>54.649990000000003</v>
       </c>
       <c r="AH9" s="2">
-        <v>1.0522090000000001E-6</v>
+        <v>1.1025790000000001E-6</v>
       </c>
       <c r="AI9" s="2">
-        <v>10.56005</v>
+        <v>12.267580000000001</v>
       </c>
       <c r="AJ9" s="2">
-        <v>10.56006</v>
+        <v>12.26759</v>
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
@@ -12622,36 +12622,36 @@
       </c>
       <c r="X10" s="5">
         <f t="shared" si="0"/>
-        <v>2203.5992999999999</v>
+        <v>2199.4719</v>
       </c>
       <c r="Y10" s="7">
         <f t="shared" si="1"/>
-        <v>0.57645345117595648</v>
+        <v>0.57646466156945997</v>
       </c>
       <c r="Z10" s="7">
         <f t="shared" si="2"/>
-        <v>0.82259929556589872</v>
+        <v>0.82261741318541226</v>
       </c>
       <c r="AD10">
         <v>5</v>
       </c>
       <c r="AE10" s="2">
-        <v>734.53309999999999</v>
+        <v>733.15729999999996</v>
       </c>
       <c r="AF10" s="2">
-        <v>147.04400000000001</v>
+        <v>152.22280000000001</v>
       </c>
       <c r="AG10" s="2">
-        <v>10.55264</v>
+        <v>12.235950000000001</v>
       </c>
       <c r="AH10" s="2">
-        <v>5.1807709999999996E-4</v>
+        <v>5.9137350000000003E-4</v>
       </c>
       <c r="AI10" s="2">
-        <v>4.5083120000000001</v>
+        <v>5.0452490000000001</v>
       </c>
       <c r="AJ10" s="2">
-        <v>20.103249999999999</v>
+        <v>21.532389999999999</v>
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
@@ -12684,36 +12684,36 @@
       </c>
       <c r="X11" s="5">
         <f t="shared" si="0"/>
-        <v>2203.5398999999998</v>
+        <v>2199.4221000000002</v>
       </c>
       <c r="Y11" s="7">
         <f t="shared" si="1"/>
-        <v>0.5764536125106241</v>
+        <v>0.57646479683175933</v>
       </c>
       <c r="Z11" s="7">
         <f t="shared" si="2"/>
-        <v>0.82259955630536075</v>
+        <v>0.8226176317895042</v>
       </c>
       <c r="AD11">
         <v>6</v>
       </c>
       <c r="AE11" s="2">
-        <v>734.51329999999996</v>
+        <v>733.14070000000004</v>
       </c>
       <c r="AF11" s="2">
-        <v>147.04499999999999</v>
+        <v>152.2234</v>
       </c>
       <c r="AG11" s="2">
-        <v>10.57307</v>
+        <v>12.24836</v>
       </c>
       <c r="AH11" s="2">
-        <v>5.1830910000000003E-4</v>
+        <v>5.9232619999999997E-4</v>
       </c>
       <c r="AI11" s="2">
-        <v>4.5082550000000001</v>
+        <v>5.0451899999999998</v>
       </c>
       <c r="AJ11" s="2">
-        <v>20.102209999999999</v>
+        <v>21.53153</v>
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
@@ -12776,36 +12776,36 @@
       </c>
       <c r="X12" s="5">
         <f t="shared" si="0"/>
-        <v>2203.5765000000001</v>
+        <v>2199.4506000000001</v>
       </c>
       <c r="Y12" s="7">
         <f t="shared" si="1"/>
-        <v>0.57645351310239068</v>
+        <v>0.57646471942260913</v>
       </c>
       <c r="Z12" s="7">
         <f t="shared" si="2"/>
-        <v>0.82259939564770357</v>
+        <v>0.82261750668474654</v>
       </c>
       <c r="AD12">
         <v>7</v>
       </c>
       <c r="AE12" s="2">
-        <v>734.52549999999997</v>
+        <v>733.15020000000004</v>
       </c>
       <c r="AF12" s="2">
-        <v>147.04239999999999</v>
+        <v>152.221</v>
       </c>
       <c r="AG12" s="2">
-        <v>10.535550000000001</v>
+        <v>12.21533</v>
       </c>
       <c r="AH12" s="2">
-        <v>5.1834579999999997E-4</v>
+        <v>5.9233500000000004E-4</v>
       </c>
       <c r="AI12" s="2">
-        <v>4.5082620000000002</v>
+        <v>5.0451959999999998</v>
       </c>
       <c r="AJ12" s="2">
-        <v>20.102609999999999</v>
+        <v>21.53182</v>
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
@@ -12813,7 +12813,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5">
-        <v>157000000</v>
+        <v>136000000</v>
       </c>
       <c r="E13">
         <v>1.1000000000000001</v>
@@ -12838,11 +12838,11 @@
       </c>
       <c r="L13" s="3">
         <f>(J13/PRODUCT(D13:H13))-1</f>
-        <v>0.73073579400894206</v>
+        <v>0.99798176220149903</v>
       </c>
       <c r="M13" s="3">
         <f>(K13/(D13*E13*F13*G13*I13))-1</f>
-        <v>0.78975627730694287</v>
+        <v>1.0661157024793386</v>
       </c>
       <c r="P13">
         <v>8</v>
@@ -12870,36 +12870,36 @@
       </c>
       <c r="X13" s="5">
         <f t="shared" si="0"/>
-        <v>1482.9828</v>
+        <v>1616.2055999999998</v>
       </c>
       <c r="Y13" s="7">
         <f t="shared" si="1"/>
-        <v>0.57841313020200258</v>
+        <v>0.57805047071974558</v>
       </c>
       <c r="Z13" s="7">
         <f t="shared" si="2"/>
-        <v>0.8257679789592236</v>
+        <v>0.82518134388434095</v>
       </c>
       <c r="AD13">
         <v>8</v>
       </c>
       <c r="AE13" s="2">
-        <v>494.32760000000002</v>
+        <v>538.73519999999996</v>
       </c>
       <c r="AF13" s="2">
-        <v>52.854730000000004</v>
+        <v>54.646070000000002</v>
       </c>
       <c r="AG13" s="2">
-        <v>52.875050000000002</v>
+        <v>54.664790000000004</v>
       </c>
       <c r="AH13" s="2">
-        <v>1.192338E-6</v>
+        <v>1.2463499999999999E-6</v>
       </c>
       <c r="AI13" s="2">
-        <v>10.55997</v>
+        <v>12.2675</v>
       </c>
       <c r="AJ13" s="2">
-        <v>10.559979999999999</v>
+        <v>12.267519999999999</v>
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
@@ -12934,36 +12934,36 @@
       </c>
       <c r="X14" s="5">
         <f t="shared" si="0"/>
-        <v>1482.9819</v>
+        <v>1616.2047000000002</v>
       </c>
       <c r="Y14" s="7">
         <f t="shared" si="1"/>
-        <v>0.57841313265254812</v>
+        <v>0.57805047316916536</v>
       </c>
       <c r="Z14" s="7">
         <f t="shared" si="2"/>
-        <v>0.82576798292356957</v>
+        <v>0.82518134784613961</v>
       </c>
       <c r="AD14">
         <v>9</v>
       </c>
       <c r="AE14" s="2">
-        <v>494.32729999999998</v>
+        <v>538.73490000000004</v>
       </c>
       <c r="AF14" s="2">
-        <v>52.867139999999999</v>
+        <v>54.657139999999998</v>
       </c>
       <c r="AG14" s="2">
-        <v>52.86383</v>
+        <v>54.654519999999998</v>
       </c>
       <c r="AH14" s="2">
-        <v>1.11502E-6</v>
+        <v>1.186087E-6</v>
       </c>
       <c r="AI14" s="2">
-        <v>10.55973</v>
+        <v>12.26731</v>
       </c>
       <c r="AJ14" s="2">
-        <v>10.55972</v>
+        <v>12.267300000000001</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
@@ -12996,36 +12996,36 @@
       </c>
       <c r="X15" s="5">
         <f t="shared" si="0"/>
-        <v>2203.4418000000001</v>
+        <v>2199.3254999999999</v>
       </c>
       <c r="Y15" s="7">
         <f t="shared" si="1"/>
-        <v>0.57645387895734435</v>
+        <v>0.57646505920809288</v>
       </c>
       <c r="Z15" s="7">
         <f t="shared" si="2"/>
-        <v>0.82259998692069591</v>
+        <v>0.82261805582891623</v>
       </c>
       <c r="AD15">
         <v>10</v>
       </c>
       <c r="AE15" s="2">
-        <v>734.48059999999998</v>
+        <v>733.10850000000005</v>
       </c>
       <c r="AF15" s="2">
-        <v>147.03479999999999</v>
+        <v>152.2139</v>
       </c>
       <c r="AG15" s="2">
-        <v>10.533939999999999</v>
+        <v>12.21865</v>
       </c>
       <c r="AH15" s="2">
-        <v>5.1799460000000002E-4</v>
+        <v>5.9129199999999999E-4</v>
       </c>
       <c r="AI15" s="2">
-        <v>4.5083130000000002</v>
+        <v>5.0452380000000003</v>
       </c>
       <c r="AJ15" s="2">
-        <v>20.101209999999998</v>
+        <v>21.530609999999999</v>
       </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
@@ -13088,36 +13088,36 @@
       </c>
       <c r="X16" s="5">
         <f t="shared" si="0"/>
-        <v>2203.4829</v>
+        <v>2199.3609000000001</v>
       </c>
       <c r="Y16" s="7">
         <f t="shared" si="1"/>
-        <v>0.57645376732675024</v>
+        <v>0.57646496305774941</v>
       </c>
       <c r="Z16" s="7">
         <f t="shared" si="2"/>
-        <v>0.82259980650996489</v>
+        <v>0.82261790043556848</v>
       </c>
       <c r="AD16">
         <v>11</v>
       </c>
       <c r="AE16" s="2">
-        <v>734.49429999999995</v>
+        <v>733.12030000000004</v>
       </c>
       <c r="AF16" s="2">
-        <v>10.559950000000001</v>
+        <v>12.24156</v>
       </c>
       <c r="AG16" s="2">
-        <v>147.0395</v>
+        <v>152.21809999999999</v>
       </c>
       <c r="AH16" s="2">
-        <v>5.180483E-4</v>
+        <v>5.9134659999999996E-4</v>
       </c>
       <c r="AI16" s="2">
-        <v>20.101769999999998</v>
+        <v>21.53107</v>
       </c>
       <c r="AJ16" s="2">
-        <v>4.508305</v>
+        <v>5.0452360000000001</v>
       </c>
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.25">
@@ -13125,7 +13125,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="5">
-        <v>157000000</v>
+        <v>136000000</v>
       </c>
       <c r="E17">
         <v>1.1000000000000001</v>
@@ -13150,11 +13150,11 @@
       </c>
       <c r="L17" s="3">
         <f>(J17/PRODUCT(D17:H17))-1</f>
-        <v>0.73073579400894206</v>
+        <v>0.99798176220149903</v>
       </c>
       <c r="M17" s="3">
         <f>(K17/(PRODUCT(D17:G17)*I17))-1</f>
-        <v>0.78975627730694287</v>
+        <v>1.0661157024793386</v>
       </c>
       <c r="P17">
         <v>12</v>
@@ -13182,36 +13182,36 @@
       </c>
       <c r="X17" s="5">
         <f t="shared" si="0"/>
-        <v>2203.4709000000003</v>
+        <v>2199.3531000000003</v>
       </c>
       <c r="Y17" s="7">
         <f t="shared" si="1"/>
-        <v>0.57645379991962287</v>
+        <v>0.5764649842434173</v>
       </c>
       <c r="Z17" s="7">
         <f t="shared" si="2"/>
-        <v>0.8225998591846273</v>
+        <v>0.82261793467477839</v>
       </c>
       <c r="AD17">
         <v>12</v>
       </c>
       <c r="AE17" s="2">
-        <v>734.49030000000005</v>
+        <v>733.11770000000001</v>
       </c>
       <c r="AF17" s="2">
-        <v>10.54801</v>
+        <v>12.2264</v>
       </c>
       <c r="AG17" s="2">
-        <v>147.03899999999999</v>
+        <v>152.21770000000001</v>
       </c>
       <c r="AH17" s="2">
-        <v>5.1833010000000004E-4</v>
+        <v>5.9232269999999997E-4</v>
       </c>
       <c r="AI17" s="2">
-        <v>20.101289999999999</v>
+        <v>21.530670000000001</v>
       </c>
       <c r="AJ17" s="2">
-        <v>4.5082620000000002</v>
+        <v>5.0451899999999998</v>
       </c>
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.25">
@@ -13382,38 +13382,38 @@
       </c>
       <c r="T22" s="5">
         <f>AE22</f>
-        <v>1482.9837</v>
+        <v>1616.2065</v>
       </c>
       <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>8.2815916078167717</v>
+        <v>7.5165163390006562</v>
       </c>
       <c r="AD22">
         <v>1</v>
       </c>
       <c r="AE22" s="2">
         <f>AE6*$AC$20</f>
-        <v>1482.9837</v>
+        <v>1616.2065</v>
       </c>
       <c r="AF22" s="2">
         <f t="shared" ref="AF22:AJ22" si="3">AF6*$AC$20</f>
-        <v>158.60124000000002</v>
+        <v>163.97295</v>
       </c>
       <c r="AG22" s="2">
         <f t="shared" si="3"/>
-        <v>158.58168000000001</v>
+        <v>163.95401999999999</v>
       </c>
       <c r="AH22" s="2">
         <f t="shared" si="3"/>
-        <v>3.3931350000000001E-6</v>
+        <v>3.4953269999999999E-6</v>
       </c>
       <c r="AI22" s="2">
         <f t="shared" si="3"/>
-        <v>31.680929999999996</v>
+        <v>36.803399999999996</v>
       </c>
       <c r="AJ22" s="2">
         <f t="shared" si="3"/>
-        <v>31.680900000000001</v>
+        <v>36.803339999999999</v>
       </c>
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.25">
@@ -13431,38 +13431,38 @@
       </c>
       <c r="T23" s="5">
         <f t="shared" ref="T23:T33" si="4">AE23</f>
-        <v>2203.6449000000002</v>
+        <v>2199.5192999999999</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" ref="U23:U33" si="5">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>5.2462191909636005</v>
+        <v>5.2579351153904685</v>
       </c>
       <c r="AD23">
         <v>2</v>
       </c>
       <c r="AE23" s="2">
         <f t="shared" ref="AE23:AJ33" si="6">AE7*$AC$20</f>
-        <v>2203.6449000000002</v>
+        <v>2199.5192999999999</v>
       </c>
       <c r="AF23" s="2">
         <f t="shared" si="6"/>
-        <v>31.68075</v>
+        <v>36.710610000000003</v>
       </c>
       <c r="AG23" s="2">
         <f t="shared" si="6"/>
-        <v>441.14549999999997</v>
+        <v>456.68039999999996</v>
       </c>
       <c r="AH23" s="2">
         <f t="shared" si="6"/>
-        <v>1.5552297000000002E-3</v>
+        <v>1.7771919000000001E-3</v>
       </c>
       <c r="AI23" s="2">
         <f t="shared" si="6"/>
-        <v>60.310559999999995</v>
+        <v>64.598010000000002</v>
       </c>
       <c r="AJ23" s="2">
         <f t="shared" si="6"/>
-        <v>13.524765</v>
+        <v>15.135587999999998</v>
       </c>
     </row>
     <row r="24" spans="3:37" x14ac:dyDescent="0.25">
@@ -13480,11 +13480,11 @@
       </c>
       <c r="T24" s="5">
         <f t="shared" si="4"/>
-        <v>2203.5579000000002</v>
+        <v>2199.4358999999999</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="5"/>
-        <v>5.2464658017150647</v>
+        <v>5.2581724088658666</v>
       </c>
       <c r="AC24" s="6"/>
       <c r="AD24">
@@ -13492,27 +13492,27 @@
       </c>
       <c r="AE24" s="2">
         <f t="shared" si="6"/>
-        <v>2203.5579000000002</v>
+        <v>2199.4358999999999</v>
       </c>
       <c r="AF24" s="2">
         <f t="shared" si="6"/>
-        <v>31.578960000000002</v>
+        <v>36.638040000000004</v>
       </c>
       <c r="AG24" s="2">
         <f t="shared" si="6"/>
-        <v>441.11789999999996</v>
+        <v>456.6558</v>
       </c>
       <c r="AH24" s="2">
         <f t="shared" si="6"/>
-        <v>1.5540596999999998E-3</v>
+        <v>1.7739372E-3</v>
       </c>
       <c r="AI24" s="2">
         <f t="shared" si="6"/>
-        <v>60.308070000000001</v>
+        <v>64.595789999999994</v>
       </c>
       <c r="AJ24" s="2">
         <f t="shared" si="6"/>
-        <v>13.524963</v>
+        <v>15.135750000000002</v>
       </c>
     </row>
     <row r="25" spans="3:37" x14ac:dyDescent="0.25">
@@ -13530,38 +13530,38 @@
       </c>
       <c r="T25" s="5">
         <f t="shared" si="4"/>
-        <v>1482.9828</v>
+        <v>1616.2055999999998</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="5"/>
-        <v>8.2815972406753904</v>
+        <v>7.5165210815066263</v>
       </c>
       <c r="AD25">
         <v>4</v>
       </c>
       <c r="AE25" s="2">
         <f t="shared" si="6"/>
-        <v>1482.9828</v>
+        <v>1616.2055999999998</v>
       </c>
       <c r="AF25" s="2">
         <f t="shared" si="6"/>
-        <v>158.60918999999998</v>
+        <v>163.97954999999999</v>
       </c>
       <c r="AG25" s="2">
         <f t="shared" si="6"/>
-        <v>158.57745</v>
+        <v>163.94997000000001</v>
       </c>
       <c r="AH25" s="2">
         <f t="shared" si="6"/>
-        <v>3.1566270000000001E-6</v>
+        <v>3.3077370000000001E-6</v>
       </c>
       <c r="AI25" s="2">
         <f t="shared" si="6"/>
-        <v>31.680150000000001</v>
+        <v>36.80274</v>
       </c>
       <c r="AJ25" s="2">
         <f t="shared" si="6"/>
-        <v>31.68018</v>
+        <v>36.802770000000002</v>
       </c>
     </row>
     <row r="26" spans="3:37" x14ac:dyDescent="0.25">
@@ -13582,38 +13582,38 @@
       </c>
       <c r="T26" s="5">
         <f t="shared" si="4"/>
-        <v>2203.5992999999999</v>
+        <v>2199.4719</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="5"/>
-        <v>5.2463484465842152</v>
+        <v>5.2580699778201598</v>
       </c>
       <c r="AD26">
         <v>5</v>
       </c>
       <c r="AE26" s="2">
         <f t="shared" si="6"/>
-        <v>2203.5992999999999</v>
+        <v>2199.4719</v>
       </c>
       <c r="AF26" s="2">
         <f t="shared" si="6"/>
-        <v>441.13200000000006</v>
+        <v>456.66840000000002</v>
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="6"/>
-        <v>31.657920000000001</v>
+        <v>36.707850000000001</v>
       </c>
       <c r="AH26" s="2">
         <f t="shared" si="6"/>
-        <v>1.5542312999999998E-3</v>
+        <v>1.7741205000000001E-3</v>
       </c>
       <c r="AI26" s="2">
         <f t="shared" si="6"/>
-        <v>13.524936</v>
+        <v>15.135747</v>
       </c>
       <c r="AJ26" s="2">
         <f t="shared" si="6"/>
-        <v>60.309749999999994</v>
+        <v>64.597170000000006</v>
       </c>
     </row>
     <row r="27" spans="3:37" x14ac:dyDescent="0.25">
@@ -13664,38 +13664,38 @@
       </c>
       <c r="T27" s="5">
         <f t="shared" si="4"/>
-        <v>2203.5398999999998</v>
+        <v>2199.4221000000002</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="5"/>
-        <v>5.2465168270604341</v>
+        <v>5.2582116749891092</v>
       </c>
       <c r="AD27">
         <v>6</v>
       </c>
       <c r="AE27" s="2">
         <f t="shared" si="6"/>
-        <v>2203.5398999999998</v>
+        <v>2199.4221000000002</v>
       </c>
       <c r="AF27" s="2">
         <f t="shared" si="6"/>
-        <v>441.13499999999999</v>
+        <v>456.67020000000002</v>
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="6"/>
-        <v>31.719209999999997</v>
+        <v>36.745080000000002</v>
       </c>
       <c r="AH27" s="2">
         <f t="shared" si="6"/>
-        <v>1.5549273000000001E-3</v>
+        <v>1.7769786E-3</v>
       </c>
       <c r="AI27" s="2">
         <f t="shared" si="6"/>
-        <v>13.524765</v>
+        <v>15.13557</v>
       </c>
       <c r="AJ27" s="2">
         <f t="shared" si="6"/>
-        <v>60.306629999999998</v>
+        <v>64.594589999999997</v>
       </c>
     </row>
     <row r="28" spans="3:37" x14ac:dyDescent="0.25">
@@ -13703,7 +13703,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="5">
-        <v>157000000</v>
+        <v>136000000</v>
       </c>
       <c r="E28">
         <v>1.1000000000000001</v>
@@ -13728,11 +13728,11 @@
       </c>
       <c r="L28" s="3">
         <f>(J28/PRODUCT(D28:H28))-1</f>
-        <v>0.73073579400894206</v>
+        <v>0.99798176220149903</v>
       </c>
       <c r="M28" s="3">
         <f>(K28/(D28*E28*F28*G28*I28))-1</f>
-        <v>0.78975627730694287</v>
+        <v>1.0661157024793386</v>
       </c>
       <c r="P28">
         <v>7</v>
@@ -13748,38 +13748,38 @@
       </c>
       <c r="T28" s="5">
         <f t="shared" si="4"/>
-        <v>2203.5765000000001</v>
+        <v>2199.4506000000001</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="5"/>
-        <v>5.2464130764005992</v>
+        <v>5.2581305824504829</v>
       </c>
       <c r="AD28">
         <v>7</v>
       </c>
       <c r="AE28" s="2">
         <f t="shared" si="6"/>
-        <v>2203.5765000000001</v>
+        <v>2199.4506000000001</v>
       </c>
       <c r="AF28" s="2">
         <f t="shared" si="6"/>
-        <v>441.12719999999996</v>
+        <v>456.66300000000001</v>
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="6"/>
-        <v>31.606650000000002</v>
+        <v>36.645989999999998</v>
       </c>
       <c r="AH28" s="2">
         <f t="shared" si="6"/>
-        <v>1.5550373999999999E-3</v>
+        <v>1.7770050000000001E-3</v>
       </c>
       <c r="AI28" s="2">
         <f t="shared" si="6"/>
-        <v>13.524786000000001</v>
+        <v>15.135587999999998</v>
       </c>
       <c r="AJ28" s="2">
         <f t="shared" si="6"/>
-        <v>60.307829999999996</v>
+        <v>64.595460000000003</v>
       </c>
     </row>
     <row r="29" spans="3:37" x14ac:dyDescent="0.25">
@@ -13802,38 +13802,38 @@
       </c>
       <c r="T29" s="5">
         <f t="shared" si="4"/>
-        <v>1482.9828</v>
+        <v>1616.2055999999998</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="5"/>
-        <v>8.2815972406753904</v>
+        <v>7.5165210815066263</v>
       </c>
       <c r="AD29">
         <v>8</v>
       </c>
       <c r="AE29" s="2">
         <f t="shared" si="6"/>
-        <v>1482.9828</v>
+        <v>1616.2055999999998</v>
       </c>
       <c r="AF29" s="2">
         <f t="shared" si="6"/>
-        <v>158.56419</v>
+        <v>163.93821</v>
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="6"/>
-        <v>158.62515000000002</v>
+        <v>163.99437</v>
       </c>
       <c r="AH29" s="2">
         <f t="shared" si="6"/>
-        <v>3.5770139999999998E-6</v>
+        <v>3.7390499999999998E-6</v>
       </c>
       <c r="AI29" s="2">
         <f t="shared" si="6"/>
-        <v>31.67991</v>
+        <v>36.802500000000002</v>
       </c>
       <c r="AJ29" s="2">
         <f t="shared" si="6"/>
-        <v>31.679939999999998</v>
+        <v>36.80256</v>
       </c>
     </row>
     <row r="30" spans="3:37" x14ac:dyDescent="0.25">
@@ -13854,11 +13854,11 @@
       </c>
       <c r="T30" s="5">
         <f t="shared" si="4"/>
-        <v>1482.9819</v>
+        <v>1616.2047000000002</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="5"/>
-        <v>8.281602873540848</v>
+        <v>7.5165258240178758</v>
       </c>
       <c r="W30" s="2"/>
       <c r="AD30">
@@ -13866,27 +13866,27 @@
       </c>
       <c r="AE30" s="2">
         <f t="shared" si="6"/>
-        <v>1482.9819</v>
+        <v>1616.2047000000002</v>
       </c>
       <c r="AF30" s="2">
         <f t="shared" si="6"/>
-        <v>158.60141999999999</v>
+        <v>163.97141999999999</v>
       </c>
       <c r="AG30" s="2">
         <f t="shared" si="6"/>
-        <v>158.59148999999999</v>
+        <v>163.96356</v>
       </c>
       <c r="AH30" s="2">
         <f t="shared" si="6"/>
-        <v>3.3450600000000001E-6</v>
+        <v>3.5582610000000003E-6</v>
       </c>
       <c r="AI30" s="2">
         <f t="shared" si="6"/>
-        <v>31.679189999999998</v>
+        <v>36.801929999999999</v>
       </c>
       <c r="AJ30" s="2">
         <f t="shared" si="6"/>
-        <v>31.679160000000003</v>
+        <v>36.801900000000003</v>
       </c>
     </row>
     <row r="31" spans="3:37" x14ac:dyDescent="0.25">
@@ -13937,38 +13937,38 @@
       </c>
       <c r="T31" s="5">
         <f t="shared" si="4"/>
-        <v>2203.4418000000001</v>
+        <v>2199.3254999999999</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="5"/>
-        <v>5.2467949298452377</v>
+        <v>5.2584865516491597</v>
       </c>
       <c r="AD31">
         <v>10</v>
       </c>
       <c r="AE31" s="2">
         <f t="shared" si="6"/>
-        <v>2203.4418000000001</v>
+        <v>2199.3254999999999</v>
       </c>
       <c r="AF31" s="2">
         <f t="shared" si="6"/>
-        <v>441.10439999999994</v>
+        <v>456.64170000000001</v>
       </c>
       <c r="AG31" s="2">
         <f t="shared" si="6"/>
-        <v>31.601819999999996</v>
+        <v>36.655950000000004</v>
       </c>
       <c r="AH31" s="2">
         <f t="shared" si="6"/>
-        <v>1.5539837999999999E-3</v>
+        <v>1.773876E-3</v>
       </c>
       <c r="AI31" s="2">
         <f t="shared" si="6"/>
-        <v>13.524939</v>
+        <v>15.135714</v>
       </c>
       <c r="AJ31" s="2">
         <f t="shared" si="6"/>
-        <v>60.303629999999998</v>
+        <v>64.591830000000002</v>
       </c>
     </row>
     <row r="32" spans="3:37" x14ac:dyDescent="0.25">
@@ -13976,7 +13976,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="5">
-        <v>157000000</v>
+        <v>136000000</v>
       </c>
       <c r="E32">
         <v>1.1000000000000001</v>
@@ -14001,11 +14001,11 @@
       </c>
       <c r="L32" s="3">
         <f>(J32/PRODUCT(D32:H32))-1</f>
-        <v>0.73073579400894206</v>
+        <v>0.99798176220149903</v>
       </c>
       <c r="M32" s="3">
         <f>(K32/(PRODUCT(D32:G32)*I32))-1</f>
-        <v>0.78975627730694287</v>
+        <v>1.0661157024793386</v>
       </c>
       <c r="P32">
         <v>11</v>
@@ -14021,38 +14021,38 @@
       </c>
       <c r="T32" s="5">
         <f t="shared" si="4"/>
-        <v>2203.4829</v>
+        <v>2199.3609000000001</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="5"/>
-        <v>5.2466784128204775</v>
+        <v>5.2583858176477838</v>
       </c>
       <c r="AD32">
         <v>11</v>
       </c>
       <c r="AE32" s="2">
         <f t="shared" si="6"/>
-        <v>2203.4829</v>
+        <v>2199.3609000000001</v>
       </c>
       <c r="AF32" s="2">
         <f t="shared" si="6"/>
-        <v>31.679850000000002</v>
+        <v>36.724679999999999</v>
       </c>
       <c r="AG32" s="2">
         <f t="shared" si="6"/>
-        <v>441.11850000000004</v>
+        <v>456.65429999999998</v>
       </c>
       <c r="AH32" s="2">
         <f t="shared" si="6"/>
-        <v>1.5541449E-3</v>
+        <v>1.7740397999999999E-3</v>
       </c>
       <c r="AI32" s="2">
         <f t="shared" si="6"/>
-        <v>60.305309999999992</v>
+        <v>64.593209999999999</v>
       </c>
       <c r="AJ32" s="2">
         <f t="shared" si="6"/>
-        <v>13.524915</v>
+        <v>15.135708000000001</v>
       </c>
     </row>
     <row r="33" spans="16:36" x14ac:dyDescent="0.25">
@@ -14070,38 +14070,38 @@
       </c>
       <c r="T33" s="5">
         <f t="shared" si="4"/>
-        <v>2203.4709000000003</v>
+        <v>2199.3531000000003</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="5"/>
-        <v>5.2467124319404732</v>
+        <v>5.2584080129966688</v>
       </c>
       <c r="AD33">
         <v>12</v>
       </c>
       <c r="AE33" s="2">
         <f t="shared" si="6"/>
-        <v>2203.4709000000003</v>
+        <v>2199.3531000000003</v>
       </c>
       <c r="AF33" s="2">
         <f t="shared" si="6"/>
-        <v>31.644030000000001</v>
+        <v>36.679200000000002</v>
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="6"/>
-        <v>441.11699999999996</v>
+        <v>456.65309999999999</v>
       </c>
       <c r="AH33" s="2">
         <f t="shared" si="6"/>
-        <v>1.5549903000000001E-3</v>
+        <v>1.7769680999999999E-3</v>
       </c>
       <c r="AI33" s="2">
         <f t="shared" si="6"/>
-        <v>60.303869999999996</v>
+        <v>64.592010000000002</v>
       </c>
       <c r="AJ33" s="2">
         <f t="shared" si="6"/>
-        <v>13.524786000000001</v>
+        <v>15.13557</v>
       </c>
     </row>
     <row r="36" spans="16:36" x14ac:dyDescent="0.25">
@@ -14154,15 +14154,15 @@
       </c>
       <c r="U38" s="5">
         <f>AE22</f>
-        <v>1482.9837</v>
+        <v>1616.2065</v>
       </c>
       <c r="V38" s="5">
         <f>SQRT(AF22^2 + AG22^2)</f>
-        <v>224.28219403501475</v>
+        <v>231.87938460730589</v>
       </c>
       <c r="W38" s="4">
         <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
-        <v>6.5254491215749946</v>
+        <v>6.1999312221195124</v>
       </c>
     </row>
     <row r="39" spans="16:36" x14ac:dyDescent="0.25">
@@ -14183,15 +14183,15 @@
       </c>
       <c r="U39" s="5">
         <f t="shared" ref="U39:U49" si="7">AE23</f>
-        <v>2203.6449000000002</v>
+        <v>2199.5192999999999</v>
       </c>
       <c r="V39" s="5">
         <f t="shared" ref="V39:V49" si="8">SQRT(AF23^2 + AG23^2)</f>
-        <v>442.28160948745369</v>
+        <v>458.15352954084295</v>
       </c>
       <c r="W39" s="4">
         <f t="shared" ref="W39:W49" si="9">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
-        <v>2.5922470362873717</v>
+        <v>2.4690375031986185</v>
       </c>
     </row>
     <row r="40" spans="16:36" x14ac:dyDescent="0.25">
@@ -14212,15 +14212,15 @@
       </c>
       <c r="U40" s="5">
         <f t="shared" si="7"/>
-        <v>2203.5579000000002</v>
+        <v>2199.4358999999999</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="8"/>
-        <v>442.24680034466229</v>
+        <v>458.12319920375302</v>
       </c>
       <c r="W40" s="4">
         <f t="shared" si="9"/>
-        <v>2.5925568165404691</v>
+        <v>2.4692921915006067</v>
       </c>
     </row>
     <row r="41" spans="16:36" x14ac:dyDescent="0.25">
@@ -14241,15 +14241,15 @@
       </c>
       <c r="U41" s="5">
         <f t="shared" si="7"/>
-        <v>1482.9828</v>
+        <v>1616.2055999999998</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="8"/>
-        <v>224.28482516870952</v>
+        <v>231.88118828659515</v>
       </c>
       <c r="W41" s="4">
         <f t="shared" si="9"/>
-        <v>6.5253613903741758</v>
+        <v>6.1998757511207208</v>
       </c>
     </row>
     <row r="42" spans="16:36" x14ac:dyDescent="0.25">
@@ -14270,15 +14270,15 @@
       </c>
       <c r="U42" s="5">
         <f t="shared" si="7"/>
-        <v>2203.5992999999999</v>
+        <v>2199.4719</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="8"/>
-        <v>442.26650938402111</v>
+        <v>458.14134697730844</v>
       </c>
       <c r="W42" s="4">
         <f t="shared" si="9"/>
-        <v>2.5923838543447579</v>
+        <v>2.4691439679051852</v>
       </c>
     </row>
     <row r="43" spans="16:36" x14ac:dyDescent="0.25">
@@ -14299,15 +14299,15 @@
       </c>
       <c r="U43" s="5">
         <f t="shared" si="7"/>
-        <v>2203.5398999999998</v>
+        <v>2199.4221000000002</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="8"/>
-        <v>442.27389308891395</v>
+        <v>458.14612567634623</v>
       </c>
       <c r="W43" s="4">
         <f t="shared" si="9"/>
-        <v>2.5923423374354702</v>
+        <v>2.4691227212951214</v>
       </c>
     </row>
     <row r="44" spans="16:36" x14ac:dyDescent="0.25">
@@ -14328,15 +14328,15 @@
       </c>
       <c r="U44" s="5">
         <f t="shared" si="7"/>
-        <v>2203.5765000000001</v>
+        <v>2199.4506000000001</v>
       </c>
       <c r="V44" s="5">
         <f t="shared" si="8"/>
-        <v>442.25805465142457</v>
+        <v>458.13101199556451</v>
       </c>
       <c r="W44" s="4">
         <f t="shared" si="9"/>
-        <v>2.5924596155795139</v>
+        <v>2.469228617857123</v>
       </c>
     </row>
     <row r="45" spans="16:36" x14ac:dyDescent="0.25">
@@ -14357,15 +14357,15 @@
       </c>
       <c r="U45" s="5">
         <f t="shared" si="7"/>
-        <v>1482.9828</v>
+        <v>1616.2055999999998</v>
       </c>
       <c r="V45" s="5">
         <f t="shared" si="8"/>
-        <v>224.28673737624032</v>
+        <v>231.88335449035793</v>
       </c>
       <c r="W45" s="4">
         <f t="shared" si="9"/>
-        <v>6.5252972311961024</v>
+        <v>6.1998084914505389</v>
       </c>
     </row>
     <row r="46" spans="16:36" x14ac:dyDescent="0.25">
@@ -14386,15 +14386,15 @@
       </c>
       <c r="U46" s="5">
         <f t="shared" si="7"/>
-        <v>1482.9819</v>
+        <v>1616.2047000000002</v>
       </c>
       <c r="V46" s="5">
         <f t="shared" si="8"/>
-        <v>224.28925771520244</v>
+        <v>231.88504821288069</v>
       </c>
       <c r="W46" s="4">
         <f t="shared" si="9"/>
-        <v>6.5252132208681406</v>
+        <v>6.1997564363819588</v>
       </c>
     </row>
     <row r="47" spans="16:36" x14ac:dyDescent="0.25">
@@ -14415,15 +14415,15 @@
       </c>
       <c r="U47" s="5">
         <f t="shared" si="7"/>
-        <v>2203.4418000000001</v>
+        <v>2199.3254999999999</v>
       </c>
       <c r="V47" s="5">
         <f t="shared" si="8"/>
-        <v>442.23496777920258</v>
+        <v>458.11057709825093</v>
       </c>
       <c r="W47" s="4">
         <f t="shared" si="9"/>
-        <v>2.5926890191592169</v>
+        <v>2.4694208981694592</v>
       </c>
     </row>
     <row r="48" spans="16:36" x14ac:dyDescent="0.25">
@@ -14444,15 +14444,15 @@
       </c>
       <c r="U48" s="5">
         <f t="shared" si="7"/>
-        <v>2203.4829</v>
+        <v>2199.3609000000001</v>
       </c>
       <c r="V48" s="5">
         <f t="shared" si="8"/>
-        <v>442.25461437759196</v>
+        <v>458.12864113651784</v>
       </c>
       <c r="W48" s="4">
         <f t="shared" si="9"/>
-        <v>2.592516646887443</v>
+        <v>2.4692734794812727</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -14473,15 +14473,15 @@
       </c>
       <c r="U49" s="5">
         <f t="shared" si="7"/>
-        <v>2203.4709000000003</v>
+        <v>2199.3531000000003</v>
       </c>
       <c r="V49" s="5">
         <f t="shared" si="8"/>
-        <v>442.25055378556721</v>
+        <v>458.12380144699966</v>
       </c>
       <c r="W49" s="4">
         <f t="shared" si="9"/>
-        <v>2.5925533611146228</v>
+        <v>2.4693124692680839</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
@@ -14572,19 +14572,19 @@
       </c>
       <c r="Z54" s="5">
         <f>AE22</f>
-        <v>1482.9837</v>
+        <v>1616.2065</v>
       </c>
       <c r="AA54" s="5">
         <f>SQRT(AF22^2 + AG22^2)</f>
-        <v>224.28219403501475</v>
+        <v>231.87938460730589</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.57816731924829345</v>
+        <v>0.5777879102664687</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.82502262006935467</v>
+        <v>0.82438543538512987</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -14620,19 +14620,19 @@
       </c>
       <c r="Z55" s="5">
         <f t="shared" ref="Z55:Z65" si="10">AE23</f>
-        <v>2203.6449000000002</v>
+        <v>2199.5192999999999</v>
       </c>
       <c r="AA55" s="5">
         <f t="shared" ref="AA55:AA65" si="11">SQRT(AF23^2 + AG23^2)</f>
-        <v>442.28160948745369</v>
+        <v>458.15352954084295</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" ref="AB55:AB65" si="12">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.57550163969187196</v>
+        <v>0.57544335996338081</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" ref="AC55:AC65" si="13">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.81972074105166182</v>
+        <v>0.81952899831106696</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -14668,19 +14668,19 @@
       </c>
       <c r="Z56" s="5">
         <f t="shared" si="10"/>
-        <v>2203.5579000000002</v>
+        <v>2199.4358999999999</v>
       </c>
       <c r="AA56" s="5">
         <f t="shared" si="11"/>
-        <v>442.24680034466229</v>
+        <v>458.12319920375302</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="12"/>
-        <v>0.57550202522341087</v>
+        <v>0.57544372111715636</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="13"/>
-        <v>0.81972157311976734</v>
+        <v>0.81952977038382291</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -14716,19 +14716,19 @@
       </c>
       <c r="Z57" s="5">
         <f t="shared" si="10"/>
-        <v>1482.9828</v>
+        <v>1616.2055999999998</v>
       </c>
       <c r="AA57" s="5">
         <f t="shared" si="11"/>
-        <v>224.28482516870952</v>
+        <v>231.88118828659515</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="12"/>
-        <v>0.57816731593167447</v>
+        <v>0.57778790863104179</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="13"/>
-        <v>0.82502260655140836</v>
+        <v>0.82438542696787342</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -14764,19 +14764,19 @@
       </c>
       <c r="Z58" s="5">
         <f t="shared" si="10"/>
-        <v>2203.5992999999999</v>
+        <v>2199.4719</v>
       </c>
       <c r="AA58" s="5">
         <f t="shared" si="11"/>
-        <v>442.26650938402111</v>
+        <v>458.14134697730844</v>
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="12"/>
-        <v>0.57550182824448659</v>
+        <v>0.57544354271064635</v>
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="13"/>
-        <v>0.81972113634177912</v>
+        <v>0.81952936913920205</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -14812,19 +14812,19 @@
       </c>
       <c r="Z59" s="5">
         <f t="shared" si="10"/>
-        <v>2203.5398999999998</v>
+        <v>2199.4221000000002</v>
       </c>
       <c r="AA59" s="5">
         <f t="shared" si="11"/>
-        <v>442.27389308891395</v>
+        <v>458.14612567634623</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="12"/>
-        <v>0.57550195754068278</v>
+        <v>0.57544365642904394</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="13"/>
-        <v>0.81972129997204757</v>
+        <v>0.81952952237687371</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -14860,19 +14860,19 @@
       </c>
       <c r="Z60" s="5">
         <f t="shared" si="10"/>
-        <v>2203.5765000000001</v>
+        <v>2199.4506000000001</v>
       </c>
       <c r="AA60" s="5">
         <f t="shared" si="11"/>
-        <v>442.25805465142457</v>
+        <v>458.13101199556451</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="12"/>
-        <v>0.5755019264095862</v>
+        <v>0.57544364647600577</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="13"/>
-        <v>0.81972134573120181</v>
+        <v>0.81952960113196971</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -14908,19 +14908,19 @@
       </c>
       <c r="Z61" s="5">
         <f t="shared" si="10"/>
-        <v>1482.9828</v>
+        <v>1616.2055999999998</v>
       </c>
       <c r="AA61" s="5">
         <f t="shared" si="11"/>
-        <v>224.28673737624032</v>
+        <v>231.88335449035793</v>
       </c>
       <c r="AB61" s="2">
         <f t="shared" si="12"/>
-        <v>0.57816731174110925</v>
+        <v>0.5777879037266016</v>
       </c>
       <c r="AC61" s="2">
         <f t="shared" si="13"/>
-        <v>0.82502259384934451</v>
+        <v>0.82438541210682614</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -14956,19 +14956,19 @@
       </c>
       <c r="Z62" s="5">
         <f t="shared" si="10"/>
-        <v>1482.9819</v>
+        <v>1616.2047000000002</v>
       </c>
       <c r="AA62" s="5">
         <f t="shared" si="11"/>
-        <v>224.28925771520244</v>
+        <v>231.88504821288069</v>
       </c>
       <c r="AB62" s="2">
         <f t="shared" si="12"/>
-        <v>0.57816730866718213</v>
+        <v>0.5777879023400585</v>
       </c>
       <c r="AC62" s="2">
         <f t="shared" si="13"/>
-        <v>0.82502258106702375</v>
+        <v>0.82438540444371577</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -15004,19 +15004,19 @@
       </c>
       <c r="Z63" s="5">
         <f t="shared" si="10"/>
-        <v>2203.4418000000001</v>
+        <v>2199.3254999999999</v>
       </c>
       <c r="AA63" s="5">
         <f t="shared" si="11"/>
-        <v>442.23496777920258</v>
+        <v>458.11057709825093</v>
       </c>
       <c r="AB63" s="2">
         <f t="shared" si="12"/>
-        <v>0.57550239085993393</v>
+        <v>0.57544407660099495</v>
       </c>
       <c r="AC63" s="2">
         <f t="shared" si="13"/>
-        <v>0.81972223397022614</v>
+        <v>0.81953042225583794</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -15052,19 +15052,19 @@
       </c>
       <c r="Z64" s="5">
         <f t="shared" si="10"/>
-        <v>2203.4829</v>
+        <v>2199.3609000000001</v>
       </c>
       <c r="AA64" s="5">
         <f t="shared" si="11"/>
-        <v>442.25461437759196</v>
+        <v>458.12864113651784</v>
       </c>
       <c r="AB64" s="2">
         <f t="shared" si="12"/>
-        <v>0.57550219496496635</v>
+        <v>0.57544390019600256</v>
       </c>
       <c r="AC64" s="2">
         <f t="shared" si="13"/>
-        <v>0.81972179932005318</v>
+        <v>0.81953002476388948</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -15100,19 +15100,19 @@
       </c>
       <c r="Z65" s="5">
         <f t="shared" si="10"/>
-        <v>2203.4709000000003</v>
+        <v>2199.3531000000003</v>
       </c>
       <c r="AA65" s="5">
         <f t="shared" si="11"/>
-        <v>442.25055378556721</v>
+        <v>458.12380144699966</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" si="12"/>
-        <v>0.57550224495681523</v>
+        <v>0.57544394289256351</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" si="13"/>
-        <v>0.81972190446948434</v>
+        <v>0.81953012390421764</v>
       </c>
     </row>
   </sheetData>

--- a/Calculos/MoS_JAVI.xlsx
+++ b/Calculos/MoS_JAVI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37414E0C-B417-4CBC-AF0C-619775E49E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC25BE8B-1EFC-43FB-B08C-BDE9F6A410E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoS Estatico X" sheetId="1" r:id="rId1"/>
@@ -1203,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -2805,7 +2805,8 @@
         <v>18.992172841029888</v>
       </c>
     </row>
-    <row r="33" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
       <c r="P33">
         <v>12</v>
       </c>
@@ -2827,13 +2828,13 @@
         <v>18.991801166279714</v>
       </c>
     </row>
-    <row r="36" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q36" s="8" t="s">
         <v>30</v>
       </c>
       <c r="R36" s="8"/>
     </row>
-    <row r="37" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:23" x14ac:dyDescent="0.25">
       <c r="P37" t="s">
         <v>42</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:23" x14ac:dyDescent="0.25">
       <c r="P38">
         <v>1</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>7.4470153086152635</v>
       </c>
     </row>
-    <row r="39" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:23" x14ac:dyDescent="0.25">
       <c r="P39">
         <v>2</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>16.971446966190555</v>
       </c>
     </row>
-    <row r="40" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:23" x14ac:dyDescent="0.25">
       <c r="P40">
         <v>3</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>16.971201858611277</v>
       </c>
     </row>
-    <row r="41" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:23" x14ac:dyDescent="0.25">
       <c r="P41">
         <v>4</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>7.4470915113575717</v>
       </c>
     </row>
-    <row r="42" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:23" x14ac:dyDescent="0.25">
       <c r="P42">
         <v>5</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>2.6327350178245048</v>
       </c>
     </row>
-    <row r="43" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:23" x14ac:dyDescent="0.25">
       <c r="P43">
         <v>6</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>2.6327121458825</v>
       </c>
     </row>
-    <row r="44" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:23" x14ac:dyDescent="0.25">
       <c r="P44">
         <v>7</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>2.6327557609838985</v>
       </c>
     </row>
-    <row r="45" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:23" x14ac:dyDescent="0.25">
       <c r="P45">
         <v>8</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>7.4471168595598183</v>
       </c>
     </row>
-    <row r="46" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:23" x14ac:dyDescent="0.25">
       <c r="P46">
         <v>9</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>7.4470134130165491</v>
       </c>
     </row>
-    <row r="47" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:23" x14ac:dyDescent="0.25">
       <c r="P47">
         <v>10</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>2.6327680282265664</v>
       </c>
     </row>
-    <row r="48" spans="16:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:23" x14ac:dyDescent="0.25">
       <c r="P48">
         <v>11</v>
       </c>
@@ -6408,7 +6409,7 @@
   <dimension ref="B1:AK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7792,7 +7793,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="5">
-        <v>1930000</v>
+        <v>2000000</v>
       </c>
       <c r="E28">
         <v>1.1000000000000001</v>
@@ -7817,11 +7818,11 @@
       </c>
       <c r="L28" s="3">
         <f>(J28/PRODUCT(D28:H28))-1</f>
-        <v>139.79042469399167</v>
+        <v>134.86275982970193</v>
       </c>
       <c r="M28" s="3">
         <f>(K28/(D28*E28*F28*G28*I28))-1</f>
-        <v>144.59157281719695</v>
+        <v>139.49586776859502</v>
       </c>
       <c r="P28">
         <v>7</v>

--- a/Calculos/MoS_JAVI.xlsx
+++ b/Calculos/MoS_JAVI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC25BE8B-1EFC-43FB-B08C-BDE9F6A410E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B734CF87-93C6-46DF-B24A-8FAF3E1F9DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="57">
   <si>
     <t>Shell 2D Elements</t>
   </si>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA54" sqref="AA54:AA65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,16 +1430,16 @@
         <v>1100000000</v>
       </c>
       <c r="X6" s="5">
-        <f>AE6</f>
-        <v>142.43889999999999</v>
+        <f>AE6*1.1</f>
+        <v>156.68279000000001</v>
       </c>
       <c r="Y6" s="7">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.58207166157110968</v>
+        <v>0.58203269886397258</v>
       </c>
       <c r="Z6" s="7">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.83169200471797122</v>
+        <v>0.83162885718333346</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>1100000000</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" ref="X7:X17" si="0">AE7</f>
-        <v>688.49419999999998</v>
+        <f t="shared" ref="X7:X17" si="0">AE7*1.1</f>
+        <v>757.34361999999999</v>
       </c>
       <c r="Y7" s="7">
         <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.58057935521362269</v>
+        <v>0.58039139749973945</v>
       </c>
       <c r="Z7" s="7">
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.82927428602807129</v>
+        <v>0.82896990082550559</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1560,15 +1560,15 @@
       </c>
       <c r="X8" s="5">
         <f t="shared" si="0"/>
-        <v>688.48109999999997</v>
+        <v>757.32920999999999</v>
       </c>
       <c r="Y8" s="7">
         <f>((Q8*U8)/(R8+S8*X8*T8))-1</f>
-        <v>0.58057939098064804</v>
+        <v>0.58039143683411099</v>
       </c>
       <c r="Z8" s="7">
         <f t="shared" si="2"/>
-        <v>0.82927434395317645</v>
+        <v>0.8289699645219184</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1625,15 +1625,15 @@
       </c>
       <c r="X9" s="5">
         <f t="shared" si="0"/>
-        <v>142.44300000000001</v>
+        <v>156.68730000000002</v>
       </c>
       <c r="Y9" s="7">
         <f t="shared" si="1"/>
-        <v>0.58207165035570219</v>
+        <v>0.58203268652763174</v>
       </c>
       <c r="Z9" s="7">
         <f t="shared" si="2"/>
-        <v>0.8316919865407868</v>
+        <v>0.83162883718980929</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1687,15 +1687,15 @@
       </c>
       <c r="X10" s="5">
         <f t="shared" si="0"/>
-        <v>279.49189999999999</v>
+        <v>307.44109000000003</v>
       </c>
       <c r="Y10" s="7">
         <f t="shared" si="1"/>
-        <v>0.58169684666635657</v>
+        <v>0.58162043254079632</v>
       </c>
       <c r="Z10" s="7">
         <f t="shared" si="2"/>
-        <v>0.83108458726699164</v>
+        <v>0.83096076620253445</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1752,15 +1752,15 @@
       </c>
       <c r="X11" s="5">
         <f t="shared" si="0"/>
-        <v>279.49529999999999</v>
+        <v>307.44483000000002</v>
       </c>
       <c r="Y11" s="7">
         <f t="shared" si="1"/>
-        <v>0.58169683737018074</v>
+        <v>0.58162042231599109</v>
       </c>
       <c r="Z11" s="7">
         <f t="shared" si="2"/>
-        <v>0.83108457220322474</v>
+        <v>0.83096074963463185</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1847,15 +1847,15 @@
       </c>
       <c r="X12" s="5">
         <f t="shared" si="0"/>
-        <v>-279.48509999999999</v>
+        <v>-307.43360999999999</v>
       </c>
       <c r="Y12" s="7">
         <f t="shared" si="1"/>
-        <v>0.58322666262946421</v>
+        <v>0.58330323018080232</v>
       </c>
       <c r="Z12" s="7">
         <f t="shared" si="2"/>
-        <v>0.83356450000439009</v>
+        <v>0.83368867047151674</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -1944,15 +1944,15 @@
       </c>
       <c r="X13" s="5">
         <f t="shared" si="0"/>
-        <v>-142.4425</v>
+        <v>-156.68675000000002</v>
       </c>
       <c r="Y13" s="7">
         <f t="shared" si="1"/>
-        <v>0.58285132879493862</v>
+        <v>0.58289033282164837</v>
       </c>
       <c r="Z13" s="7">
         <f t="shared" si="2"/>
-        <v>0.83295588639969509</v>
+        <v>0.83301912706916892</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2011,15 +2011,15 @@
       </c>
       <c r="X14" s="5">
         <f t="shared" si="0"/>
-        <v>-142.43819999999999</v>
+        <v>-156.68201999999999</v>
       </c>
       <c r="Y14" s="7">
         <f t="shared" si="1"/>
-        <v>0.58285131702084181</v>
+        <v>0.58289031986950346</v>
       </c>
       <c r="Z14" s="7">
         <f t="shared" si="2"/>
-        <v>0.83295586730950122</v>
+        <v>0.8330191060685066</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2076,15 +2076,15 @@
       </c>
       <c r="X15" s="5">
         <f t="shared" si="0"/>
-        <v>-279.4821</v>
+        <v>-307.43031000000002</v>
       </c>
       <c r="Y15" s="7">
         <f t="shared" si="1"/>
-        <v>0.58322665441108179</v>
+        <v>0.58330322113970734</v>
       </c>
       <c r="Z15" s="7">
         <f t="shared" si="2"/>
-        <v>0.83356448667680394</v>
+        <v>0.8336886558091865</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2171,15 +2171,15 @@
       </c>
       <c r="X16" s="5">
         <f t="shared" si="0"/>
-        <v>-688.49189999999999</v>
+        <v>-757.34109000000001</v>
       </c>
       <c r="Y16" s="7">
         <f t="shared" si="1"/>
-        <v>0.58434791425573285</v>
+        <v>0.58453681367868482</v>
       </c>
       <c r="Z16" s="7">
         <f t="shared" si="2"/>
-        <v>0.83538332688593564</v>
+        <v>0.83568984968703575</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2268,15 +2268,15 @@
       </c>
       <c r="X17" s="5">
         <f t="shared" si="0"/>
-        <v>-688.50469999999996</v>
+        <v>-757.35517000000004</v>
       </c>
       <c r="Y17" s="7">
         <f t="shared" si="1"/>
-        <v>0.5843479493705166</v>
+        <v>0.58453685231415831</v>
       </c>
       <c r="Z17" s="7">
         <f t="shared" si="2"/>
-        <v>0.83538338386317568</v>
+        <v>0.83568991238293644</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2428,12 +2428,12 @@
         <v>1</v>
       </c>
       <c r="T22" s="5">
-        <f>ABS(AE6)</f>
-        <v>142.43889999999999</v>
+        <f>ABS(AE6)*1.1</f>
+        <v>156.68279000000001</v>
       </c>
       <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>95.634058985635718</v>
+        <v>86.849144532396096</v>
       </c>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
@@ -2450,12 +2450,12 @@
         <v>1</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" ref="T23:T33" si="3">ABS(AE7)</f>
-        <v>688.49419999999998</v>
+        <f t="shared" ref="T23:T33" si="3">ABS(AE7)*1.1</f>
+        <v>757.34361999999999</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" ref="U23:U33" si="4">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>18.992106054704696</v>
+        <v>17.174641867913358</v>
       </c>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
@@ -2473,11 +2473,11 @@
       </c>
       <c r="T24" s="5">
         <f t="shared" si="3"/>
-        <v>688.48109999999997</v>
+        <v>757.32920999999999</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="4"/>
-        <v>18.992486452350057</v>
+        <v>17.174987683954598</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
@@ -2496,11 +2496,11 @@
       </c>
       <c r="T25" s="5">
         <f t="shared" si="3"/>
-        <v>142.44300000000001</v>
+        <v>156.68730000000002</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="4"/>
-        <v>95.631277524687505</v>
+        <v>86.846615931534089</v>
       </c>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
@@ -2521,11 +2521,11 @@
       </c>
       <c r="T26" s="5">
         <f t="shared" si="3"/>
-        <v>279.49189999999999</v>
+        <v>307.44109000000003</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="4"/>
-        <v>48.248114397766322</v>
+        <v>43.771013088878469</v>
       </c>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
@@ -2576,11 +2576,11 @@
       </c>
       <c r="T27" s="5">
         <f t="shared" si="3"/>
-        <v>279.49529999999999</v>
+        <v>307.44483000000002</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="4"/>
-        <v>48.247515305084079</v>
+        <v>43.770468459167333</v>
       </c>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
@@ -2633,11 +2633,11 @@
       </c>
       <c r="T28" s="5">
         <f t="shared" si="3"/>
-        <v>279.48509999999999</v>
+        <v>307.43360999999999</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="4"/>
-        <v>48.249312626859407</v>
+        <v>43.772102388054016</v>
       </c>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
@@ -2660,11 +2660,11 @@
       </c>
       <c r="T29" s="5">
         <f t="shared" si="3"/>
-        <v>142.4425</v>
+        <v>156.68675000000002</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="4"/>
-        <v>95.631616718669392</v>
+        <v>86.846924289699444</v>
       </c>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="T30" s="5">
         <f t="shared" si="3"/>
-        <v>142.43819999999999</v>
+        <v>156.68201999999999</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="4"/>
-        <v>95.634533885215234</v>
+        <v>86.849576259286579</v>
       </c>
       <c r="W30" s="2"/>
     </row>
@@ -2741,11 +2741,11 @@
       </c>
       <c r="T31" s="5">
         <f t="shared" si="3"/>
-        <v>279.4821</v>
+        <v>307.43031000000002</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="4"/>
-        <v>48.249841275878005</v>
+        <v>43.772582978070915</v>
       </c>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
@@ -2798,11 +2798,11 @@
       </c>
       <c r="T32" s="5">
         <f t="shared" si="3"/>
-        <v>688.49189999999999</v>
+        <v>757.34109000000001</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="4"/>
-        <v>18.992172841029888</v>
+        <v>17.174702582754442</v>
       </c>
     </row>
     <row r="33" spans="4:23" x14ac:dyDescent="0.25">
@@ -2821,11 +2821,11 @@
       </c>
       <c r="T33" s="5">
         <f t="shared" si="3"/>
-        <v>688.50469999999996</v>
+        <v>757.35517000000004</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="4"/>
-        <v>18.991801166279714</v>
+        <v>17.174364696617921</v>
       </c>
     </row>
     <row r="36" spans="4:23" x14ac:dyDescent="0.25">
@@ -2877,16 +2877,16 @@
         <v>1.4</v>
       </c>
       <c r="U38" s="5">
-        <f>ABS(AE6)</f>
-        <v>142.43889999999999</v>
+        <f>ABS(AE6)*1.1</f>
+        <v>156.68279000000001</v>
       </c>
       <c r="V38" s="5">
-        <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>221.62306193246428</v>
+        <f>SQRT((1.1*AF6)^2 +(1.1* AG6)^2)</f>
+        <v>243.7853681257107</v>
       </c>
       <c r="W38" s="4">
         <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
-        <v>7.4470153086152635</v>
+        <v>6.6710751502817525</v>
       </c>
     </row>
     <row r="39" spans="4:23" x14ac:dyDescent="0.25">
@@ -2906,16 +2906,16 @@
         <v>1.4</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" ref="U39:U49" si="5">ABS(AE7)</f>
-        <v>688.49419999999998</v>
+        <f t="shared" ref="U39:U49" si="5">ABS(AE7)*1.1</f>
+        <v>757.34361999999999</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" ref="V39:V49" si="6">SQRT(AF7^2 + AG7^2)</f>
-        <v>99.992493674349376</v>
+        <f t="shared" ref="V39:V49" si="6">SQRT((1.1*AF7)^2 +(1.1* AG7)^2)</f>
+        <v>109.99174304178432</v>
       </c>
       <c r="W39" s="4">
         <f t="shared" ref="W39:W49" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
-        <v>16.971446966190555</v>
+        <v>15.251655535382909</v>
       </c>
     </row>
     <row r="40" spans="4:23" x14ac:dyDescent="0.25">
@@ -2936,15 +2936,15 @@
       </c>
       <c r="U40" s="5">
         <f t="shared" si="5"/>
-        <v>688.48109999999997</v>
+        <v>757.32920999999999</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="6"/>
-        <v>99.993957640563963</v>
+        <v>109.99335340462036</v>
       </c>
       <c r="W40" s="4">
         <f t="shared" si="7"/>
-        <v>16.971201858611277</v>
+        <v>15.251435606490524</v>
       </c>
     </row>
     <row r="41" spans="4:23" x14ac:dyDescent="0.25">
@@ -2965,15 +2965,15 @@
       </c>
       <c r="U41" s="5">
         <f t="shared" si="5"/>
-        <v>142.44300000000001</v>
+        <v>156.68730000000002</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="6"/>
-        <v>221.62099592640791</v>
+        <v>243.78309551904871</v>
       </c>
       <c r="W41" s="4">
         <f t="shared" si="7"/>
-        <v>7.4470915113575717</v>
+        <v>6.6711441195168755</v>
       </c>
     </row>
     <row r="42" spans="4:23" x14ac:dyDescent="0.25">
@@ -2994,15 +2994,15 @@
       </c>
       <c r="U42" s="5">
         <f t="shared" si="5"/>
-        <v>279.49189999999999</v>
+        <v>307.44109000000003</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="6"/>
-        <v>510.14411725398304</v>
+        <v>561.15852897938134</v>
       </c>
       <c r="W42" s="4">
         <f t="shared" si="7"/>
-        <v>2.6327350178245048</v>
+        <v>2.2956415809896398</v>
       </c>
     </row>
     <row r="43" spans="4:23" x14ac:dyDescent="0.25">
@@ -3023,15 +3023,15 @@
       </c>
       <c r="U43" s="5">
         <f t="shared" si="5"/>
-        <v>279.49529999999999</v>
+        <v>307.44483000000002</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="6"/>
-        <v>510.14720055072428</v>
+        <v>561.16192060579681</v>
       </c>
       <c r="W43" s="4">
         <f t="shared" si="7"/>
-        <v>2.6327121458825</v>
+        <v>2.2956207464186011</v>
       </c>
     </row>
     <row r="44" spans="4:23" x14ac:dyDescent="0.25">
@@ -3052,15 +3052,15 @@
       </c>
       <c r="U44" s="5">
         <f t="shared" si="5"/>
-        <v>279.48509999999999</v>
+        <v>307.43360999999999</v>
       </c>
       <c r="V44" s="5">
         <f t="shared" si="6"/>
-        <v>510.14146156032052</v>
+        <v>561.15560771635262</v>
       </c>
       <c r="W44" s="4">
         <f t="shared" si="7"/>
-        <v>2.6327557609838985</v>
+        <v>2.2956605693085197</v>
       </c>
     </row>
     <row r="45" spans="4:23" x14ac:dyDescent="0.25">
@@ -3081,15 +3081,15 @@
       </c>
       <c r="U45" s="5">
         <f t="shared" si="5"/>
-        <v>142.4425</v>
+        <v>156.68675000000002</v>
       </c>
       <c r="V45" s="5">
         <f t="shared" si="6"/>
-        <v>221.62033901830151</v>
+        <v>243.78237292013168</v>
       </c>
       <c r="W45" s="4">
         <f t="shared" si="7"/>
-        <v>7.4471168595598183</v>
+        <v>6.6711671677220457</v>
       </c>
     </row>
     <row r="46" spans="4:23" x14ac:dyDescent="0.25">
@@ -3110,15 +3110,15 @@
       </c>
       <c r="U46" s="5">
         <f t="shared" si="5"/>
-        <v>142.43819999999999</v>
+        <v>156.68201999999999</v>
       </c>
       <c r="V46" s="5">
         <f t="shared" si="6"/>
-        <v>221.62312305565251</v>
+        <v>243.78543536121776</v>
       </c>
       <c r="W46" s="4">
         <f t="shared" si="7"/>
-        <v>7.4470134130165491</v>
+        <v>6.6710734686856936</v>
       </c>
     </row>
     <row r="47" spans="4:23" x14ac:dyDescent="0.25">
@@ -3139,15 +3139,15 @@
       </c>
       <c r="U47" s="5">
         <f t="shared" si="5"/>
-        <v>279.4821</v>
+        <v>307.43031000000002</v>
       </c>
       <c r="V47" s="5">
         <f t="shared" si="6"/>
-        <v>510.13985238975289</v>
+        <v>561.1538376287283</v>
       </c>
       <c r="W47" s="4">
         <f t="shared" si="7"/>
-        <v>2.6327680282265664</v>
+        <v>2.2956717732277516</v>
       </c>
     </row>
     <row r="48" spans="4:23" x14ac:dyDescent="0.25">
@@ -3168,15 +3168,15 @@
       </c>
       <c r="U48" s="5">
         <f t="shared" si="5"/>
-        <v>688.49189999999999</v>
+        <v>757.34109000000001</v>
       </c>
       <c r="V48" s="5">
         <f t="shared" si="6"/>
-        <v>99.977868407199992</v>
+        <v>109.97565524792</v>
       </c>
       <c r="W48" s="4">
         <f t="shared" si="7"/>
-        <v>16.974079081706201</v>
+        <v>15.254036071128777</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -3197,15 +3197,15 @@
       </c>
       <c r="U49" s="5">
         <f t="shared" si="5"/>
-        <v>688.50469999999996</v>
+        <v>757.35517000000004</v>
       </c>
       <c r="V49" s="5">
         <f t="shared" si="6"/>
-        <v>99.977863786550273</v>
+        <v>109.97565016520529</v>
       </c>
       <c r="W49" s="4">
         <f t="shared" si="7"/>
-        <v>16.974062317657371</v>
+        <v>15.254019227585182</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
@@ -3295,20 +3295,20 @@
         <v>655000000</v>
       </c>
       <c r="Z54" s="5">
-        <f>ABS(AE6)</f>
-        <v>142.43889999999999</v>
+        <f>ABS(AE6)*1.1</f>
+        <v>156.68279000000001</v>
       </c>
       <c r="AA54" s="5">
-        <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>221.62306193246428</v>
+        <f>SQRT((1.1*AF6)^2 +(1.1* AG6)^2)</f>
+        <v>243.7853681257107</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.58182997331684971</v>
+        <v>0.5817402917486314</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.83095710410450074</v>
+        <v>0.83073983170235244</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -3343,20 +3343,20 @@
         <v>655000000</v>
       </c>
       <c r="Z55" s="5">
-        <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)</f>
-        <v>688.49419999999998</v>
+        <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)*1.1</f>
+        <v>757.34361999999999</v>
       </c>
       <c r="AA55" s="5">
-        <f t="shared" ref="AA55:AA65" si="9">SQRT(AF7^2 + AG7^2)</f>
-        <v>99.992493674349376</v>
+        <f t="shared" ref="AA55:AA65" si="9">SQRT((1.1*AF7)^2 +(1.1* AG7)^2)</f>
+        <v>109.99174304178432</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" ref="AB55:AB65" si="10">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.58053028587484312</v>
+        <v>0.58033204535860694</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" ref="AC55:AC65" si="11">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.82912520547956636</v>
+        <v>0.82878960801385726</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -3392,19 +3392,19 @@
       </c>
       <c r="Z56" s="5">
         <f t="shared" si="8"/>
-        <v>688.48109999999997</v>
+        <v>757.32920999999999</v>
       </c>
       <c r="AA56" s="5">
         <f t="shared" si="9"/>
-        <v>99.993957640563963</v>
+        <v>109.99335340462036</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="10"/>
-        <v>0.58053032020176865</v>
+        <v>0.58033208295071104</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="11"/>
-        <v>0.82912525902570655</v>
+        <v>0.82878966641292817</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -3440,19 +3440,19 @@
       </c>
       <c r="Z57" s="5">
         <f t="shared" si="8"/>
-        <v>142.44300000000001</v>
+        <v>156.68730000000002</v>
       </c>
       <c r="AA57" s="5">
         <f t="shared" si="9"/>
-        <v>221.62099592640791</v>
+        <v>243.78309551904871</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="10"/>
-        <v>0.58182996661164177</v>
+        <v>0.58174028486932583</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="11"/>
-        <v>0.83095709964260256</v>
+        <v>0.83073982830106252</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -3488,19 +3488,19 @@
       </c>
       <c r="Z58" s="5">
         <f t="shared" si="8"/>
-        <v>279.49189999999999</v>
+        <v>307.44109000000003</v>
       </c>
       <c r="AA58" s="5">
         <f t="shared" si="9"/>
-        <v>510.14411725398304</v>
+        <v>561.15852897938134</v>
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="10"/>
-        <v>0.58041842110707931</v>
+        <v>0.58007415515149607</v>
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="11"/>
-        <v>0.82720458762434323</v>
+        <v>0.82627004503182366</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -3536,19 +3536,19 @@
       </c>
       <c r="Z59" s="5">
         <f t="shared" si="8"/>
-        <v>279.49529999999999</v>
+        <v>307.44483000000002</v>
       </c>
       <c r="AA59" s="5">
         <f t="shared" si="9"/>
-        <v>510.14720055072428</v>
+        <v>561.16192060579681</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="10"/>
-        <v>0.58041839639857473</v>
+        <v>0.58007412629268185</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="11"/>
-        <v>0.82720452590374283</v>
+        <v>0.82626997210729702</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -3584,19 +3584,19 @@
       </c>
       <c r="Z60" s="5">
         <f t="shared" si="8"/>
-        <v>279.48509999999999</v>
+        <v>307.43360999999999</v>
       </c>
       <c r="AA60" s="5">
         <f t="shared" si="9"/>
-        <v>510.14146156032052</v>
+        <v>561.15560771635262</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="10"/>
-        <v>0.58041845294860006</v>
+        <v>0.5800741916166785</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="11"/>
-        <v>0.82720465782913877</v>
+        <v>0.8262701265636192</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -3632,19 +3632,19 @@
       </c>
       <c r="Z61" s="5">
         <f t="shared" si="8"/>
-        <v>142.4425</v>
+        <v>156.68675000000002</v>
       </c>
       <c r="AA61" s="5">
         <f t="shared" si="9"/>
-        <v>221.62033901830151</v>
+        <v>243.78237292013168</v>
       </c>
       <c r="AB61" s="2">
         <f t="shared" si="10"/>
-        <v>0.58182996941116949</v>
+        <v>0.58174028810585909</v>
       </c>
       <c r="AC61" s="2">
         <f t="shared" si="11"/>
-        <v>0.8309571062106027</v>
+        <v>0.83073983600213741</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -3680,19 +3680,19 @@
       </c>
       <c r="Z62" s="5">
         <f t="shared" si="8"/>
-        <v>142.43819999999999</v>
+        <v>156.68201999999999</v>
       </c>
       <c r="AA62" s="5">
         <f t="shared" si="9"/>
-        <v>221.62312305565251</v>
+        <v>243.78543536121776</v>
       </c>
       <c r="AB62" s="2">
         <f t="shared" si="10"/>
-        <v>0.581829975097514</v>
+        <v>0.58174029369242208</v>
       </c>
       <c r="AC62" s="2">
         <f t="shared" si="11"/>
-        <v>0.83095710679906443</v>
+        <v>0.83073983462088674</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -3728,19 +3728,19 @@
       </c>
       <c r="Z63" s="5">
         <f t="shared" si="8"/>
-        <v>279.4821</v>
+        <v>307.43031000000002</v>
       </c>
       <c r="AA63" s="5">
         <f t="shared" si="9"/>
-        <v>510.13985238975289</v>
+        <v>561.1538376287283</v>
       </c>
       <c r="AB63" s="2">
         <f t="shared" si="10"/>
-        <v>0.58041846918659634</v>
+        <v>0.58007421035274964</v>
       </c>
       <c r="AC63" s="2">
         <f t="shared" si="11"/>
-        <v>0.82720469543619268</v>
+        <v>0.82627017054878138</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -3776,19 +3776,19 @@
       </c>
       <c r="Z64" s="5">
         <f t="shared" si="8"/>
-        <v>688.49189999999999</v>
+        <v>757.34109000000001</v>
       </c>
       <c r="AA64" s="5">
         <f t="shared" si="9"/>
-        <v>99.977868407199992</v>
+        <v>109.97565524792</v>
       </c>
       <c r="AB64" s="2">
         <f t="shared" si="10"/>
-        <v>0.58053030650636828</v>
+        <v>0.58033206962373796</v>
       </c>
       <c r="AC64" s="2">
         <f t="shared" si="11"/>
-        <v>0.82912525924874925</v>
+        <v>0.82878967192280761</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -3824,19 +3824,19 @@
       </c>
       <c r="Z65" s="5">
         <f t="shared" si="8"/>
-        <v>688.50469999999996</v>
+        <v>757.35517000000004</v>
       </c>
       <c r="AA65" s="5">
         <f t="shared" si="9"/>
-        <v>99.977863786550273</v>
+        <v>109.97565016520529</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" si="10"/>
-        <v>0.58053027156622461</v>
+        <v>0.58033203119996846</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" si="11"/>
-        <v>0.82912520267778311</v>
+        <v>0.82878960972015059</v>
       </c>
     </row>
   </sheetData>
@@ -6408,8 +6408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E329C4-7E96-4707-A44A-B8116FA21670}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="J28" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6470,6 +6470,12 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
+      <c r="AA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
@@ -6635,16 +6641,16 @@
         <v>1100000000</v>
       </c>
       <c r="X6" s="5">
-        <f>AE6</f>
-        <v>258.26679999999999</v>
+        <f>AE6*$AB$2</f>
+        <v>284.09348</v>
       </c>
       <c r="Y6" s="2">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.5817548818126177</v>
+        <v>0.58168426526764017</v>
       </c>
       <c r="Z6" s="2">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.83117863032125605</v>
+        <v>0.83106420010295756</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -6702,16 +6708,16 @@
         <v>1100000000</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" ref="X7:X17" si="0">AE7</f>
-        <v>671.98779999999999</v>
+        <f t="shared" ref="X7:X17" si="0">AE7*$AB$2</f>
+        <v>739.18658000000005</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.58062442404163273</v>
+        <v>0.58044096156160729</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.82934727633915384</v>
+        <v>0.82905016376982976</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -6764,16 +6770,16 @@
         <v>1100000000</v>
       </c>
       <c r="X8" s="5">
-        <f t="shared" si="0"/>
-        <v>671.97590000000002</v>
+        <f>AE8*$AB$2</f>
+        <v>739.17349000000013</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="1"/>
-        <v>0.58062445653414207</v>
+        <v>0.58044099729507126</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="2"/>
-        <v>0.82934732896234142</v>
+        <v>0.82905022163653475</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -6830,15 +6836,15 @@
       </c>
       <c r="X9" s="5">
         <f t="shared" si="0"/>
-        <v>258.26670000000001</v>
+        <v>284.09337000000005</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="1"/>
-        <v>0.58175488208605453</v>
+        <v>0.58168426556839425</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="2"/>
-        <v>0.83117863076435339</v>
+        <v>0.83106420059030373</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -6892,15 +6898,15 @@
       </c>
       <c r="X10" s="5">
         <f t="shared" si="0"/>
-        <v>671.97739999999999</v>
+        <v>739.17514000000006</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="1"/>
-        <v>0.5806244524384474</v>
+        <v>0.58044099279085293</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="2"/>
-        <v>0.8293473223291663</v>
+        <v>0.82905021434241211</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -6957,15 +6963,15 @@
       </c>
       <c r="X11" s="5">
         <f t="shared" si="0"/>
-        <v>671.99210000000005</v>
+        <v>739.19131000000016</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
-        <v>0.58062441230064232</v>
+        <v>0.58044094864951568</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="2"/>
-        <v>0.82934725732405323</v>
+        <v>0.82905014286001277</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -7052,15 +7058,15 @@
       </c>
       <c r="X12" s="5">
         <f t="shared" si="0"/>
-        <v>671.98659999999995</v>
+        <v>739.18525999999997</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="1"/>
-        <v>0.5806244273181882</v>
+        <v>0.58044096516498178</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="2"/>
-        <v>0.82934728164569393</v>
+        <v>0.82905016960512756</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -7149,15 +7155,15 @@
       </c>
       <c r="X13" s="5">
         <f t="shared" si="0"/>
-        <v>258.26670000000001</v>
+        <v>284.09337000000005</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>0.58175488208605453</v>
+        <v>0.58168426556839425</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="2"/>
-        <v>0.83117863076435339</v>
+        <v>0.83106420059030373</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -7216,15 +7222,15 @@
       </c>
       <c r="X14" s="5">
         <f t="shared" si="0"/>
-        <v>258.26650000000001</v>
+        <v>284.09315000000004</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>0.58175488263292863</v>
+        <v>0.58168426616990176</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="2"/>
-        <v>0.83117863165054828</v>
+        <v>0.8310642015649965</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -7281,15 +7287,15 @@
       </c>
       <c r="X15" s="5">
         <f t="shared" si="0"/>
-        <v>671.98019999999997</v>
+        <v>739.17822000000001</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>0.58062444479315101</v>
+        <v>0.5804409843829792</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="2"/>
-        <v>0.82934730994723971</v>
+        <v>0.82905020072671642</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -7376,15 +7382,15 @@
       </c>
       <c r="X16" s="5">
         <f t="shared" si="0"/>
-        <v>671.98130000000003</v>
+        <v>739.17943000000014</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>0.58062444178964201</v>
+        <v>0.58044098107988584</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="2"/>
-        <v>0.82934730508291143</v>
+        <v>0.82905019537769342</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -7473,15 +7479,15 @@
       </c>
       <c r="X17" s="5">
         <f t="shared" si="0"/>
-        <v>671.99069999999995</v>
+        <v>739.18976999999995</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>0.5806244161232903</v>
+        <v>0.58044095285345243</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="2"/>
-        <v>0.82934726351501609</v>
+        <v>0.82905014966785995</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -7633,12 +7639,12 @@
         <v>1</v>
       </c>
       <c r="T22" s="5">
-        <f>ABS(AE6)</f>
-        <v>258.26679999999999</v>
+        <f>ABS(AE6)*$AB$2</f>
+        <v>284.09348</v>
       </c>
       <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>52.295464474911469</v>
+        <v>47.450422249919512</v>
       </c>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
@@ -7655,12 +7661,12 @@
         <v>1</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" ref="T23:T33" si="3">ABS(AE7)</f>
-        <v>671.98779999999999</v>
+        <f t="shared" ref="T23:T33" si="3">ABS(AE7)*$AB$2</f>
+        <v>739.18658000000005</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" ref="U23:U33" si="4">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>19.483182975121075</v>
+        <v>17.621075431928247</v>
       </c>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
@@ -7678,11 +7684,11 @@
       </c>
       <c r="T24" s="5">
         <f t="shared" si="3"/>
-        <v>671.97590000000002</v>
+        <v>739.17349000000013</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="4"/>
-        <v>19.48354571116176</v>
+        <v>17.621405191965234</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
@@ -7701,11 +7707,11 @@
       </c>
       <c r="T25" s="5">
         <f t="shared" si="3"/>
-        <v>258.26670000000001</v>
+        <v>284.09337000000005</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="4"/>
-        <v>52.29548511073655</v>
+        <v>47.450441009760489</v>
       </c>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
@@ -7726,11 +7732,11 @@
       </c>
       <c r="T26" s="5">
         <f t="shared" si="3"/>
-        <v>671.97739999999999</v>
+        <v>739.17514000000006</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="4"/>
-        <v>19.48349998742378</v>
+        <v>17.621363624930709</v>
       </c>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
@@ -7781,11 +7787,11 @@
       </c>
       <c r="T27" s="5">
         <f t="shared" si="3"/>
-        <v>671.99210000000005</v>
+        <v>739.19131000000016</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="4"/>
-        <v>19.483051905593925</v>
+        <v>17.620956277812656</v>
       </c>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
@@ -7838,11 +7844,11 @@
       </c>
       <c r="T28" s="5">
         <f t="shared" si="3"/>
-        <v>671.98659999999995</v>
+        <v>739.18525999999997</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="4"/>
-        <v>19.483219552962911</v>
+        <v>17.621108684511736</v>
       </c>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
@@ -7865,11 +7871,11 @@
       </c>
       <c r="T29" s="5">
         <f t="shared" si="3"/>
-        <v>258.26670000000001</v>
+        <v>284.09337000000005</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="4"/>
-        <v>52.29548511073655</v>
+        <v>47.450441009760489</v>
       </c>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
@@ -7890,11 +7896,11 @@
       </c>
       <c r="T30" s="5">
         <f t="shared" si="3"/>
-        <v>258.26650000000001</v>
+        <v>284.09315000000004</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="4"/>
-        <v>52.295526382434673</v>
+        <v>47.450478529486062</v>
       </c>
       <c r="W30" s="2"/>
     </row>
@@ -7946,11 +7952,11 @@
       </c>
       <c r="T31" s="5">
         <f t="shared" si="3"/>
-        <v>671.98019999999997</v>
+        <v>739.17822000000001</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="4"/>
-        <v>19.483414636992379</v>
+        <v>17.621286033629431</v>
       </c>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
@@ -8003,11 +8009,11 @@
       </c>
       <c r="T32" s="5">
         <f t="shared" si="3"/>
-        <v>671.98130000000003</v>
+        <v>739.17943000000014</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="4"/>
-        <v>19.483381106660353</v>
+        <v>17.62125555150941</v>
       </c>
     </row>
     <row r="33" spans="16:23" x14ac:dyDescent="0.25">
@@ -8025,11 +8031,11 @@
       </c>
       <c r="T33" s="5">
         <f t="shared" si="3"/>
-        <v>671.99069999999995</v>
+        <v>739.18976999999995</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="4"/>
-        <v>19.483094579209304</v>
+        <v>17.620995072008458</v>
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
@@ -8081,16 +8087,16 @@
         <v>1.4</v>
       </c>
       <c r="U38" s="5">
-        <f>ABS(AE6)</f>
-        <v>258.26679999999999</v>
+        <f>ABS(AE6)*$AB$2</f>
+        <v>284.09348</v>
       </c>
       <c r="V38" s="5">
-        <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>63.062533393168565</v>
+        <f>SQRT((AF6*$AB$2)^2 + (AG6*$AB$2)^2)</f>
+        <v>69.368786732485432</v>
       </c>
       <c r="W38" s="4">
         <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
-        <v>28.433250365711036</v>
+        <v>25.706334326767646</v>
       </c>
     </row>
     <row r="39" spans="16:23" x14ac:dyDescent="0.25">
@@ -8110,16 +8116,16 @@
         <v>1.4</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" ref="U39:U49" si="5">ABS(AE7)</f>
-        <v>671.98779999999999</v>
+        <f t="shared" ref="U39:U49" si="5">ABS(AE7)*$AB$2</f>
+        <v>739.18658000000005</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" ref="V39:V49" si="6">SQRT(AF7^2 + AG7^2)</f>
-        <v>126.52446793162808</v>
+        <f t="shared" ref="V39:V49" si="6">SQRT((AF7*$AB$2)^2 + (AG7*$AB$2)^2)</f>
+        <v>139.17691472479089</v>
       </c>
       <c r="W39" s="4">
         <f t="shared" ref="W39:W49" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
-        <v>13.22079284324235</v>
+        <v>11.861638866328086</v>
       </c>
     </row>
     <row r="40" spans="16:23" x14ac:dyDescent="0.25">
@@ -8140,15 +8146,15 @@
       </c>
       <c r="U40" s="5">
         <f t="shared" si="5"/>
-        <v>671.97590000000002</v>
+        <v>739.17349000000013</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="6"/>
-        <v>126.52079132873774</v>
+        <v>139.17287046161155</v>
       </c>
       <c r="W40" s="4">
         <f t="shared" si="7"/>
-        <v>13.221219015158477</v>
+        <v>11.862025542210494</v>
       </c>
     </row>
     <row r="41" spans="16:23" x14ac:dyDescent="0.25">
@@ -8169,15 +8175,15 @@
       </c>
       <c r="U41" s="5">
         <f t="shared" si="5"/>
-        <v>258.26670000000001</v>
+        <v>284.09337000000005</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="6"/>
-        <v>63.061274742904622</v>
+        <v>69.367402217195092</v>
       </c>
       <c r="W41" s="4">
         <f t="shared" si="7"/>
-        <v>28.433838046682435</v>
+        <v>25.706867580777246</v>
       </c>
     </row>
     <row r="42" spans="16:23" x14ac:dyDescent="0.25">
@@ -8198,15 +8204,15 @@
       </c>
       <c r="U42" s="5">
         <f t="shared" si="5"/>
-        <v>671.97739999999999</v>
+        <v>739.17514000000006</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="6"/>
-        <v>126.52104475595469</v>
+        <v>139.17314923155016</v>
       </c>
       <c r="W42" s="4">
         <f t="shared" si="7"/>
-        <v>13.221188900114603</v>
+        <v>11.861998149690928</v>
       </c>
     </row>
     <row r="43" spans="16:23" x14ac:dyDescent="0.25">
@@ -8227,15 +8233,15 @@
       </c>
       <c r="U43" s="5">
         <f t="shared" si="5"/>
-        <v>671.99210000000005</v>
+        <v>739.19131000000016</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="6"/>
-        <v>126.52410242623628</v>
+        <v>139.17651266885991</v>
       </c>
       <c r="W43" s="4">
         <f t="shared" si="7"/>
-        <v>13.220829253961845</v>
+        <v>11.861671350696021</v>
       </c>
     </row>
     <row r="44" spans="16:23" x14ac:dyDescent="0.25">
@@ -8256,15 +8262,15 @@
       </c>
       <c r="U44" s="5">
         <f t="shared" si="5"/>
-        <v>671.98659999999995</v>
+        <v>739.18525999999997</v>
       </c>
       <c r="V44" s="5">
         <f t="shared" si="6"/>
-        <v>126.52413295154655</v>
+        <v>139.17654624670121</v>
       </c>
       <c r="W44" s="4">
         <f t="shared" si="7"/>
-        <v>13.220831797049161</v>
+        <v>11.861674221694823</v>
       </c>
     </row>
     <row r="45" spans="16:23" x14ac:dyDescent="0.25">
@@ -8285,15 +8291,15 @@
       </c>
       <c r="U45" s="5">
         <f t="shared" si="5"/>
-        <v>258.26670000000001</v>
+        <v>284.09337000000005</v>
       </c>
       <c r="V45" s="5">
         <f t="shared" si="6"/>
-        <v>63.061281824595035</v>
+        <v>69.367410007054545</v>
       </c>
       <c r="W45" s="4">
         <f t="shared" si="7"/>
-        <v>28.433834741305148</v>
+        <v>25.706864581634782</v>
       </c>
     </row>
     <row r="46" spans="16:23" x14ac:dyDescent="0.25">
@@ -8314,15 +8320,15 @@
       </c>
       <c r="U46" s="5">
         <f t="shared" si="5"/>
-        <v>258.26650000000001</v>
+        <v>284.09315000000004</v>
       </c>
       <c r="V46" s="5">
         <f t="shared" si="6"/>
-        <v>63.059994879874516</v>
+        <v>69.365994367861973</v>
       </c>
       <c r="W46" s="4">
         <f t="shared" si="7"/>
-        <v>28.434435870499836</v>
+        <v>25.707410058115627</v>
       </c>
     </row>
     <row r="47" spans="16:23" x14ac:dyDescent="0.25">
@@ -8343,15 +8349,15 @@
       </c>
       <c r="U47" s="5">
         <f t="shared" si="5"/>
-        <v>671.98019999999997</v>
+        <v>739.17822000000001</v>
       </c>
       <c r="V47" s="5">
         <f t="shared" si="6"/>
-        <v>126.52053120449708</v>
+        <v>139.1725843249468</v>
       </c>
       <c r="W47" s="4">
         <f t="shared" si="7"/>
-        <v>13.221243583036204</v>
+        <v>11.86204731560762</v>
       </c>
     </row>
     <row r="48" spans="16:23" x14ac:dyDescent="0.25">
@@ -8372,15 +8378,15 @@
       </c>
       <c r="U48" s="5">
         <f t="shared" si="5"/>
-        <v>671.98130000000003</v>
+        <v>739.17943000000014</v>
       </c>
       <c r="V48" s="5">
         <f t="shared" si="6"/>
-        <v>126.52076140994994</v>
+        <v>139.17283755094493</v>
       </c>
       <c r="W48" s="4">
         <f t="shared" si="7"/>
-        <v>13.221216512544299</v>
+        <v>11.86202271818329</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -8401,15 +8407,15 @@
       </c>
       <c r="U49" s="5">
         <f t="shared" si="5"/>
-        <v>671.99069999999995</v>
+        <v>739.18976999999995</v>
       </c>
       <c r="V49" s="5">
         <f t="shared" si="6"/>
-        <v>126.52385456016698</v>
+        <v>139.1762400161837</v>
       </c>
       <c r="W49" s="4">
         <f t="shared" si="7"/>
-        <v>13.220858633884408</v>
+        <v>11.861698067965536</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
@@ -8499,20 +8505,20 @@
         <v>655000000</v>
       </c>
       <c r="Z54" s="5">
-        <f>ABS(AE6)</f>
-        <v>258.26679999999999</v>
+        <f>ABS(AE6)*$AB$2</f>
+        <v>284.09348</v>
       </c>
       <c r="AA54" s="5">
-        <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>63.062533393168565</v>
+        <f>SQRT((AF6*$AB$2)^2 + (AG6*$AB$2)^2)</f>
+        <v>69.368786732485432</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.58173532045297338</v>
+        <v>0.58166059928457359</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.83111914407193965</v>
+        <v>0.8309922359700681</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -8547,20 +8553,20 @@
         <v>655000000</v>
       </c>
       <c r="Z55" s="5">
-        <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)</f>
-        <v>671.98779999999999</v>
+        <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)*$AB$2</f>
+        <v>739.18658000000005</v>
       </c>
       <c r="AA55" s="5">
-        <f t="shared" ref="AA55:AA65" si="9">SQRT(AF7^2 + AG7^2)</f>
-        <v>126.52446793162808</v>
+        <f t="shared" ref="AA55:AA65" si="9">SQRT((AF7*$AB$2)^2 + (AG7*$AB$2)^2)</f>
+        <v>139.17691472479089</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" ref="AB55:AB65" si="10">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.58054585536488501</v>
+        <v>0.58034592804845575</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" ref="AC55:AC65" si="11">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.82910857476004285</v>
+        <v>0.82876148740886624</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -8596,19 +8602,19 @@
       </c>
       <c r="Z56" s="5">
         <f t="shared" si="8"/>
-        <v>671.97590000000002</v>
+        <v>739.17349000000013</v>
       </c>
       <c r="AA56" s="5">
         <f t="shared" si="9"/>
-        <v>126.52079132873774</v>
+        <v>139.17287046161155</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054589241830801</v>
+        <v>0.58034596929794624</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="11"/>
-        <v>0.82910864123230654</v>
+        <v>0.82876156202092899</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -8644,19 +8650,19 @@
       </c>
       <c r="Z57" s="5">
         <f t="shared" si="8"/>
-        <v>258.26670000000001</v>
+        <v>284.09337000000005</v>
       </c>
       <c r="AA57" s="5">
         <f t="shared" si="9"/>
-        <v>63.061274742904622</v>
+        <v>69.367402217195092</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="10"/>
-        <v>0.58173532150721918</v>
+        <v>0.58166060052997093</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="11"/>
-        <v>0.83111914688939881</v>
+        <v>0.83099223932978949</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -8692,19 +8698,19 @@
       </c>
       <c r="Z58" s="5">
         <f t="shared" si="8"/>
-        <v>671.97739999999999</v>
+        <v>739.17514000000006</v>
       </c>
       <c r="AA58" s="5">
         <f t="shared" si="9"/>
-        <v>126.52104475595469</v>
+        <v>139.17314923155016</v>
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054588800851215</v>
+        <v>0.58034596441388309</v>
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="11"/>
-        <v>0.82910863364570786</v>
+        <v>0.82876155357413372</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -8740,19 +8746,19 @@
       </c>
       <c r="Z59" s="5">
         <f t="shared" si="8"/>
-        <v>671.99210000000005</v>
+        <v>739.19131000000016</v>
       </c>
       <c r="AA59" s="5">
         <f t="shared" si="9"/>
-        <v>126.52410242623628</v>
+        <v>139.17651266885991</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054584407955101</v>
+        <v>0.58034591568771066</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="11"/>
-        <v>0.8291085571312411</v>
+        <v>0.82876146817641416</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -8788,19 +8794,19 @@
       </c>
       <c r="Z60" s="5">
         <f t="shared" si="8"/>
-        <v>671.98659999999995</v>
+        <v>739.18525999999997</v>
       </c>
       <c r="AA60" s="5">
         <f t="shared" si="9"/>
-        <v>126.52413295154655</v>
+        <v>139.17654624670121</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054585905694989</v>
+        <v>0.58034593215434649</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="11"/>
-        <v>0.8291085813282062</v>
+        <v>0.8287614947696087</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -8836,19 +8842,19 @@
       </c>
       <c r="Z61" s="5">
         <f t="shared" si="8"/>
-        <v>258.26670000000001</v>
+        <v>284.09337000000005</v>
       </c>
       <c r="AA61" s="5">
         <f t="shared" si="9"/>
-        <v>63.061281824595035</v>
+        <v>69.367410007054545</v>
       </c>
       <c r="AB61" s="2">
         <f t="shared" si="10"/>
-        <v>0.58173532150282625</v>
+        <v>0.58166060052465607</v>
       </c>
       <c r="AC61" s="2">
         <f t="shared" si="11"/>
-        <v>0.83111914687603949</v>
+        <v>0.8309922393136282</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -8884,19 +8890,19 @@
       </c>
       <c r="Z62" s="5">
         <f t="shared" si="8"/>
-        <v>258.26650000000001</v>
+        <v>284.09315000000004</v>
       </c>
       <c r="AA62" s="5">
         <f t="shared" si="9"/>
-        <v>63.059994879874516</v>
+        <v>69.365994367861973</v>
       </c>
       <c r="AB62" s="2">
         <f t="shared" si="10"/>
-        <v>0.58173532284803509</v>
+        <v>0.58166060209201009</v>
       </c>
       <c r="AC62" s="2">
         <f t="shared" si="11"/>
-        <v>0.83111915018988047</v>
+        <v>0.83099224322515131</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -8932,19 +8938,19 @@
       </c>
       <c r="Z63" s="5">
         <f t="shared" si="8"/>
-        <v>671.98019999999997</v>
+        <v>739.17822000000001</v>
       </c>
       <c r="AA63" s="5">
         <f t="shared" si="9"/>
-        <v>126.52053120449708</v>
+        <v>139.1725843249468</v>
       </c>
       <c r="AB63" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054588100209603</v>
+        <v>0.58034595677889889</v>
       </c>
       <c r="AC63" s="2">
         <f t="shared" si="11"/>
-        <v>0.82910862320592837</v>
+        <v>0.82876154230768373</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -8980,19 +8986,19 @@
       </c>
       <c r="Z64" s="5">
         <f t="shared" si="8"/>
-        <v>671.98130000000003</v>
+        <v>739.17943000000014</v>
       </c>
       <c r="AA64" s="5">
         <f t="shared" si="9"/>
-        <v>126.52076140994994</v>
+        <v>139.17283755094493</v>
       </c>
       <c r="AB64" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054587771316046</v>
+        <v>0.58034595313062454</v>
       </c>
       <c r="AC64" s="2">
         <f t="shared" si="11"/>
-        <v>0.82910861747508702</v>
+        <v>0.82876153591100654</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -9028,19 +9034,19 @@
       </c>
       <c r="Z65" s="5">
         <f t="shared" si="8"/>
-        <v>671.99069999999995</v>
+        <v>739.18976999999995</v>
       </c>
       <c r="AA65" s="5">
         <f t="shared" si="9"/>
-        <v>126.52385456016698</v>
+        <v>139.1762400161837</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" si="10"/>
-        <v>0.58054584820944299</v>
+        <v>0.58034592026320264</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" si="11"/>
-        <v>0.82910856425484414</v>
+        <v>0.82876147611182183</v>
       </c>
     </row>
   </sheetData>
@@ -9114,8 +9120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29E2087-3134-4CBC-BDF3-11097EF74533}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9176,6 +9182,12 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
+      <c r="AA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
@@ -9341,16 +9353,16 @@
         <v>1100000000</v>
       </c>
       <c r="X6" s="5">
-        <f>AE22</f>
-        <v>1434.5537999999999</v>
+        <f>AE22*$AB$2</f>
+        <v>1578.00918</v>
       </c>
       <c r="Y6" s="7">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.57854500507693163</v>
+        <v>0.57815443208029027</v>
       </c>
       <c r="Z6" s="7">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.82598132534047286</v>
+        <v>0.82534949996408757</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -9405,16 +9417,16 @@
         <v>1100000000</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" ref="X7:X17" si="0">AE23</f>
-        <v>5592.6149999999998</v>
+        <f t="shared" ref="X7:X17" si="0">AE23*$AB$2</f>
+        <v>6151.8765000000003</v>
       </c>
       <c r="Y7" s="7">
         <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.56730207627628104</v>
+        <v>0.56580210338512549</v>
       </c>
       <c r="Z7" s="7">
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.80784347158910541</v>
+        <v>0.8054313755487561</v>
       </c>
       <c r="AD7">
         <v>2</v>
@@ -9465,15 +9477,15 @@
       </c>
       <c r="X8" s="5">
         <f t="shared" si="0"/>
-        <v>5592.5129999999999</v>
+        <v>6151.7643000000007</v>
       </c>
       <c r="Y8" s="7">
         <f>((Q8*U8)/(R8+S8*X8*T8))-1</f>
-        <v>0.56730235010851637</v>
+        <v>0.56580240402431392</v>
       </c>
       <c r="Z8" s="7">
         <f t="shared" si="2"/>
-        <v>0.80784391210318107</v>
+        <v>0.80543185882206081</v>
       </c>
       <c r="AD8">
         <v>3</v>
@@ -9527,15 +9539,15 @@
       </c>
       <c r="X9" s="5">
         <f t="shared" si="0"/>
-        <v>1434.5676000000001</v>
+        <v>1578.0243600000001</v>
       </c>
       <c r="Y9" s="7">
         <f t="shared" si="1"/>
-        <v>0.57854496749562112</v>
+        <v>0.57815439076130337</v>
       </c>
       <c r="Z9" s="7">
         <f t="shared" si="2"/>
-        <v>0.8259812645396305</v>
+        <v>0.82534943312943754</v>
       </c>
       <c r="AD9">
         <v>4</v>
@@ -9586,15 +9598,15 @@
       </c>
       <c r="X10" s="5">
         <f t="shared" si="0"/>
-        <v>2224.6469999999999</v>
+        <v>2447.1116999999999</v>
       </c>
       <c r="Y10" s="7">
         <f t="shared" si="1"/>
-        <v>0.5763962861894163</v>
+        <v>0.5757923314412583</v>
       </c>
       <c r="Z10" s="7">
         <f t="shared" si="2"/>
-        <v>0.82250691026269585</v>
+        <v>0.82153101159920405</v>
       </c>
       <c r="AD10">
         <v>5</v>
@@ -9648,15 +9660,15 @@
       </c>
       <c r="X11" s="5">
         <f t="shared" si="0"/>
-        <v>2224.6803</v>
+        <v>2447.14833</v>
       </c>
       <c r="Y11" s="7">
         <f t="shared" si="1"/>
-        <v>0.57639619575079748</v>
+        <v>0.57579223203499219</v>
       </c>
       <c r="Z11" s="7">
         <f t="shared" si="2"/>
-        <v>0.822506764105424</v>
+        <v>0.82153085099833856</v>
       </c>
       <c r="AD11">
         <v>6</v>
@@ -9740,15 +9752,15 @@
       </c>
       <c r="X12" s="5">
         <f t="shared" si="0"/>
-        <v>2224.6646999999998</v>
+        <v>2447.1311700000001</v>
       </c>
       <c r="Y12" s="7">
         <f t="shared" si="1"/>
-        <v>0.57639623811843732</v>
+        <v>0.57579227860369175</v>
       </c>
       <c r="Z12" s="7">
         <f t="shared" si="2"/>
-        <v>0.82250683257549451</v>
+        <v>0.8215309262347763</v>
       </c>
       <c r="AD12">
         <v>7</v>
@@ -9834,15 +9846,15 @@
       </c>
       <c r="X13" s="5">
         <f t="shared" si="0"/>
-        <v>1434.5697</v>
+        <v>1578.0266700000002</v>
       </c>
       <c r="Y13" s="7">
         <f t="shared" si="1"/>
-        <v>0.57854496177672621</v>
+        <v>0.57815438447363166</v>
       </c>
       <c r="Z13" s="7">
         <f t="shared" si="2"/>
-        <v>0.82598125528732869</v>
+        <v>0.82534942295894753</v>
       </c>
       <c r="AD13">
         <v>8</v>
@@ -9898,15 +9910,15 @@
       </c>
       <c r="X14" s="5">
         <f t="shared" si="0"/>
-        <v>1434.5562</v>
+        <v>1578.0118200000002</v>
       </c>
       <c r="Y14" s="7">
         <f t="shared" si="1"/>
-        <v>0.57854499854105135</v>
+        <v>0.57815442489437929</v>
       </c>
       <c r="Z14" s="7">
         <f t="shared" si="2"/>
-        <v>0.82598131476641323</v>
+        <v>0.82534948834066979</v>
       </c>
       <c r="AD14">
         <v>9</v>
@@ -9960,15 +9972,15 @@
       </c>
       <c r="X15" s="5">
         <f t="shared" si="0"/>
-        <v>2224.6410000000001</v>
+        <v>2447.1051000000002</v>
       </c>
       <c r="Y15" s="7">
         <f t="shared" si="1"/>
-        <v>0.57639630248466367</v>
+        <v>0.57579234935229873</v>
       </c>
       <c r="Z15" s="7">
         <f t="shared" si="2"/>
-        <v>0.82250693659734186</v>
+        <v>0.82153104053629988</v>
       </c>
       <c r="AD15">
         <v>10</v>
@@ -10052,15 +10064,15 @@
       </c>
       <c r="X16" s="5">
         <f t="shared" si="0"/>
-        <v>5592.6509999999998</v>
+        <v>6151.9161000000004</v>
       </c>
       <c r="Y16" s="7">
         <f t="shared" si="1"/>
-        <v>0.5673019796296328</v>
+        <v>0.56580199727720393</v>
       </c>
       <c r="Z16" s="7">
         <f t="shared" si="2"/>
-        <v>0.8078433161136005</v>
+        <v>0.80543120498176912</v>
       </c>
       <c r="AD16">
         <v>11</v>
@@ -10146,15 +10158,15 @@
       </c>
       <c r="X17" s="5">
         <f t="shared" si="0"/>
-        <v>5592.7470000000003</v>
+        <v>6152.0217000000011</v>
       </c>
       <c r="Y17" s="7">
         <f t="shared" si="1"/>
-        <v>0.56730172190529515</v>
+        <v>0.56580171432281734</v>
       </c>
       <c r="Z17" s="7">
         <f t="shared" si="2"/>
-        <v>0.80784290151238491</v>
+        <v>0.80543075013662824</v>
       </c>
       <c r="AD17">
         <v>12</v>
@@ -10345,12 +10357,12 @@
         <v>1</v>
       </c>
       <c r="T22" s="5">
-        <f>AE22</f>
-        <v>1434.5537999999999</v>
+        <f>AE22*$AB$2</f>
+        <v>1578.00918</v>
       </c>
       <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>8.594934023700656</v>
+        <v>7.7226672942733217</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -10394,12 +10406,12 @@
         <v>1</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" ref="T23:T33" si="4">AE23</f>
-        <v>5592.6149999999998</v>
+        <f t="shared" ref="T23:T33" si="4">AE23*$AB$2</f>
+        <v>6151.8765000000003</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" ref="U23:U33" si="5">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>1.4611830180423762</v>
+        <v>1.2374391073112512</v>
       </c>
       <c r="AD23">
         <v>2</v>
@@ -10444,11 +10456,11 @@
       </c>
       <c r="T24" s="5">
         <f t="shared" si="4"/>
-        <v>5592.5129999999999</v>
+        <v>6151.7643000000007</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="5"/>
-        <v>1.4612279067476579</v>
+        <v>1.2374799152251432</v>
       </c>
       <c r="AC24" s="6"/>
       <c r="AD24">
@@ -10494,11 +10506,11 @@
       </c>
       <c r="T25" s="5">
         <f t="shared" si="4"/>
-        <v>1434.5676000000001</v>
+        <v>1578.0243600000001</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="5"/>
-        <v>8.594841724049159</v>
+        <v>7.7225833854992345</v>
       </c>
       <c r="AD25">
         <v>4</v>
@@ -10546,11 +10558,11 @@
       </c>
       <c r="T26" s="5">
         <f t="shared" si="4"/>
-        <v>2224.6469999999999</v>
+        <v>2447.1116999999999</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="5"/>
-        <v>5.1872508602259444</v>
+        <v>4.6247735092963129</v>
       </c>
       <c r="AD26">
         <v>5</v>
@@ -10628,11 +10640,11 @@
       </c>
       <c r="T27" s="5">
         <f t="shared" si="4"/>
-        <v>2224.6803</v>
+        <v>2447.14833</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="5"/>
-        <v>5.1871582467148487</v>
+        <v>4.624689315195317</v>
       </c>
       <c r="AD27">
         <v>6</v>
@@ -10712,11 +10724,11 @@
       </c>
       <c r="T28" s="5">
         <f t="shared" si="4"/>
-        <v>2224.6646999999998</v>
+        <v>2447.1311700000001</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="5"/>
-        <v>5.1872016328793569</v>
+        <v>4.6247287571630515</v>
       </c>
       <c r="AD28">
         <v>7</v>
@@ -10766,11 +10778,11 @@
       </c>
       <c r="T29" s="5">
         <f t="shared" si="4"/>
-        <v>1434.5697</v>
+        <v>1578.0266700000002</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="5"/>
-        <v>8.594827678605693</v>
+        <v>7.7225706169142647</v>
       </c>
       <c r="AD29">
         <v>8</v>
@@ -10818,11 +10830,11 @@
       </c>
       <c r="T30" s="5">
         <f t="shared" si="4"/>
-        <v>1434.5562</v>
+        <v>1578.0118200000002</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="5"/>
-        <v>8.5949179714597896</v>
+        <v>7.72265270132708</v>
       </c>
       <c r="W30" s="2"/>
       <c r="AD30">
@@ -10901,11 +10913,11 @@
       </c>
       <c r="T31" s="5">
         <f t="shared" si="4"/>
-        <v>2224.6410000000001</v>
+        <v>2447.1051000000002</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="5"/>
-        <v>5.1872675476398511</v>
+        <v>4.6247886796725899</v>
       </c>
       <c r="AD31">
         <v>10</v>
@@ -10985,11 +10997,11 @@
       </c>
       <c r="T32" s="5">
         <f t="shared" si="4"/>
-        <v>5592.6509999999998</v>
+        <v>6151.9161000000004</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="5"/>
-        <v>1.4611671753608557</v>
+        <v>1.2374247048735052</v>
       </c>
       <c r="AD32">
         <v>11</v>
@@ -11034,11 +11046,11 @@
       </c>
       <c r="T33" s="5">
         <f t="shared" si="4"/>
-        <v>5592.7470000000003</v>
+        <v>6152.0217000000011</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="5"/>
-        <v>1.4611249292072506</v>
+        <v>1.2373862992793185</v>
       </c>
       <c r="AD33">
         <v>12</v>
@@ -11117,16 +11129,16 @@
         <v>1.4</v>
       </c>
       <c r="U38" s="5">
-        <f>AE22</f>
-        <v>1434.5537999999999</v>
+        <f>AE22*$AB$2</f>
+        <v>1578.00918</v>
       </c>
       <c r="V38" s="5">
-        <f>SQRT(AF22^2 + AG22^2)</f>
-        <v>1780.7992934730992</v>
+        <f>SQRT(($AB$2*AF22)^2 + ($AB$2*AG22)^2)</f>
+        <v>1958.8792228204093</v>
       </c>
       <c r="W38" s="4">
         <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
-        <v>-4.8472279684931285E-2</v>
+        <v>-0.14503916085818669</v>
       </c>
     </row>
     <row r="39" spans="16:36" x14ac:dyDescent="0.25">
@@ -11146,16 +11158,16 @@
         <v>1.4</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" ref="U39:U49" si="17">AE23</f>
-        <v>5592.6149999999998</v>
+        <f t="shared" ref="U39:U49" si="17">AE23*$AB$2</f>
+        <v>6151.8765000000003</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" ref="V39:V49" si="18">SQRT(AF23^2 + AG23^2)</f>
-        <v>1873.1518333004615</v>
+        <f t="shared" ref="V39:V49" si="18">SQRT(($AB$2*AF23)^2 + ($AB$2*AG23)^2)</f>
+        <v>2060.4670166305082</v>
       </c>
       <c r="W39" s="4">
         <f t="shared" ref="W39:W49" si="19">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
-        <v>-0.40045250926093479</v>
+        <v>-0.49225832591127672</v>
       </c>
     </row>
     <row r="40" spans="16:36" x14ac:dyDescent="0.25">
@@ -11176,15 +11188,15 @@
       </c>
       <c r="U40" s="5">
         <f t="shared" si="17"/>
-        <v>5592.5129999999999</v>
+        <v>6151.7643000000007</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="18"/>
-        <v>1873.1441709202977</v>
+        <v>2060.4585880123277</v>
       </c>
       <c r="W40" s="4">
         <f t="shared" si="19"/>
-        <v>-0.40044257319975229</v>
+        <v>-0.49224876539570317</v>
       </c>
     </row>
     <row r="41" spans="16:36" x14ac:dyDescent="0.25">
@@ -11205,15 +11217,15 @@
       </c>
       <c r="U41" s="5">
         <f t="shared" si="17"/>
-        <v>1434.5676000000001</v>
+        <v>1578.0243600000001</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="18"/>
-        <v>1780.7952189720438</v>
+        <v>1958.8747408692482</v>
       </c>
       <c r="W41" s="4">
         <f t="shared" si="19"/>
-        <v>-4.8471167548963079E-2</v>
+        <v>-0.14503826966949829</v>
       </c>
     </row>
     <row r="42" spans="16:36" x14ac:dyDescent="0.25">
@@ -11234,15 +11246,15 @@
       </c>
       <c r="U42" s="5">
         <f t="shared" si="17"/>
-        <v>2224.6469999999999</v>
+        <v>2447.1116999999999</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="18"/>
-        <v>3551.3184535494438</v>
+        <v>3906.4502989043881</v>
       </c>
       <c r="W42" s="4">
         <f t="shared" si="19"/>
-        <v>-0.55343387729685212</v>
+        <v>-0.60185708575182972</v>
       </c>
     </row>
     <row r="43" spans="16:36" x14ac:dyDescent="0.25">
@@ -11263,15 +11275,15 @@
       </c>
       <c r="U43" s="5">
         <f t="shared" si="17"/>
-        <v>2224.6803</v>
+        <v>2447.14833</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="18"/>
-        <v>3551.3388502064904</v>
+        <v>3906.4727352271398</v>
       </c>
       <c r="W43" s="4">
         <f t="shared" si="19"/>
-        <v>-0.55343773072454772</v>
+        <v>-0.60186066106706759</v>
       </c>
     </row>
     <row r="44" spans="16:36" x14ac:dyDescent="0.25">
@@ -11292,15 +11304,15 @@
       </c>
       <c r="U44" s="5">
         <f t="shared" si="17"/>
-        <v>2224.6646999999998</v>
+        <v>2447.1311700000001</v>
       </c>
       <c r="V44" s="5">
         <f t="shared" si="18"/>
-        <v>3551.2988492873933</v>
+        <v>3906.4287342161324</v>
       </c>
       <c r="W44" s="4">
         <f t="shared" si="19"/>
-        <v>-0.5534320970711244</v>
+        <v>-0.601855572837108</v>
       </c>
     </row>
     <row r="45" spans="16:36" x14ac:dyDescent="0.25">
@@ -11321,15 +11333,15 @@
       </c>
       <c r="U45" s="5">
         <f t="shared" si="17"/>
-        <v>1434.5697</v>
+        <v>1578.0266700000002</v>
       </c>
       <c r="V45" s="5">
         <f t="shared" si="18"/>
-        <v>1780.7800503042929</v>
+        <v>1958.8580553347224</v>
       </c>
       <c r="W45" s="4">
         <f t="shared" si="19"/>
-        <v>-4.8463224499111335E-2</v>
+        <v>-0.14503114917731563</v>
       </c>
     </row>
     <row r="46" spans="16:36" x14ac:dyDescent="0.25">
@@ -11350,15 +11362,15 @@
       </c>
       <c r="U46" s="5">
         <f t="shared" si="17"/>
-        <v>1434.5562</v>
+        <v>1578.0118200000002</v>
       </c>
       <c r="V46" s="5">
         <f t="shared" si="18"/>
-        <v>1780.7883924125572</v>
+        <v>1958.8672316538132</v>
       </c>
       <c r="W46" s="4">
         <f t="shared" si="19"/>
-        <v>-4.846664014193014E-2</v>
+        <v>-0.14503411244741804</v>
       </c>
     </row>
     <row r="47" spans="16:36" x14ac:dyDescent="0.25">
@@ -11379,15 +11391,15 @@
       </c>
       <c r="U47" s="5">
         <f t="shared" si="17"/>
-        <v>2224.6410000000001</v>
+        <v>2447.1051000000002</v>
       </c>
       <c r="V47" s="5">
         <f t="shared" si="18"/>
-        <v>3551.2900367959269</v>
+        <v>3906.4190404755195</v>
       </c>
       <c r="W47" s="4">
         <f t="shared" si="19"/>
-        <v>-0.55343007176964187</v>
+        <v>-0.60185366769800674</v>
       </c>
     </row>
     <row r="48" spans="16:36" x14ac:dyDescent="0.25">
@@ -11408,15 +11420,15 @@
       </c>
       <c r="U48" s="5">
         <f t="shared" si="17"/>
-        <v>5592.6509999999998</v>
+        <v>6151.9161000000004</v>
       </c>
       <c r="V48" s="5">
         <f t="shared" si="18"/>
-        <v>1873.0888719587122</v>
+        <v>2060.3977591545836</v>
       </c>
       <c r="W48" s="4">
         <f t="shared" si="19"/>
-        <v>-0.40043499760605328</v>
+        <v>-0.49224390018439534</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -11437,15 +11449,15 @@
       </c>
       <c r="U49" s="5">
         <f t="shared" si="17"/>
-        <v>5592.7470000000003</v>
+        <v>6152.0217000000011</v>
       </c>
       <c r="V49" s="5">
         <f t="shared" si="18"/>
-        <v>1873.1023129288185</v>
+        <v>2060.4125442217005</v>
       </c>
       <c r="W49" s="4">
         <f t="shared" si="19"/>
-        <v>-0.40044634342415664</v>
+        <v>-0.49225458720201209</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
@@ -11535,20 +11547,20 @@
         <v>655000000</v>
       </c>
       <c r="Z54" s="5">
-        <f>AE22</f>
-        <v>1434.5537999999999</v>
+        <f>AE22*$AB$2</f>
+        <v>1578.00918</v>
       </c>
       <c r="AA54" s="5">
-        <f>SQRT(AF22^2 + AG22^2)</f>
-        <v>1780.7992934730992</v>
+        <f>SQRT(($AB$2*AF22)^2 + ($AB$2*AG22)^2)</f>
+        <v>1958.8792228204093</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.56326561058451352</v>
+        <v>0.55973588369713267</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.78068895147246953</v>
+        <v>0.77102154441626003</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -11583,20 +11595,20 @@
         <v>655000000</v>
       </c>
       <c r="Z55" s="5">
-        <f t="shared" ref="Z55:Z65" si="20">AE23</f>
-        <v>5592.6149999999998</v>
+        <f t="shared" ref="Z55:Z65" si="20">AE23*$AB$2</f>
+        <v>6151.8765000000003</v>
       </c>
       <c r="AA55" s="5">
-        <f t="shared" ref="AA55:AA65" si="21">SQRT(AF23^2 + AG23^2)</f>
-        <v>1873.1518333004615</v>
+        <f t="shared" ref="AA55:AA65" si="21">SQRT(($AB$2*AF23)^2 + ($AB$2*AG23)^2)</f>
+        <v>2060.4670166305082</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" ref="AB55:AB65" si="22">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.55077714237806363</v>
+        <v>0.54592930859498212</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" ref="AC55:AC65" si="23">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.75936126115301628</v>
+        <v>0.74747969591948737</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -11632,19 +11644,19 @@
       </c>
       <c r="Z56" s="5">
         <f t="shared" si="20"/>
-        <v>5592.5129999999999</v>
+        <v>6151.7643000000007</v>
       </c>
       <c r="AA56" s="5">
         <f t="shared" si="21"/>
-        <v>1873.1441709202977</v>
+        <v>2060.4585880123277</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="22"/>
-        <v>0.55077754070392082</v>
+        <v>0.54592975743425431</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="23"/>
-        <v>0.75936204800087426</v>
+        <v>0.74748058566790343</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -11680,19 +11692,19 @@
       </c>
       <c r="Z57" s="5">
         <f t="shared" si="20"/>
-        <v>1434.5676000000001</v>
+        <v>1578.0243600000001</v>
       </c>
       <c r="AA57" s="5">
         <f t="shared" si="21"/>
-        <v>1780.7952189720438</v>
+        <v>1958.8747408692482</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="22"/>
-        <v>0.56326564299106496</v>
+        <v>0.55973592662210248</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="23"/>
-        <v>0.78068909469638181</v>
+        <v>0.77102172099098554</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -11728,19 +11740,19 @@
       </c>
       <c r="Z58" s="5">
         <f t="shared" si="20"/>
-        <v>2224.6469999999999</v>
+        <v>2447.1116999999999</v>
       </c>
       <c r="AA58" s="5">
         <f t="shared" si="21"/>
-        <v>3551.3184535494438</v>
+        <v>3906.4502989043881</v>
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="22"/>
-        <v>0.51835871187550486</v>
+        <v>0.50643753281559767</v>
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="23"/>
-        <v>0.66087626886558737</v>
+        <v>0.63138120028280742</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -11776,19 +11788,19 @@
       </c>
       <c r="Z59" s="5">
         <f t="shared" si="20"/>
-        <v>2224.6803</v>
+        <v>2447.14833</v>
       </c>
       <c r="AA59" s="5">
         <f t="shared" si="21"/>
-        <v>3551.3388502064904</v>
+        <v>3906.4727352271398</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="22"/>
-        <v>0.51835800075955119</v>
+        <v>0.50643670112220307</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="23"/>
-        <v>0.6608745413083974</v>
+        <v>0.63137923080806369</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -11824,19 +11836,19 @@
       </c>
       <c r="Z60" s="5">
         <f t="shared" si="20"/>
-        <v>2224.6646999999998</v>
+        <v>2447.1311700000001</v>
       </c>
       <c r="AA60" s="5">
         <f t="shared" si="21"/>
-        <v>3551.2988492873933</v>
+        <v>3906.4287342161324</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="22"/>
-        <v>0.51835927473447052</v>
+        <v>0.50643820255581962</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="23"/>
-        <v>0.66087776418718591</v>
+        <v>0.63138292102564164</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -11872,19 +11884,19 @@
       </c>
       <c r="Z61" s="5">
         <f t="shared" si="20"/>
-        <v>1434.5697</v>
+        <v>1578.0266700000002</v>
       </c>
       <c r="AA61" s="5">
         <f t="shared" si="21"/>
-        <v>1780.7800503042929</v>
+        <v>1958.8580553347224</v>
       </c>
       <c r="AB61" s="2">
         <f t="shared" si="22"/>
-        <v>0.56326589396460958</v>
+        <v>0.55973622885306917</v>
       </c>
       <c r="AC61" s="2">
         <f t="shared" si="23"/>
-        <v>0.78068982923215469</v>
+        <v>0.77102259630748948</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -11920,19 +11932,19 @@
       </c>
       <c r="Z62" s="5">
         <f t="shared" si="20"/>
-        <v>1434.5562</v>
+        <v>1578.0118200000002</v>
       </c>
       <c r="AA62" s="5">
         <f t="shared" si="21"/>
-        <v>1780.7883924125572</v>
+        <v>1958.8672316538132</v>
       </c>
       <c r="AB62" s="2">
         <f t="shared" si="22"/>
-        <v>0.56326578859268883</v>
+        <v>0.55973609832316096</v>
       </c>
       <c r="AC62" s="2">
         <f t="shared" si="23"/>
-        <v>0.78068947571300296</v>
+        <v>0.77102216952952451</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -11968,19 +11980,19 @@
       </c>
       <c r="Z63" s="5">
         <f t="shared" si="20"/>
-        <v>2224.6410000000001</v>
+        <v>2447.1051000000002</v>
       </c>
       <c r="AA63" s="5">
         <f t="shared" si="21"/>
-        <v>3551.2900367959269</v>
+        <v>3906.4190404755195</v>
       </c>
       <c r="AB63" s="2">
         <f t="shared" si="22"/>
-        <v>0.51835960457404728</v>
+        <v>0.50643858617967652</v>
       </c>
       <c r="AC63" s="2">
         <f t="shared" si="23"/>
-        <v>0.66087854152007308</v>
+        <v>0.63138380421050488</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -12016,19 +12028,19 @@
       </c>
       <c r="Z64" s="5">
         <f t="shared" si="20"/>
-        <v>5592.6509999999998</v>
+        <v>6151.9161000000004</v>
       </c>
       <c r="AA64" s="5">
         <f t="shared" si="21"/>
-        <v>1873.0888719587122</v>
+        <v>2060.3977591545836</v>
       </c>
       <c r="AB64" s="2">
         <f t="shared" si="22"/>
-        <v>0.55077814212067988</v>
+        <v>0.54593051707891416</v>
       </c>
       <c r="AC64" s="2">
         <f t="shared" si="23"/>
-        <v>0.75936424709135664</v>
+        <v>0.7474832514401637</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -12064,19 +12076,19 @@
       </c>
       <c r="Z65" s="5">
         <f t="shared" si="20"/>
-        <v>5592.7470000000003</v>
+        <v>6152.0217000000011</v>
       </c>
       <c r="AA65" s="5">
         <f t="shared" si="21"/>
-        <v>1873.1023129288185</v>
+        <v>2060.4125442217005</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" si="22"/>
-        <v>0.55077765905402698</v>
+        <v>0.54592996497768009</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" si="23"/>
-        <v>0.75936319693654175</v>
+        <v>0.74748204696098219</v>
       </c>
     </row>
   </sheetData>
@@ -12151,8 +12163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6299180F-B9DC-4F73-90FF-4FF4CF35D475}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12213,6 +12225,12 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
+      <c r="AA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
@@ -12378,16 +12396,16 @@
         <v>1100000000</v>
       </c>
       <c r="X6" s="5">
-        <f>AE22</f>
-        <v>1616.2065</v>
+        <f>AE22*$AB$2</f>
+        <v>1777.8271500000001</v>
       </c>
       <c r="Y6" s="7">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.57805046827032625</v>
+        <v>0.57761072774160915</v>
       </c>
       <c r="Z6" s="7">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.82518133992254228</v>
+        <v>0.82447016326066058</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -12442,16 +12460,16 @@
         <v>1100000000</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" ref="X7:X17" si="0">AE23</f>
-        <v>2199.5192999999999</v>
+        <f t="shared" ref="X7:X17" si="0">AE23*$AB$2</f>
+        <v>2419.4712300000001</v>
       </c>
       <c r="Y7" s="7">
         <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.57646453282584731</v>
+        <v>0.5758673455525547</v>
       </c>
       <c r="Z7" s="7">
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.82261720511650593</v>
+        <v>0.8216522067711074</v>
       </c>
       <c r="AD7">
         <v>2</v>
@@ -12502,15 +12520,15 @@
       </c>
       <c r="X8" s="5">
         <f t="shared" si="0"/>
-        <v>2199.4358999999999</v>
+        <v>2419.3794900000003</v>
       </c>
       <c r="Y8" s="7">
         <f>((Q8*U8)/(R8+S8*X8*T8))-1</f>
-        <v>0.57646475934943298</v>
+        <v>0.57586759453975578</v>
       </c>
       <c r="Z8" s="7">
         <f t="shared" si="2"/>
-        <v>0.82261757121246126</v>
+        <v>0.82165260905034843</v>
       </c>
       <c r="AD8">
         <v>3</v>
@@ -12564,15 +12582,15 @@
       </c>
       <c r="X9" s="5">
         <f t="shared" si="0"/>
-        <v>1616.2055999999998</v>
+        <v>1777.8261599999998</v>
       </c>
       <c r="Y9" s="7">
         <f t="shared" si="1"/>
-        <v>0.57805047071974558</v>
+        <v>0.57761073043446953</v>
       </c>
       <c r="Z9" s="7">
         <f t="shared" si="2"/>
-        <v>0.82518134388434095</v>
+        <v>0.82447016761524394</v>
       </c>
       <c r="AD9">
         <v>4</v>
@@ -12623,15 +12641,15 @@
       </c>
       <c r="X10" s="5">
         <f t="shared" si="0"/>
-        <v>2199.4719</v>
+        <v>2419.4190900000003</v>
       </c>
       <c r="Y10" s="7">
         <f t="shared" si="1"/>
-        <v>0.57646466156945997</v>
+        <v>0.57586748706325652</v>
       </c>
       <c r="Z10" s="7">
         <f t="shared" si="2"/>
-        <v>0.82261741318541226</v>
+        <v>0.8216524354046113</v>
       </c>
       <c r="AD10">
         <v>5</v>
@@ -12685,15 +12703,15 @@
       </c>
       <c r="X11" s="5">
         <f t="shared" si="0"/>
-        <v>2199.4221000000002</v>
+        <v>2419.3643100000004</v>
       </c>
       <c r="Y11" s="7">
         <f t="shared" si="1"/>
-        <v>0.57646479683175933</v>
+        <v>0.57586763573908439</v>
       </c>
       <c r="Z11" s="7">
         <f t="shared" si="2"/>
-        <v>0.8226176317895042</v>
+        <v>0.82165267561455635</v>
       </c>
       <c r="AD11">
         <v>6</v>
@@ -12777,15 +12795,15 @@
       </c>
       <c r="X12" s="5">
         <f t="shared" si="0"/>
-        <v>2199.4506000000001</v>
+        <v>2419.3956600000001</v>
       </c>
       <c r="Y12" s="7">
         <f t="shared" si="1"/>
-        <v>0.57646471942260913</v>
+        <v>0.57586755065351669</v>
       </c>
       <c r="Z12" s="7">
         <f t="shared" si="2"/>
-        <v>0.82261750668474654</v>
+        <v>0.82165253814500172</v>
       </c>
       <c r="AD12">
         <v>7</v>
@@ -12871,15 +12889,15 @@
       </c>
       <c r="X13" s="5">
         <f t="shared" si="0"/>
-        <v>1616.2055999999998</v>
+        <v>1777.8261599999998</v>
       </c>
       <c r="Y13" s="7">
         <f t="shared" si="1"/>
-        <v>0.57805047071974558</v>
+        <v>0.57761073043446953</v>
       </c>
       <c r="Z13" s="7">
         <f t="shared" si="2"/>
-        <v>0.82518134388434095</v>
+        <v>0.82447016761524394</v>
       </c>
       <c r="AD13">
         <v>8</v>
@@ -12935,15 +12953,15 @@
       </c>
       <c r="X14" s="5">
         <f t="shared" si="0"/>
-        <v>1616.2047000000002</v>
+        <v>1777.8251700000003</v>
       </c>
       <c r="Y14" s="7">
         <f t="shared" si="1"/>
-        <v>0.57805047316916536</v>
+        <v>0.57761073312732947</v>
       </c>
       <c r="Z14" s="7">
         <f t="shared" si="2"/>
-        <v>0.82518134784613961</v>
+        <v>0.8244701719698273</v>
       </c>
       <c r="AD14">
         <v>9</v>
@@ -12997,15 +13015,15 @@
       </c>
       <c r="X15" s="5">
         <f t="shared" si="0"/>
-        <v>2199.3254999999999</v>
+        <v>2419.2580499999999</v>
       </c>
       <c r="Y15" s="7">
         <f t="shared" si="1"/>
-        <v>0.57646505920809288</v>
+        <v>0.5758679241344451</v>
       </c>
       <c r="Z15" s="7">
         <f t="shared" si="2"/>
-        <v>0.82261805582891623</v>
+        <v>0.82165314156414904</v>
       </c>
       <c r="AD15">
         <v>10</v>
@@ -13089,15 +13107,15 @@
       </c>
       <c r="X16" s="5">
         <f t="shared" si="0"/>
-        <v>2199.3609000000001</v>
+        <v>2419.2969900000003</v>
       </c>
       <c r="Y16" s="7">
         <f t="shared" si="1"/>
-        <v>0.57646496305774941</v>
+        <v>0.57586781844917634</v>
       </c>
       <c r="Z16" s="7">
         <f t="shared" si="2"/>
-        <v>0.82261790043556848</v>
+        <v>0.8216529708124074</v>
       </c>
       <c r="AD16">
         <v>11</v>
@@ -13183,15 +13201,15 @@
       </c>
       <c r="X17" s="5">
         <f t="shared" si="0"/>
-        <v>2199.3531000000003</v>
+        <v>2419.2884100000006</v>
       </c>
       <c r="Y17" s="7">
         <f t="shared" si="1"/>
-        <v>0.5764649842434173</v>
+        <v>0.57586784173575967</v>
       </c>
       <c r="Z17" s="7">
         <f t="shared" si="2"/>
-        <v>0.82261793467477839</v>
+        <v>0.82165300843566969</v>
       </c>
       <c r="AD17">
         <v>12</v>
@@ -13382,12 +13400,12 @@
         <v>1</v>
       </c>
       <c r="T22" s="5">
-        <f>AE22</f>
-        <v>1616.2065</v>
+        <f>AE22*$AB$2</f>
+        <v>1777.8271500000001</v>
       </c>
       <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>7.5165163390006562</v>
+        <v>6.7422875809096876</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -13431,12 +13449,12 @@
         <v>1</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" ref="T23:T33" si="4">AE23</f>
-        <v>2199.5192999999999</v>
+        <f t="shared" ref="T23:T33" si="4">AE23*$AB$2</f>
+        <v>2419.4712300000001</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" ref="U23:U33" si="5">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>5.2579351153904685</v>
+        <v>4.6890319230822444</v>
       </c>
       <c r="AD23">
         <v>2</v>
@@ -13481,11 +13499,11 @@
       </c>
       <c r="T24" s="5">
         <f t="shared" si="4"/>
-        <v>2199.4358999999999</v>
+        <v>2419.3794900000003</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="5"/>
-        <v>5.2581724088658666</v>
+        <v>4.6892476444235145</v>
       </c>
       <c r="AC24" s="6"/>
       <c r="AD24">
@@ -13531,11 +13549,11 @@
       </c>
       <c r="T25" s="5">
         <f t="shared" si="4"/>
-        <v>1616.2055999999998</v>
+        <v>1777.8261599999998</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="5"/>
-        <v>7.5165210815066263</v>
+        <v>6.7422918922787511</v>
       </c>
       <c r="AD25">
         <v>4</v>
@@ -13583,11 +13601,11 @@
       </c>
       <c r="T26" s="5">
         <f t="shared" si="4"/>
-        <v>2199.4719</v>
+        <v>2419.4190900000003</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="5"/>
-        <v>5.2580699778201598</v>
+        <v>4.6891545252910536</v>
       </c>
       <c r="AD26">
         <v>5</v>
@@ -13665,11 +13683,11 @@
       </c>
       <c r="T27" s="5">
         <f t="shared" si="4"/>
-        <v>2199.4221000000002</v>
+        <v>2419.3643100000004</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="5"/>
-        <v>5.2582116749891092</v>
+        <v>4.6892833408991894</v>
       </c>
       <c r="AD27">
         <v>6</v>
@@ -13749,11 +13767,11 @@
       </c>
       <c r="T28" s="5">
         <f t="shared" si="4"/>
-        <v>2199.4506000000001</v>
+        <v>2419.3956600000001</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="5"/>
-        <v>5.2581305824504829</v>
+        <v>4.6892096204095299</v>
       </c>
       <c r="AD28">
         <v>7</v>
@@ -13803,11 +13821,11 @@
       </c>
       <c r="T29" s="5">
         <f t="shared" si="4"/>
-        <v>1616.2055999999998</v>
+        <v>1777.8261599999998</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="5"/>
-        <v>7.5165210815066263</v>
+        <v>6.7422918922787511</v>
       </c>
       <c r="AD29">
         <v>8</v>
@@ -13855,11 +13873,11 @@
       </c>
       <c r="T30" s="5">
         <f t="shared" si="4"/>
-        <v>1616.2047000000002</v>
+        <v>1777.8251700000003</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="5"/>
-        <v>7.5165258240178758</v>
+        <v>6.7422962036526135</v>
       </c>
       <c r="W30" s="2"/>
       <c r="AD30">
@@ -13938,11 +13956,11 @@
       </c>
       <c r="T31" s="5">
         <f t="shared" si="4"/>
-        <v>2199.3254999999999</v>
+        <v>2419.2580499999999</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="5"/>
-        <v>5.2584865516491597</v>
+        <v>4.689533228771964</v>
       </c>
       <c r="AD31">
         <v>10</v>
@@ -14022,11 +14040,11 @@
       </c>
       <c r="T32" s="5">
         <f t="shared" si="4"/>
-        <v>2199.3609000000001</v>
+        <v>2419.2969900000003</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="5"/>
-        <v>5.2583858176477838</v>
+        <v>4.6894416524070746</v>
       </c>
       <c r="AD32">
         <v>11</v>
@@ -14071,11 +14089,11 @@
       </c>
       <c r="T33" s="5">
         <f t="shared" si="4"/>
-        <v>2199.3531000000003</v>
+        <v>2419.2884100000006</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="5"/>
-        <v>5.2584080129966688</v>
+        <v>4.6894618299969704</v>
       </c>
       <c r="AD33">
         <v>12</v>
@@ -14154,16 +14172,16 @@
         <v>1.4</v>
       </c>
       <c r="U38" s="5">
-        <f>AE22</f>
-        <v>1616.2065</v>
+        <f>AE22*$AB$2</f>
+        <v>1777.8271500000001</v>
       </c>
       <c r="V38" s="5">
-        <f>SQRT(AF22^2 + AG22^2)</f>
-        <v>231.87938460730589</v>
+        <f>SQRT(($AB$2*AF22)^2 + ($AB$2*AG22)^2)</f>
+        <v>255.06732306803653</v>
       </c>
       <c r="W38" s="4">
         <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
-        <v>6.1999312221195124</v>
+        <v>5.4583118924949154</v>
       </c>
     </row>
     <row r="39" spans="16:36" x14ac:dyDescent="0.25">
@@ -14183,16 +14201,16 @@
         <v>1.4</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" ref="U39:U49" si="7">AE23</f>
-        <v>2199.5192999999999</v>
+        <f t="shared" ref="U39:U49" si="7">AE23*$AB$2</f>
+        <v>2419.4712300000001</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" ref="V39:V49" si="8">SQRT(AF23^2 + AG23^2)</f>
-        <v>458.15352954084295</v>
+        <f t="shared" ref="V39:V49" si="8">SQRT(($AB$2*AF23)^2 + ($AB$2*AG23)^2)</f>
+        <v>503.9688824949273</v>
       </c>
       <c r="W39" s="4">
         <f t="shared" ref="W39:W49" si="9">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
-        <v>2.4690375031986185</v>
+        <v>2.0936911996602019</v>
       </c>
     </row>
     <row r="40" spans="16:36" x14ac:dyDescent="0.25">
@@ -14213,15 +14231,15 @@
       </c>
       <c r="U40" s="5">
         <f t="shared" si="7"/>
-        <v>2199.4358999999999</v>
+        <v>2419.3794900000003</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="8"/>
-        <v>458.12319920375302</v>
+        <v>503.93551912412835</v>
       </c>
       <c r="W40" s="4">
         <f t="shared" si="9"/>
-        <v>2.4692921915006067</v>
+        <v>2.0939210379220015</v>
       </c>
     </row>
     <row r="41" spans="16:36" x14ac:dyDescent="0.25">
@@ -14242,15 +14260,15 @@
       </c>
       <c r="U41" s="5">
         <f t="shared" si="7"/>
-        <v>1616.2055999999998</v>
+        <v>1777.8261599999998</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="8"/>
-        <v>231.88118828659515</v>
+        <v>255.0693071152547</v>
       </c>
       <c r="W41" s="4">
         <f t="shared" si="9"/>
-        <v>6.1998757511207208</v>
+        <v>5.4582621901547874</v>
       </c>
     </row>
     <row r="42" spans="16:36" x14ac:dyDescent="0.25">
@@ -14271,15 +14289,15 @@
       </c>
       <c r="U42" s="5">
         <f t="shared" si="7"/>
-        <v>2199.4719</v>
+        <v>2419.4190900000003</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="8"/>
-        <v>458.14134697730844</v>
+        <v>503.95548167503932</v>
       </c>
       <c r="W42" s="4">
         <f t="shared" si="9"/>
-        <v>2.4691439679051852</v>
+        <v>2.0937876834291811</v>
       </c>
     </row>
     <row r="43" spans="16:36" x14ac:dyDescent="0.25">
@@ -14300,15 +14318,15 @@
       </c>
       <c r="U43" s="5">
         <f t="shared" si="7"/>
-        <v>2199.4221000000002</v>
+        <v>2419.3643100000004</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="8"/>
-        <v>458.14612567634623</v>
+        <v>503.96073824398087</v>
       </c>
       <c r="W43" s="4">
         <f t="shared" si="9"/>
-        <v>2.4691227212951214</v>
+        <v>2.093770351977656</v>
       </c>
     </row>
     <row r="44" spans="16:36" x14ac:dyDescent="0.25">
@@ -14329,15 +14347,15 @@
       </c>
       <c r="U44" s="5">
         <f t="shared" si="7"/>
-        <v>2199.4506000000001</v>
+        <v>2419.3956600000001</v>
       </c>
       <c r="V44" s="5">
         <f t="shared" si="8"/>
-        <v>458.13101199556451</v>
+        <v>503.94411319512108</v>
       </c>
       <c r="W44" s="4">
         <f t="shared" si="9"/>
-        <v>2.469228617857123</v>
+        <v>2.0938638657152202</v>
       </c>
     </row>
     <row r="45" spans="16:36" x14ac:dyDescent="0.25">
@@ -14358,15 +14376,15 @@
       </c>
       <c r="U45" s="5">
         <f t="shared" si="7"/>
-        <v>1616.2055999999998</v>
+        <v>1777.8261599999998</v>
       </c>
       <c r="V45" s="5">
         <f t="shared" si="8"/>
-        <v>231.88335449035793</v>
+        <v>255.07168993939374</v>
       </c>
       <c r="W45" s="4">
         <f t="shared" si="9"/>
-        <v>6.1998084914505389</v>
+        <v>5.4582018584768708</v>
       </c>
     </row>
     <row r="46" spans="16:36" x14ac:dyDescent="0.25">
@@ -14387,15 +14405,15 @@
       </c>
       <c r="U46" s="5">
         <f t="shared" si="7"/>
-        <v>1616.2047000000002</v>
+        <v>1777.8251700000003</v>
       </c>
       <c r="V46" s="5">
         <f t="shared" si="8"/>
-        <v>231.88504821288069</v>
+        <v>255.07355303416878</v>
       </c>
       <c r="W46" s="4">
         <f t="shared" si="9"/>
-        <v>6.1997564363819588</v>
+        <v>5.4581552202122925</v>
       </c>
     </row>
     <row r="47" spans="16:36" x14ac:dyDescent="0.25">
@@ -14416,15 +14434,15 @@
       </c>
       <c r="U47" s="5">
         <f t="shared" si="7"/>
-        <v>2199.3254999999999</v>
+        <v>2419.2580499999999</v>
       </c>
       <c r="V47" s="5">
         <f t="shared" si="8"/>
-        <v>458.11057709825093</v>
+        <v>503.92163480807608</v>
       </c>
       <c r="W47" s="4">
         <f t="shared" si="9"/>
-        <v>2.4694208981694592</v>
+        <v>2.0940394021658157</v>
       </c>
     </row>
     <row r="48" spans="16:36" x14ac:dyDescent="0.25">
@@ -14445,15 +14463,15 @@
       </c>
       <c r="U48" s="5">
         <f t="shared" si="7"/>
-        <v>2199.3609000000001</v>
+        <v>2419.2969900000003</v>
       </c>
       <c r="V48" s="5">
         <f t="shared" si="8"/>
-        <v>458.12864113651784</v>
+        <v>503.94150525016971</v>
       </c>
       <c r="W48" s="4">
         <f t="shared" si="9"/>
-        <v>2.4692734794812727</v>
+        <v>2.093906784791276</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -14474,15 +14492,15 @@
       </c>
       <c r="U49" s="5">
         <f t="shared" si="7"/>
-        <v>2199.3531000000003</v>
+        <v>2419.2884100000006</v>
       </c>
       <c r="V49" s="5">
         <f t="shared" si="8"/>
-        <v>458.12380144699966</v>
+        <v>503.93618159169972</v>
       </c>
       <c r="W49" s="4">
         <f t="shared" si="9"/>
-        <v>2.4693124692680839</v>
+        <v>2.0939418091472319</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
@@ -14572,20 +14590,20 @@
         <v>655000000</v>
       </c>
       <c r="Z54" s="5">
-        <f>AE22</f>
-        <v>1616.2065</v>
+        <f>AE22*$AB$2</f>
+        <v>1777.8271500000001</v>
       </c>
       <c r="AA54" s="5">
-        <f>SQRT(AF22^2 + AG22^2)</f>
-        <v>231.87938460730589</v>
+        <f>SQRT(($AB$2*AF22)^2 + ($AB$2*AG22)^2)</f>
+        <v>255.06732306803653</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.5777879102664687</v>
+        <v>0.5772933146515753</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.82438543538512987</v>
+        <v>0.82350837557289225</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -14620,20 +14638,20 @@
         <v>655000000</v>
       </c>
       <c r="Z55" s="5">
-        <f t="shared" ref="Z55:Z65" si="10">AE23</f>
-        <v>2199.5192999999999</v>
+        <f t="shared" ref="Z55:Z65" si="10">AE23*$AB$2</f>
+        <v>2419.4712300000001</v>
       </c>
       <c r="AA55" s="5">
-        <f t="shared" ref="AA55:AA65" si="11">SQRT(AF23^2 + AG23^2)</f>
-        <v>458.15352954084295</v>
+        <f t="shared" ref="AA55:AA65" si="11">SQRT(($AB$2*AF23)^2 + ($AB$2*AG23)^2)</f>
+        <v>503.9688824949273</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" ref="AB55:AB65" si="12">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.57544335996338081</v>
+        <v>0.57463338069309966</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" ref="AC55:AC65" si="13">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.81952899831106696</v>
+        <v>0.81792338552411792</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -14669,19 +14687,19 @@
       </c>
       <c r="Z56" s="5">
         <f t="shared" si="10"/>
-        <v>2199.4358999999999</v>
+        <v>2419.3794900000003</v>
       </c>
       <c r="AA56" s="5">
         <f t="shared" si="11"/>
-        <v>458.12319920375302</v>
+        <v>503.93551912412835</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="12"/>
-        <v>0.57544372111715636</v>
+        <v>0.57463379227874678</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="13"/>
-        <v>0.81952977038382291</v>
+        <v>0.81792427751273444</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -14717,19 +14735,19 @@
       </c>
       <c r="Z57" s="5">
         <f t="shared" si="10"/>
-        <v>1616.2055999999998</v>
+        <v>1777.8261599999998</v>
       </c>
       <c r="AA57" s="5">
         <f t="shared" si="11"/>
-        <v>231.88118828659515</v>
+        <v>255.0693071152547</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="12"/>
-        <v>0.57778790863104179</v>
+        <v>0.57729331240627091</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="13"/>
-        <v>0.82438542696787342</v>
+        <v>0.82350836496978719</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -14765,19 +14783,19 @@
       </c>
       <c r="Z58" s="5">
         <f t="shared" si="10"/>
-        <v>2199.4719</v>
+        <v>2419.4190900000003</v>
       </c>
       <c r="AA58" s="5">
         <f t="shared" si="11"/>
-        <v>458.14134697730844</v>
+        <v>503.95548167503932</v>
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="12"/>
-        <v>0.57544354271064635</v>
+        <v>0.57463358741738646</v>
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="13"/>
-        <v>0.81952936913920205</v>
+        <v>0.81792381044847873</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -14813,19 +14831,19 @@
       </c>
       <c r="Z59" s="5">
         <f t="shared" si="10"/>
-        <v>2199.4221000000002</v>
+        <v>2419.3643100000004</v>
       </c>
       <c r="AA59" s="5">
         <f t="shared" si="11"/>
-        <v>458.14612567634623</v>
+        <v>503.96073824398087</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="12"/>
-        <v>0.57544365642904394</v>
+        <v>0.57463371003365249</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="13"/>
-        <v>0.81952952237687371</v>
+        <v>0.81792397164089992</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -14861,19 +14879,19 @@
       </c>
       <c r="Z60" s="5">
         <f t="shared" si="10"/>
-        <v>2199.4506000000001</v>
+        <v>2419.3956600000001</v>
       </c>
       <c r="AA60" s="5">
         <f t="shared" si="11"/>
-        <v>458.13101199556451</v>
+        <v>503.94411319512108</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="12"/>
-        <v>0.57544364647600577</v>
+        <v>0.57463370646225687</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="13"/>
-        <v>0.81952960113196971</v>
+        <v>0.81792408026567642</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -14909,19 +14927,19 @@
       </c>
       <c r="Z61" s="5">
         <f t="shared" si="10"/>
-        <v>1616.2055999999998</v>
+        <v>1777.8261599999998</v>
       </c>
       <c r="AA61" s="5">
         <f t="shared" si="11"/>
-        <v>231.88335449035793</v>
+        <v>255.07168993939374</v>
       </c>
       <c r="AB61" s="2">
         <f t="shared" si="12"/>
-        <v>0.5777879037266016</v>
+        <v>0.57729330647747767</v>
       </c>
       <c r="AC61" s="2">
         <f t="shared" si="13"/>
-        <v>0.82438541210682614</v>
+        <v>0.82350834701384179</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -14957,19 +14975,19 @@
       </c>
       <c r="Z62" s="5">
         <f t="shared" si="10"/>
-        <v>1616.2047000000002</v>
+        <v>1777.8251700000003</v>
       </c>
       <c r="AA62" s="5">
         <f t="shared" si="11"/>
-        <v>231.88504821288069</v>
+        <v>255.07355303416878</v>
       </c>
       <c r="AB62" s="2">
         <f t="shared" si="12"/>
-        <v>0.5777879023400585</v>
+        <v>0.5772933045330384</v>
       </c>
       <c r="AC62" s="2">
         <f t="shared" si="13"/>
-        <v>0.82438540444371577</v>
+        <v>0.82350833732193807</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -15005,19 +15023,19 @@
       </c>
       <c r="Z63" s="5">
         <f t="shared" si="10"/>
-        <v>2199.3254999999999</v>
+        <v>2419.2580499999999</v>
       </c>
       <c r="AA63" s="5">
         <f t="shared" si="11"/>
-        <v>458.11057709825093</v>
+        <v>503.92163480807608</v>
       </c>
       <c r="AB63" s="2">
         <f t="shared" si="12"/>
-        <v>0.57544407660099495</v>
+        <v>0.57463418900605112</v>
       </c>
       <c r="AC63" s="2">
         <f t="shared" si="13"/>
-        <v>0.81953042225583794</v>
+        <v>0.81792501157495279</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -15053,19 +15071,19 @@
       </c>
       <c r="Z64" s="5">
         <f t="shared" si="10"/>
-        <v>2199.3609000000001</v>
+        <v>2419.2969900000003</v>
       </c>
       <c r="AA64" s="5">
         <f t="shared" si="11"/>
-        <v>458.12864113651784</v>
+        <v>503.94150525016971</v>
       </c>
       <c r="AB64" s="2">
         <f t="shared" si="12"/>
-        <v>0.57544390019600256</v>
+        <v>0.57463398638482199</v>
       </c>
       <c r="AC64" s="2">
         <f t="shared" si="13"/>
-        <v>0.81953002476388948</v>
+        <v>0.8179245487534148</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -15101,19 +15119,19 @@
       </c>
       <c r="Z65" s="5">
         <f t="shared" si="10"/>
-        <v>2199.3531000000003</v>
+        <v>2419.2884100000006</v>
       </c>
       <c r="AA65" s="5">
         <f t="shared" si="11"/>
-        <v>458.12380144699966</v>
+        <v>503.93618159169972</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" si="12"/>
-        <v>0.57544394289256351</v>
+        <v>0.57463403565451121</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" si="13"/>
-        <v>0.81953012390421764</v>
+        <v>0.81792466467845548</v>
       </c>
     </row>
   </sheetData>
